--- a/data/trans_orig/P0801-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P0801-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8B81C927-D1B2-4F46-ACC6-76A572B63C00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{59946738-4C5D-4DE8-8923-5FBC3FE8890B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{9B0F9A85-8A2C-4BD9-81B2-6CDCF4859D80}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{928ED73F-D9B1-42E6-A31B-AD046A720E40}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1556" uniqueCount="846">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1556" uniqueCount="845">
   <si>
     <t>Población según limitación a hacer esfuerzos moderados en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
@@ -77,28 +77,28 @@
     <t>88,03%</t>
   </si>
   <si>
-    <t>83,46%</t>
-  </si>
-  <si>
-    <t>91,58%</t>
+    <t>83,76%</t>
+  </si>
+  <si>
+    <t>91,49%</t>
   </si>
   <si>
     <t>81,64%</t>
   </si>
   <si>
-    <t>76,12%</t>
-  </si>
-  <si>
-    <t>86,08%</t>
+    <t>76,81%</t>
+  </si>
+  <si>
+    <t>86,11%</t>
   </si>
   <si>
     <t>84,91%</t>
   </si>
   <si>
-    <t>81,53%</t>
-  </si>
-  <si>
-    <t>87,76%</t>
+    <t>81,67%</t>
+  </si>
+  <si>
+    <t>87,86%</t>
   </si>
   <si>
     <t>SI, LIMITA UN POCO</t>
@@ -107,28 +107,28 @@
     <t>9,77%</t>
   </si>
   <si>
-    <t>6,68%</t>
-  </si>
-  <si>
-    <t>13,79%</t>
+    <t>6,53%</t>
+  </si>
+  <si>
+    <t>13,68%</t>
   </si>
   <si>
     <t>16,57%</t>
   </si>
   <si>
-    <t>12,61%</t>
-  </si>
-  <si>
-    <t>21,83%</t>
+    <t>12,31%</t>
+  </si>
+  <si>
+    <t>21,49%</t>
   </si>
   <si>
     <t>13,09%</t>
   </si>
   <si>
-    <t>10,4%</t>
-  </si>
-  <si>
-    <t>16,26%</t>
+    <t>10,47%</t>
+  </si>
+  <si>
+    <t>16,31%</t>
   </si>
   <si>
     <t>SI, LIMITA MUCHO</t>
@@ -140,2443 +140,2440 @@
     <t>0,88%</t>
   </si>
   <si>
+    <t>4,77%</t>
+  </si>
+  <si>
+    <t>1,78%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>4,15%</t>
+  </si>
+  <si>
+    <t>1,99%</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>3,69%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Cadiz</t>
+  </si>
+  <si>
+    <t>87,8%</t>
+  </si>
+  <si>
+    <t>84,71%</t>
+  </si>
+  <si>
+    <t>90,47%</t>
+  </si>
+  <si>
+    <t>75,63%</t>
+  </si>
+  <si>
+    <t>71,63%</t>
+  </si>
+  <si>
+    <t>79,46%</t>
+  </si>
+  <si>
+    <t>81,65%</t>
+  </si>
+  <si>
+    <t>79,19%</t>
+  </si>
+  <si>
+    <t>84,01%</t>
+  </si>
+  <si>
+    <t>8,59%</t>
+  </si>
+  <si>
+    <t>6,41%</t>
+  </si>
+  <si>
+    <t>11,34%</t>
+  </si>
+  <si>
+    <t>17,31%</t>
+  </si>
+  <si>
+    <t>13,99%</t>
+  </si>
+  <si>
+    <t>20,67%</t>
+  </si>
+  <si>
+    <t>13,0%</t>
+  </si>
+  <si>
+    <t>11,03%</t>
+  </si>
+  <si>
+    <t>15,24%</t>
+  </si>
+  <si>
+    <t>3,61%</t>
+  </si>
+  <si>
+    <t>2,08%</t>
+  </si>
+  <si>
+    <t>5,62%</t>
+  </si>
+  <si>
+    <t>7,05%</t>
+  </si>
+  <si>
+    <t>4,94%</t>
+  </si>
+  <si>
+    <t>9,63%</t>
+  </si>
+  <si>
+    <t>5,35%</t>
+  </si>
+  <si>
+    <t>4,03%</t>
+  </si>
+  <si>
+    <t>6,93%</t>
+  </si>
+  <si>
+    <t>Cordoba</t>
+  </si>
+  <si>
+    <t>92,61%</t>
+  </si>
+  <si>
+    <t>88,97%</t>
+  </si>
+  <si>
+    <t>95,11%</t>
+  </si>
+  <si>
+    <t>78,57%</t>
+  </si>
+  <si>
+    <t>73,9%</t>
+  </si>
+  <si>
+    <t>83,0%</t>
+  </si>
+  <si>
+    <t>85,41%</t>
+  </si>
+  <si>
+    <t>82,48%</t>
+  </si>
+  <si>
+    <t>88,08%</t>
+  </si>
+  <si>
+    <t>6,17%</t>
+  </si>
+  <si>
+    <t>3,88%</t>
+  </si>
+  <si>
+    <t>9,46%</t>
+  </si>
+  <si>
+    <t>16,9%</t>
+  </si>
+  <si>
+    <t>13,12%</t>
+  </si>
+  <si>
+    <t>21,26%</t>
+  </si>
+  <si>
+    <t>11,67%</t>
+  </si>
+  <si>
+    <t>9,47%</t>
+  </si>
+  <si>
+    <t>14,27%</t>
+  </si>
+  <si>
+    <t>1,22%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>3,05%</t>
+  </si>
+  <si>
+    <t>4,53%</t>
+  </si>
+  <si>
+    <t>2,59%</t>
+  </si>
+  <si>
+    <t>7,19%</t>
+  </si>
+  <si>
+    <t>2,92%</t>
+  </si>
+  <si>
+    <t>1,79%</t>
+  </si>
+  <si>
+    <t>4,44%</t>
+  </si>
+  <si>
+    <t>Granada</t>
+  </si>
+  <si>
+    <t>90,77%</t>
+  </si>
+  <si>
+    <t>87,71%</t>
+  </si>
+  <si>
+    <t>93,45%</t>
+  </si>
+  <si>
+    <t>79,57%</t>
+  </si>
+  <si>
+    <t>75,22%</t>
+  </si>
+  <si>
+    <t>83,43%</t>
+  </si>
+  <si>
+    <t>85,07%</t>
+  </si>
+  <si>
+    <t>82,17%</t>
+  </si>
+  <si>
+    <t>87,55%</t>
+  </si>
+  <si>
+    <t>7,03%</t>
+  </si>
+  <si>
+    <t>4,41%</t>
+  </si>
+  <si>
+    <t>9,62%</t>
+  </si>
+  <si>
+    <t>16,14%</t>
+  </si>
+  <si>
+    <t>12,8%</t>
+  </si>
+  <si>
+    <t>20,57%</t>
+  </si>
+  <si>
+    <t>11,66%</t>
+  </si>
+  <si>
+    <t>14,0%</t>
+  </si>
+  <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>4,05%</t>
+  </si>
+  <si>
+    <t>4,29%</t>
+  </si>
+  <si>
+    <t>2,49%</t>
+  </si>
+  <si>
+    <t>6,67%</t>
+  </si>
+  <si>
+    <t>3,26%</t>
+  </si>
+  <si>
+    <t>2,17%</t>
+  </si>
+  <si>
+    <t>4,89%</t>
+  </si>
+  <si>
+    <t>Huelva</t>
+  </si>
+  <si>
+    <t>92,54%</t>
+  </si>
+  <si>
+    <t>88,65%</t>
+  </si>
+  <si>
+    <t>95,66%</t>
+  </si>
+  <si>
+    <t>83,28%</t>
+  </si>
+  <si>
+    <t>77,58%</t>
+  </si>
+  <si>
+    <t>88,25%</t>
+  </si>
+  <si>
+    <t>84,19%</t>
+  </si>
+  <si>
+    <t>90,49%</t>
+  </si>
+  <si>
+    <t>4,88%</t>
+  </si>
+  <si>
+    <t>2,53%</t>
+  </si>
+  <si>
+    <t>8,17%</t>
+  </si>
+  <si>
+    <t>10,5%</t>
+  </si>
+  <si>
+    <t>7,02%</t>
+  </si>
+  <si>
+    <t>15,62%</t>
+  </si>
+  <si>
+    <t>7,72%</t>
+  </si>
+  <si>
+    <t>5,43%</t>
+  </si>
+  <si>
+    <t>10,75%</t>
+  </si>
+  <si>
+    <t>2,57%</t>
+  </si>
+  <si>
+    <t>5,1%</t>
+  </si>
+  <si>
+    <t>6,22%</t>
+  </si>
+  <si>
+    <t>3,38%</t>
+  </si>
+  <si>
+    <t>10,68%</t>
+  </si>
+  <si>
+    <t>4,42%</t>
+  </si>
+  <si>
+    <t>2,67%</t>
+  </si>
+  <si>
+    <t>6,55%</t>
+  </si>
+  <si>
+    <t>Jaen</t>
+  </si>
+  <si>
+    <t>89,35%</t>
+  </si>
+  <si>
+    <t>85,51%</t>
+  </si>
+  <si>
+    <t>92,95%</t>
+  </si>
+  <si>
+    <t>74,91%</t>
+  </si>
+  <si>
+    <t>69,03%</t>
+  </si>
+  <si>
+    <t>79,8%</t>
+  </si>
+  <si>
+    <t>82,03%</t>
+  </si>
+  <si>
+    <t>78,07%</t>
+  </si>
+  <si>
+    <t>85,12%</t>
+  </si>
+  <si>
+    <t>9,27%</t>
+  </si>
+  <si>
+    <t>6,07%</t>
+  </si>
+  <si>
+    <t>13,07%</t>
+  </si>
+  <si>
+    <t>19,9%</t>
+  </si>
+  <si>
+    <t>15,63%</t>
+  </si>
+  <si>
+    <t>24,76%</t>
+  </si>
+  <si>
+    <t>14,65%</t>
+  </si>
+  <si>
+    <t>11,92%</t>
+  </si>
+  <si>
+    <t>17,85%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>3,08%</t>
+  </si>
+  <si>
+    <t>5,19%</t>
+  </si>
+  <si>
+    <t>2,98%</t>
+  </si>
+  <si>
+    <t>8,62%</t>
+  </si>
+  <si>
+    <t>3,31%</t>
+  </si>
+  <si>
+    <t>1,85%</t>
+  </si>
+  <si>
+    <t>5,16%</t>
+  </si>
+  <si>
+    <t>Malaga</t>
+  </si>
+  <si>
+    <t>87,72%</t>
+  </si>
+  <si>
+    <t>85,01%</t>
+  </si>
+  <si>
+    <t>90,08%</t>
+  </si>
+  <si>
+    <t>78,67%</t>
+  </si>
+  <si>
+    <t>75,21%</t>
+  </si>
+  <si>
+    <t>81,95%</t>
+  </si>
+  <si>
+    <t>83,11%</t>
+  </si>
+  <si>
+    <t>80,79%</t>
+  </si>
+  <si>
+    <t>85,24%</t>
+  </si>
+  <si>
+    <t>8,91%</t>
+  </si>
+  <si>
+    <t>6,76%</t>
+  </si>
+  <si>
+    <t>11,5%</t>
+  </si>
+  <si>
+    <t>15,34%</t>
+  </si>
+  <si>
+    <t>12,39%</t>
+  </si>
+  <si>
+    <t>18,32%</t>
+  </si>
+  <si>
+    <t>12,19%</t>
+  </si>
+  <si>
+    <t>10,45%</t>
+  </si>
+  <si>
+    <t>14,08%</t>
+  </si>
+  <si>
+    <t>3,37%</t>
+  </si>
+  <si>
+    <t>2,21%</t>
+  </si>
+  <si>
+    <t>5,99%</t>
+  </si>
+  <si>
+    <t>4,3%</t>
+  </si>
+  <si>
+    <t>7,93%</t>
+  </si>
+  <si>
+    <t>4,7%</t>
+  </si>
+  <si>
+    <t>3,55%</t>
+  </si>
+  <si>
+    <t>6,01%</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>87,0%</t>
+  </si>
+  <si>
+    <t>84,63%</t>
+  </si>
+  <si>
+    <t>89,25%</t>
+  </si>
+  <si>
+    <t>78,95%</t>
+  </si>
+  <si>
+    <t>75,52%</t>
+  </si>
+  <si>
+    <t>81,75%</t>
+  </si>
+  <si>
+    <t>82,87%</t>
+  </si>
+  <si>
+    <t>80,81%</t>
+  </si>
+  <si>
+    <t>84,85%</t>
+  </si>
+  <si>
+    <t>8,13%</t>
+  </si>
+  <si>
+    <t>10,31%</t>
+  </si>
+  <si>
+    <t>15,16%</t>
+  </si>
+  <si>
+    <t>12,74%</t>
+  </si>
+  <si>
+    <t>18,28%</t>
+  </si>
+  <si>
+    <t>11,74%</t>
+  </si>
+  <si>
+    <t>10,07%</t>
+  </si>
+  <si>
+    <t>13,51%</t>
+  </si>
+  <si>
+    <t>3,47%</t>
+  </si>
+  <si>
+    <t>5,89%</t>
+  </si>
+  <si>
+    <t>4,34%</t>
+  </si>
+  <si>
+    <t>7,75%</t>
+  </si>
+  <si>
+    <t>5,39%</t>
+  </si>
+  <si>
+    <t>4,39%</t>
+  </si>
+  <si>
+    <t>6,59%</t>
+  </si>
+  <si>
+    <t>88,84%</t>
+  </si>
+  <si>
+    <t>87,66%</t>
+  </si>
+  <si>
+    <t>89,9%</t>
+  </si>
+  <si>
+    <t>77,17%</t>
+  </si>
+  <si>
+    <t>80,01%</t>
+  </si>
+  <si>
+    <t>83,63%</t>
+  </si>
+  <si>
+    <t>82,71%</t>
+  </si>
+  <si>
+    <t>84,47%</t>
+  </si>
+  <si>
+    <t>8,06%</t>
+  </si>
+  <si>
+    <t>7,16%</t>
+  </si>
+  <si>
+    <t>9,06%</t>
+  </si>
+  <si>
+    <t>16,01%</t>
+  </si>
+  <si>
+    <t>14,86%</t>
+  </si>
+  <si>
+    <t>17,26%</t>
+  </si>
+  <si>
+    <t>12,1%</t>
+  </si>
+  <si>
+    <t>11,35%</t>
+  </si>
+  <si>
+    <t>12,93%</t>
+  </si>
+  <si>
+    <t>3,1%</t>
+  </si>
+  <si>
+    <t>2,56%</t>
+  </si>
+  <si>
+    <t>3,76%</t>
+  </si>
+  <si>
+    <t>5,42%</t>
+  </si>
+  <si>
+    <t>4,64%</t>
+  </si>
+  <si>
+    <t>6,3%</t>
+  </si>
+  <si>
+    <t>4,28%</t>
+  </si>
+  <si>
+    <t>3,81%</t>
+  </si>
+  <si>
+    <t>4,81%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según limitación a hacer esfuerzos moderados en 2012 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>—%</t>
+  </si>
+  <si>
+    <t>85,19%</t>
+  </si>
+  <si>
+    <t>81,41%</t>
+  </si>
+  <si>
+    <t>88,59%</t>
+  </si>
+  <si>
+    <t>72,65%</t>
+  </si>
+  <si>
+    <t>68,65%</t>
+  </si>
+  <si>
+    <t>76,43%</t>
+  </si>
+  <si>
+    <t>78,81%</t>
+  </si>
+  <si>
+    <t>75,78%</t>
+  </si>
+  <si>
+    <t>81,27%</t>
+  </si>
+  <si>
+    <t>7,7%</t>
+  </si>
+  <si>
+    <t>5,27%</t>
+  </si>
+  <si>
+    <t>10,66%</t>
+  </si>
+  <si>
+    <t>16,15%</t>
+  </si>
+  <si>
+    <t>12,94%</t>
+  </si>
+  <si>
+    <t>19,5%</t>
+  </si>
+  <si>
+    <t>12,0%</t>
+  </si>
+  <si>
+    <t>10,01%</t>
+  </si>
+  <si>
+    <t>14,42%</t>
+  </si>
+  <si>
+    <t>7,11%</t>
+  </si>
+  <si>
+    <t>9,96%</t>
+  </si>
+  <si>
+    <t>11,2%</t>
+  </si>
+  <si>
+    <t>8,53%</t>
+  </si>
+  <si>
+    <t>9,19%</t>
+  </si>
+  <si>
+    <t>7,33%</t>
+  </si>
+  <si>
+    <t>11,29%</t>
+  </si>
+  <si>
+    <t>85,52%</t>
+  </si>
+  <si>
+    <t>80,78%</t>
+  </si>
+  <si>
+    <t>89,22%</t>
+  </si>
+  <si>
+    <t>76,63%</t>
+  </si>
+  <si>
+    <t>70,99%</t>
+  </si>
+  <si>
+    <t>80,97%</t>
+  </si>
+  <si>
+    <t>80,96%</t>
+  </si>
+  <si>
+    <t>77,51%</t>
+  </si>
+  <si>
+    <t>83,99%</t>
+  </si>
+  <si>
+    <t>8,76%</t>
+  </si>
+  <si>
+    <t>5,98%</t>
+  </si>
+  <si>
+    <t>12,57%</t>
+  </si>
+  <si>
+    <t>16,33%</t>
+  </si>
+  <si>
+    <t>12,48%</t>
+  </si>
+  <si>
+    <t>21,43%</t>
+  </si>
+  <si>
+    <t>12,64%</t>
+  </si>
+  <si>
+    <t>10,06%</t>
+  </si>
+  <si>
+    <t>15,44%</t>
+  </si>
+  <si>
+    <t>5,72%</t>
+  </si>
+  <si>
+    <t>3,32%</t>
+  </si>
+  <si>
+    <t>8,86%</t>
+  </si>
+  <si>
+    <t>4,63%</t>
+  </si>
+  <si>
+    <t>10,32%</t>
+  </si>
+  <si>
+    <t>6,39%</t>
+  </si>
+  <si>
+    <t>4,73%</t>
+  </si>
+  <si>
+    <t>8,48%</t>
+  </si>
+  <si>
+    <t>84,46%</t>
+  </si>
+  <si>
+    <t>81,2%</t>
+  </si>
+  <si>
+    <t>87,23%</t>
+  </si>
+  <si>
+    <t>70,28%</t>
+  </si>
+  <si>
+    <t>66,64%</t>
+  </si>
+  <si>
+    <t>73,71%</t>
+  </si>
+  <si>
+    <t>77,33%</t>
+  </si>
+  <si>
+    <t>75,12%</t>
+  </si>
+  <si>
+    <t>79,71%</t>
+  </si>
+  <si>
+    <t>9,59%</t>
+  </si>
+  <si>
+    <t>12,05%</t>
+  </si>
+  <si>
+    <t>16,07%</t>
+  </si>
+  <si>
+    <t>13,46%</t>
+  </si>
+  <si>
+    <t>19,12%</t>
+  </si>
+  <si>
+    <t>12,85%</t>
+  </si>
+  <si>
+    <t>10,98%</t>
+  </si>
+  <si>
+    <t>14,82%</t>
+  </si>
+  <si>
+    <t>5,95%</t>
+  </si>
+  <si>
+    <t>4,32%</t>
+  </si>
+  <si>
+    <t>8,19%</t>
+  </si>
+  <si>
+    <t>13,65%</t>
+  </si>
+  <si>
+    <t>16,59%</t>
+  </si>
+  <si>
+    <t>9,82%</t>
+  </si>
+  <si>
+    <t>8,22%</t>
+  </si>
+  <si>
+    <t>11,56%</t>
+  </si>
+  <si>
+    <t>83,61%</t>
+  </si>
+  <si>
+    <t>77,86%</t>
+  </si>
+  <si>
+    <t>88,09%</t>
+  </si>
+  <si>
+    <t>71,48%</t>
+  </si>
+  <si>
+    <t>64,97%</t>
+  </si>
+  <si>
+    <t>77,41%</t>
+  </si>
+  <si>
+    <t>77,44%</t>
+  </si>
+  <si>
+    <t>72,91%</t>
+  </si>
+  <si>
+    <t>80,99%</t>
+  </si>
+  <si>
+    <t>12,84%</t>
+  </si>
+  <si>
+    <t>8,78%</t>
+  </si>
+  <si>
+    <t>18,06%</t>
+  </si>
+  <si>
+    <t>19,16%</t>
+  </si>
+  <si>
+    <t>14,21%</t>
+  </si>
+  <si>
+    <t>25,34%</t>
+  </si>
+  <si>
+    <t>16,05%</t>
+  </si>
+  <si>
+    <t>12,55%</t>
+  </si>
+  <si>
+    <t>19,96%</t>
+  </si>
+  <si>
+    <t>1,56%</t>
+  </si>
+  <si>
+    <t>6,69%</t>
+  </si>
+  <si>
+    <t>9,37%</t>
+  </si>
+  <si>
+    <t>5,94%</t>
+  </si>
+  <si>
+    <t>13,71%</t>
+  </si>
+  <si>
+    <t>6,51%</t>
+  </si>
+  <si>
+    <t>4,54%</t>
+  </si>
+  <si>
+    <t>9,21%</t>
+  </si>
+  <si>
+    <t>81,81%</t>
+  </si>
+  <si>
+    <t>76,86%</t>
+  </si>
+  <si>
+    <t>86,09%</t>
+  </si>
+  <si>
+    <t>72,86%</t>
+  </si>
+  <si>
+    <t>67,5%</t>
+  </si>
+  <si>
+    <t>78,61%</t>
+  </si>
+  <si>
+    <t>77,29%</t>
+  </si>
+  <si>
+    <t>73,4%</t>
+  </si>
+  <si>
+    <t>80,84%</t>
+  </si>
+  <si>
+    <t>12,12%</t>
+  </si>
+  <si>
+    <t>8,39%</t>
+  </si>
+  <si>
+    <t>17,06%</t>
+  </si>
+  <si>
+    <t>19,27%</t>
+  </si>
+  <si>
+    <t>14,38%</t>
+  </si>
+  <si>
+    <t>24,36%</t>
+  </si>
+  <si>
+    <t>15,73%</t>
+  </si>
+  <si>
+    <t>12,88%</t>
+  </si>
+  <si>
+    <t>18,99%</t>
+  </si>
+  <si>
+    <t>3,51%</t>
+  </si>
+  <si>
+    <t>9,52%</t>
+  </si>
+  <si>
+    <t>7,87%</t>
+  </si>
+  <si>
+    <t>5,09%</t>
+  </si>
+  <si>
+    <t>11,55%</t>
+  </si>
+  <si>
+    <t>6,98%</t>
+  </si>
+  <si>
+    <t>5,14%</t>
+  </si>
+  <si>
+    <t>9,56%</t>
+  </si>
+  <si>
+    <t>87,82%</t>
+  </si>
+  <si>
+    <t>84,77%</t>
+  </si>
+  <si>
+    <t>90,23%</t>
+  </si>
+  <si>
+    <t>76,41%</t>
+  </si>
+  <si>
+    <t>72,92%</t>
+  </si>
+  <si>
+    <t>79,82%</t>
+  </si>
+  <si>
+    <t>81,98%</t>
+  </si>
+  <si>
+    <t>84,13%</t>
+  </si>
+  <si>
+    <t>8,34%</t>
+  </si>
+  <si>
+    <t>6,43%</t>
+  </si>
+  <si>
+    <t>10,78%</t>
+  </si>
+  <si>
+    <t>12,68%</t>
+  </si>
+  <si>
+    <t>18,65%</t>
+  </si>
+  <si>
+    <t>11,97%</t>
+  </si>
+  <si>
+    <t>13,83%</t>
+  </si>
+  <si>
+    <t>3,84%</t>
+  </si>
+  <si>
+    <t>5,86%</t>
+  </si>
+  <si>
+    <t>8,14%</t>
+  </si>
+  <si>
+    <t>6,26%</t>
+  </si>
+  <si>
+    <t>11,0%</t>
+  </si>
+  <si>
+    <t>6,04%</t>
+  </si>
+  <si>
+    <t>4,76%</t>
+  </si>
+  <si>
+    <t>7,6%</t>
+  </si>
+  <si>
+    <t>85,85%</t>
+  </si>
+  <si>
+    <t>82,96%</t>
+  </si>
+  <si>
+    <t>88,12%</t>
+  </si>
+  <si>
+    <t>78,74%</t>
+  </si>
+  <si>
+    <t>75,84%</t>
+  </si>
+  <si>
+    <t>82,2%</t>
+  </si>
+  <si>
+    <t>79,93%</t>
+  </si>
+  <si>
+    <t>84,09%</t>
+  </si>
+  <si>
+    <t>11,22%</t>
+  </si>
+  <si>
+    <t>9,08%</t>
+  </si>
+  <si>
+    <t>14,01%</t>
+  </si>
+  <si>
+    <t>15,51%</t>
+  </si>
+  <si>
+    <t>13,06%</t>
+  </si>
+  <si>
+    <t>18,66%</t>
+  </si>
+  <si>
+    <t>13,42%</t>
+  </si>
+  <si>
+    <t>15,26%</t>
+  </si>
+  <si>
+    <t>2,93%</t>
+  </si>
+  <si>
+    <t>1,84%</t>
+  </si>
+  <si>
+    <t>4,43%</t>
+  </si>
+  <si>
+    <t>5,75%</t>
+  </si>
+  <si>
+    <t>7,48%</t>
+  </si>
+  <si>
+    <t>4,38%</t>
+  </si>
+  <si>
+    <t>5,5%</t>
+  </si>
+  <si>
+    <t>85,37%</t>
+  </si>
+  <si>
+    <t>83,92%</t>
+  </si>
+  <si>
+    <t>86,57%</t>
+  </si>
+  <si>
+    <t>74,67%</t>
+  </si>
+  <si>
+    <t>73,31%</t>
+  </si>
+  <si>
+    <t>76,18%</t>
+  </si>
+  <si>
+    <t>79,92%</t>
+  </si>
+  <si>
+    <t>80,98%</t>
+  </si>
+  <si>
+    <t>10,88%</t>
+  </si>
+  <si>
+    <t>16,3%</t>
+  </si>
+  <si>
+    <t>15,02%</t>
+  </si>
+  <si>
+    <t>17,46%</t>
+  </si>
+  <si>
+    <t>12,26%</t>
+  </si>
+  <si>
+    <t>13,91%</t>
+  </si>
+  <si>
+    <t>4,87%</t>
+  </si>
+  <si>
+    <t>5,64%</t>
+  </si>
+  <si>
+    <t>9,03%</t>
+  </si>
+  <si>
+    <t>8,07%</t>
+  </si>
+  <si>
+    <t>6,99%</t>
+  </si>
+  <si>
+    <t>6,42%</t>
+  </si>
+  <si>
+    <t>Población según limitación a hacer esfuerzos moderados en 2015 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>81,24%</t>
+  </si>
+  <si>
+    <t>76,26%</t>
+  </si>
+  <si>
+    <t>85,55%</t>
+  </si>
+  <si>
+    <t>71,93%</t>
+  </si>
+  <si>
+    <t>65,81%</t>
+  </si>
+  <si>
+    <t>77,35%</t>
+  </si>
+  <si>
+    <t>72,98%</t>
+  </si>
+  <si>
+    <t>80,1%</t>
+  </si>
+  <si>
+    <t>8,66%</t>
+  </si>
+  <si>
+    <t>17,3%</t>
+  </si>
+  <si>
+    <t>14,04%</t>
+  </si>
+  <si>
+    <t>10,21%</t>
+  </si>
+  <si>
+    <t>19,25%</t>
+  </si>
+  <si>
+    <t>13,28%</t>
+  </si>
+  <si>
+    <t>10,53%</t>
+  </si>
+  <si>
+    <t>16,44%</t>
+  </si>
+  <si>
+    <t>6,21%</t>
+  </si>
+  <si>
+    <t>3,8%</t>
+  </si>
+  <si>
+    <t>18,74%</t>
+  </si>
+  <si>
+    <t>10,09%</t>
+  </si>
+  <si>
+    <t>7,68%</t>
+  </si>
+  <si>
+    <t>12,78%</t>
+  </si>
+  <si>
+    <t>87,95%</t>
+  </si>
+  <si>
+    <t>90,83%</t>
+  </si>
+  <si>
+    <t>78,96%</t>
+  </si>
+  <si>
+    <t>75,31%</t>
+  </si>
+  <si>
+    <t>82,86%</t>
+  </si>
+  <si>
+    <t>83,37%</t>
+  </si>
+  <si>
+    <t>80,93%</t>
+  </si>
+  <si>
+    <t>85,59%</t>
+  </si>
+  <si>
+    <t>8,36%</t>
+  </si>
+  <si>
+    <t>5,76%</t>
+  </si>
+  <si>
+    <t>11,04%</t>
+  </si>
+  <si>
+    <t>13,29%</t>
+  </si>
+  <si>
+    <t>10,25%</t>
+  </si>
+  <si>
+    <t>16,72%</t>
+  </si>
+  <si>
+    <t>10,87%</t>
+  </si>
+  <si>
+    <t>12,83%</t>
+  </si>
+  <si>
+    <t>2,31%</t>
+  </si>
+  <si>
+    <t>5,61%</t>
+  </si>
+  <si>
+    <t>10,8%</t>
+  </si>
+  <si>
+    <t>4,27%</t>
+  </si>
+  <si>
+    <t>7,42%</t>
+  </si>
+  <si>
+    <t>86,54%</t>
+  </si>
+  <si>
+    <t>82,63%</t>
+  </si>
+  <si>
+    <t>89,59%</t>
+  </si>
+  <si>
+    <t>80,21%</t>
+  </si>
+  <si>
+    <t>75,73%</t>
+  </si>
+  <si>
+    <t>84,69%</t>
+  </si>
+  <si>
+    <t>83,29%</t>
+  </si>
+  <si>
+    <t>80,02%</t>
+  </si>
+  <si>
+    <t>85,96%</t>
+  </si>
+  <si>
+    <t>11,76%</t>
+  </si>
+  <si>
+    <t>8,97%</t>
+  </si>
+  <si>
+    <t>15,0%</t>
+  </si>
+  <si>
+    <t>10,7%</t>
+  </si>
+  <si>
+    <t>13,43%</t>
+  </si>
+  <si>
+    <t>10,93%</t>
+  </si>
+  <si>
+    <t>16,53%</t>
+  </si>
+  <si>
+    <t>1,7%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>3,53%</t>
+  </si>
+  <si>
+    <t>4,78%</t>
+  </si>
+  <si>
+    <t>2,73%</t>
+  </si>
+  <si>
+    <t>7,63%</t>
+  </si>
+  <si>
+    <t>3,28%</t>
+  </si>
+  <si>
+    <t>5,01%</t>
+  </si>
+  <si>
+    <t>85,77%</t>
+  </si>
+  <si>
+    <t>81,84%</t>
+  </si>
+  <si>
+    <t>89,17%</t>
+  </si>
+  <si>
+    <t>73,83%</t>
+  </si>
+  <si>
+    <t>69,38%</t>
+  </si>
+  <si>
+    <t>78,65%</t>
+  </si>
+  <si>
+    <t>79,66%</t>
+  </si>
+  <si>
+    <t>76,57%</t>
+  </si>
+  <si>
+    <t>82,64%</t>
+  </si>
+  <si>
+    <t>5,73%</t>
+  </si>
+  <si>
+    <t>3,57%</t>
+  </si>
+  <si>
+    <t>8,38%</t>
+  </si>
+  <si>
+    <t>13,33%</t>
+  </si>
+  <si>
+    <t>9,97%</t>
+  </si>
+  <si>
+    <t>17,54%</t>
+  </si>
+  <si>
+    <t>7,56%</t>
+  </si>
+  <si>
+    <t>11,98%</t>
+  </si>
+  <si>
+    <t>8,5%</t>
+  </si>
+  <si>
+    <t>6,0%</t>
+  </si>
+  <si>
+    <t>12,16%</t>
+  </si>
+  <si>
+    <t>9,4%</t>
+  </si>
+  <si>
+    <t>16,66%</t>
+  </si>
+  <si>
+    <t>10,72%</t>
+  </si>
+  <si>
+    <t>8,68%</t>
+  </si>
+  <si>
+    <t>13,44%</t>
+  </si>
+  <si>
+    <t>87,34%</t>
+  </si>
+  <si>
+    <t>91,18%</t>
+  </si>
+  <si>
+    <t>77,73%</t>
+  </si>
+  <si>
+    <t>71,87%</t>
+  </si>
+  <si>
+    <t>82,94%</t>
+  </si>
+  <si>
+    <t>82,45%</t>
+  </si>
+  <si>
+    <t>78,86%</t>
+  </si>
+  <si>
+    <t>86,06%</t>
+  </si>
+  <si>
+    <t>10,04%</t>
+  </si>
+  <si>
+    <t>6,71%</t>
+  </si>
+  <si>
+    <t>17,83%</t>
+  </si>
+  <si>
+    <t>13,02%</t>
+  </si>
+  <si>
+    <t>23,34%</t>
+  </si>
+  <si>
+    <t>17,21%</t>
+  </si>
+  <si>
+    <t>2,62%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>6,18%</t>
+  </si>
+  <si>
+    <t>2,25%</t>
+  </si>
+  <si>
+    <t>8,24%</t>
+  </si>
+  <si>
+    <t>1,87%</t>
+  </si>
+  <si>
+    <t>84,07%</t>
+  </si>
+  <si>
+    <t>68,93%</t>
+  </si>
+  <si>
+    <t>62,99%</t>
+  </si>
+  <si>
+    <t>74,32%</t>
+  </si>
+  <si>
+    <t>74,15%</t>
+  </si>
+  <si>
+    <t>70,25%</t>
+  </si>
+  <si>
+    <t>78,08%</t>
+  </si>
+  <si>
+    <t>9,54%</t>
+  </si>
+  <si>
+    <t>6,57%</t>
+  </si>
+  <si>
+    <t>14,12%</t>
+  </si>
+  <si>
+    <t>17,49%</t>
+  </si>
+  <si>
+    <t>13,18%</t>
+  </si>
+  <si>
+    <t>22,24%</t>
+  </si>
+  <si>
+    <t>13,59%</t>
+  </si>
+  <si>
+    <t>10,71%</t>
+  </si>
+  <si>
+    <t>16,71%</t>
+  </si>
+  <si>
+    <t>10,89%</t>
+  </si>
+  <si>
+    <t>7,58%</t>
+  </si>
+  <si>
+    <t>15,14%</t>
+  </si>
+  <si>
+    <t>13,57%</t>
+  </si>
+  <si>
+    <t>9,6%</t>
+  </si>
+  <si>
+    <t>18,48%</t>
+  </si>
+  <si>
+    <t>9,31%</t>
+  </si>
+  <si>
+    <t>15,38%</t>
+  </si>
+  <si>
+    <t>86,55%</t>
+  </si>
+  <si>
+    <t>83,57%</t>
+  </si>
+  <si>
+    <t>89,09%</t>
+  </si>
+  <si>
+    <t>78,68%</t>
+  </si>
+  <si>
+    <t>75,36%</t>
+  </si>
+  <si>
+    <t>81,62%</t>
+  </si>
+  <si>
+    <t>82,52%</t>
+  </si>
+  <si>
+    <t>80,24%</t>
+  </si>
+  <si>
+    <t>10,43%</t>
+  </si>
+  <si>
+    <t>13,24%</t>
+  </si>
+  <si>
+    <t>11,51%</t>
+  </si>
+  <si>
+    <t>9,07%</t>
+  </si>
+  <si>
+    <t>3,02%</t>
+  </si>
+  <si>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>4,59%</t>
+  </si>
+  <si>
+    <t>9,81%</t>
+  </si>
+  <si>
+    <t>7,73%</t>
+  </si>
+  <si>
+    <t>12,27%</t>
+  </si>
+  <si>
+    <t>6,5%</t>
+  </si>
+  <si>
+    <t>5,02%</t>
+  </si>
+  <si>
+    <t>8,04%</t>
+  </si>
+  <si>
+    <t>88,38%</t>
+  </si>
+  <si>
+    <t>90,48%</t>
+  </si>
+  <si>
+    <t>80,38%</t>
+  </si>
+  <si>
+    <t>77,3%</t>
+  </si>
+  <si>
+    <t>82,89%</t>
+  </si>
+  <si>
+    <t>84,26%</t>
+  </si>
+  <si>
+    <t>82,3%</t>
+  </si>
+  <si>
+    <t>86,02%</t>
+  </si>
+  <si>
+    <t>9,23%</t>
+  </si>
+  <si>
+    <t>7,39%</t>
+  </si>
+  <si>
+    <t>11,49%</t>
+  </si>
+  <si>
+    <t>15,04%</t>
+  </si>
+  <si>
+    <t>12,77%</t>
+  </si>
+  <si>
+    <t>17,7%</t>
+  </si>
+  <si>
+    <t>12,22%</t>
+  </si>
+  <si>
+    <t>10,64%</t>
+  </si>
+  <si>
+    <t>13,87%</t>
+  </si>
+  <si>
+    <t>2,39%</t>
+  </si>
+  <si>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>3,66%</t>
+  </si>
+  <si>
+    <t>3,52%</t>
+  </si>
+  <si>
+    <t>2,63%</t>
+  </si>
+  <si>
+    <t>4,61%</t>
+  </si>
+  <si>
+    <t>86,14%</t>
+  </si>
+  <si>
+    <t>84,97%</t>
+  </si>
+  <si>
+    <t>87,33%</t>
+  </si>
+  <si>
+    <t>77,37%</t>
+  </si>
+  <si>
+    <t>75,86%</t>
+  </si>
+  <si>
+    <t>78,89%</t>
+  </si>
+  <si>
+    <t>81,66%</t>
+  </si>
+  <si>
+    <t>80,65%</t>
+  </si>
+  <si>
+    <t>82,57%</t>
+  </si>
+  <si>
+    <t>9,55%</t>
+  </si>
+  <si>
+    <t>8,54%</t>
+  </si>
+  <si>
+    <t>10,56%</t>
+  </si>
+  <si>
+    <t>14,18%</t>
+  </si>
+  <si>
+    <t>12,86%</t>
+  </si>
+  <si>
+    <t>15,47%</t>
+  </si>
+  <si>
+    <t>11,16%</t>
+  </si>
+  <si>
+    <t>4,31%</t>
+  </si>
+  <si>
+    <t>3,67%</t>
+  </si>
+  <si>
+    <t>8,45%</t>
+  </si>
+  <si>
+    <t>5,81%</t>
+  </si>
+  <si>
+    <t>Población según limitación a hacer esfuerzos moderados en 2023 (Tasa respuesta: 99,99%)</t>
+  </si>
+  <si>
+    <t>83,73%</t>
+  </si>
+  <si>
+    <t>79,21%</t>
+  </si>
+  <si>
+    <t>87,53%</t>
+  </si>
+  <si>
+    <t>79,97%</t>
+  </si>
+  <si>
+    <t>76,5%</t>
+  </si>
+  <si>
+    <t>83,32%</t>
+  </si>
+  <si>
+    <t>79,07%</t>
+  </si>
+  <si>
+    <t>84,28%</t>
+  </si>
+  <si>
+    <t>14,28%</t>
+  </si>
+  <si>
+    <t>18,33%</t>
+  </si>
+  <si>
+    <t>16,11%</t>
+  </si>
+  <si>
+    <t>12,97%</t>
+  </si>
+  <si>
+    <t>19,22%</t>
+  </si>
+  <si>
+    <t>15,21%</t>
+  </si>
+  <si>
+    <t>12,9%</t>
+  </si>
+  <si>
+    <t>17,88%</t>
+  </si>
+  <si>
+    <t>2,0%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>4,16%</t>
+  </si>
+  <si>
+    <t>3,92%</t>
+  </si>
+  <si>
+    <t>2,45%</t>
+  </si>
+  <si>
+    <t>6,06%</t>
+  </si>
+  <si>
+    <t>1,95%</t>
+  </si>
+  <si>
+    <t>82,88%</t>
+  </si>
+  <si>
+    <t>78,94%</t>
+  </si>
+  <si>
+    <t>86,38%</t>
+  </si>
+  <si>
+    <t>75,92%</t>
+  </si>
+  <si>
+    <t>79,25%</t>
+  </si>
+  <si>
+    <t>79,29%</t>
+  </si>
+  <si>
+    <t>76,97%</t>
+  </si>
+  <si>
+    <t>81,68%</t>
+  </si>
+  <si>
+    <t>13,66%</t>
+  </si>
+  <si>
+    <t>17,51%</t>
+  </si>
+  <si>
+    <t>16,08%</t>
+  </si>
+  <si>
+    <t>13,47%</t>
+  </si>
+  <si>
+    <t>18,59%</t>
+  </si>
+  <si>
+    <t>14,91%</t>
+  </si>
+  <si>
+    <t>17,02%</t>
+  </si>
+  <si>
+    <t>3,46%</t>
+  </si>
+  <si>
+    <t>2,15%</t>
+  </si>
+  <si>
+    <t>5,52%</t>
+  </si>
+  <si>
+    <t>8,0%</t>
+  </si>
+  <si>
+    <t>6,13%</t>
+  </si>
+  <si>
+    <t>10,1%</t>
+  </si>
+  <si>
+    <t>5,8%</t>
+  </si>
+  <si>
     <t>4,67%</t>
   </si>
   <si>
-    <t>1,78%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>4,11%</t>
-  </si>
-  <si>
-    <t>1,99%</t>
-  </si>
-  <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>3,6%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Cadiz</t>
-  </si>
-  <si>
-    <t>87,8%</t>
-  </si>
-  <si>
-    <t>84,4%</t>
-  </si>
-  <si>
-    <t>90,59%</t>
-  </si>
-  <si>
-    <t>75,63%</t>
-  </si>
-  <si>
-    <t>71,47%</t>
-  </si>
-  <si>
-    <t>79,25%</t>
-  </si>
-  <si>
-    <t>81,65%</t>
-  </si>
-  <si>
-    <t>79,02%</t>
-  </si>
-  <si>
-    <t>84,03%</t>
-  </si>
-  <si>
-    <t>8,59%</t>
-  </si>
-  <si>
-    <t>6,27%</t>
-  </si>
-  <si>
-    <t>11,58%</t>
-  </si>
-  <si>
-    <t>17,31%</t>
-  </si>
-  <si>
-    <t>14,09%</t>
-  </si>
-  <si>
-    <t>20,79%</t>
-  </si>
-  <si>
-    <t>13,0%</t>
-  </si>
-  <si>
-    <t>11,1%</t>
-  </si>
-  <si>
-    <t>15,25%</t>
-  </si>
-  <si>
-    <t>3,61%</t>
-  </si>
-  <si>
-    <t>2,06%</t>
-  </si>
-  <si>
-    <t>5,59%</t>
-  </si>
-  <si>
-    <t>7,05%</t>
-  </si>
-  <si>
-    <t>4,91%</t>
-  </si>
-  <si>
-    <t>9,66%</t>
-  </si>
-  <si>
-    <t>5,35%</t>
-  </si>
-  <si>
-    <t>4,05%</t>
-  </si>
-  <si>
-    <t>6,84%</t>
-  </si>
-  <si>
-    <t>Cordoba</t>
-  </si>
-  <si>
-    <t>92,61%</t>
-  </si>
-  <si>
-    <t>89,29%</t>
-  </si>
-  <si>
-    <t>95,16%</t>
-  </si>
-  <si>
-    <t>78,57%</t>
-  </si>
-  <si>
-    <t>73,76%</t>
-  </si>
-  <si>
-    <t>82,81%</t>
-  </si>
-  <si>
-    <t>85,41%</t>
-  </si>
-  <si>
-    <t>82,68%</t>
-  </si>
-  <si>
-    <t>88,06%</t>
-  </si>
-  <si>
-    <t>6,17%</t>
-  </si>
-  <si>
-    <t>3,93%</t>
-  </si>
-  <si>
-    <t>9,31%</t>
-  </si>
-  <si>
-    <t>16,9%</t>
-  </si>
-  <si>
-    <t>13,03%</t>
-  </si>
-  <si>
-    <t>21,15%</t>
-  </si>
-  <si>
-    <t>11,67%</t>
-  </si>
-  <si>
-    <t>9,43%</t>
-  </si>
-  <si>
-    <t>14,45%</t>
-  </si>
-  <si>
-    <t>1,22%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>3,0%</t>
-  </si>
-  <si>
-    <t>4,53%</t>
-  </si>
-  <si>
-    <t>2,37%</t>
-  </si>
-  <si>
-    <t>7,2%</t>
-  </si>
-  <si>
-    <t>2,92%</t>
-  </si>
-  <si>
-    <t>1,86%</t>
-  </si>
-  <si>
-    <t>4,5%</t>
-  </si>
-  <si>
-    <t>Granada</t>
-  </si>
-  <si>
-    <t>90,77%</t>
-  </si>
-  <si>
-    <t>87,13%</t>
-  </si>
-  <si>
-    <t>93,61%</t>
-  </si>
-  <si>
-    <t>79,57%</t>
-  </si>
-  <si>
-    <t>74,94%</t>
-  </si>
-  <si>
-    <t>83,5%</t>
-  </si>
-  <si>
-    <t>85,07%</t>
-  </si>
-  <si>
-    <t>82,13%</t>
-  </si>
-  <si>
-    <t>87,46%</t>
-  </si>
-  <si>
-    <t>7,03%</t>
-  </si>
-  <si>
-    <t>4,34%</t>
-  </si>
-  <si>
-    <t>10,0%</t>
-  </si>
-  <si>
-    <t>16,14%</t>
-  </si>
-  <si>
-    <t>12,45%</t>
-  </si>
-  <si>
-    <t>20,04%</t>
-  </si>
-  <si>
-    <t>11,66%</t>
-  </si>
-  <si>
-    <t>9,42%</t>
-  </si>
-  <si>
-    <t>13,96%</t>
-  </si>
-  <si>
-    <t>4,13%</t>
-  </si>
-  <si>
-    <t>4,29%</t>
-  </si>
-  <si>
-    <t>2,53%</t>
-  </si>
-  <si>
-    <t>6,79%</t>
-  </si>
-  <si>
-    <t>3,26%</t>
-  </si>
-  <si>
-    <t>4,83%</t>
-  </si>
-  <si>
-    <t>Huelva</t>
-  </si>
-  <si>
-    <t>92,54%</t>
-  </si>
-  <si>
-    <t>88,42%</t>
-  </si>
-  <si>
-    <t>95,6%</t>
-  </si>
-  <si>
-    <t>83,28%</t>
-  </si>
-  <si>
-    <t>77,14%</t>
-  </si>
-  <si>
-    <t>88,02%</t>
-  </si>
-  <si>
-    <t>87,86%</t>
-  </si>
-  <si>
-    <t>84,3%</t>
-  </si>
-  <si>
-    <t>90,71%</t>
-  </si>
-  <si>
-    <t>4,88%</t>
-  </si>
-  <si>
-    <t>2,58%</t>
-  </si>
-  <si>
-    <t>8,43%</t>
-  </si>
-  <si>
-    <t>10,5%</t>
-  </si>
-  <si>
-    <t>7,09%</t>
-  </si>
-  <si>
-    <t>15,32%</t>
-  </si>
-  <si>
-    <t>7,72%</t>
-  </si>
-  <si>
-    <t>5,51%</t>
-  </si>
-  <si>
-    <t>10,85%</t>
-  </si>
-  <si>
-    <t>2,57%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>5,16%</t>
-  </si>
-  <si>
-    <t>6,22%</t>
-  </si>
-  <si>
-    <t>3,24%</t>
-  </si>
-  <si>
-    <t>4,42%</t>
-  </si>
-  <si>
-    <t>2,84%</t>
-  </si>
-  <si>
-    <t>6,81%</t>
-  </si>
-  <si>
-    <t>Jaen</t>
-  </si>
-  <si>
-    <t>89,35%</t>
-  </si>
-  <si>
-    <t>85,14%</t>
-  </si>
-  <si>
-    <t>92,58%</t>
-  </si>
-  <si>
-    <t>74,91%</t>
-  </si>
-  <si>
-    <t>69,57%</t>
-  </si>
-  <si>
-    <t>79,73%</t>
-  </si>
-  <si>
-    <t>82,03%</t>
-  </si>
-  <si>
-    <t>78,48%</t>
-  </si>
-  <si>
-    <t>84,72%</t>
-  </si>
-  <si>
-    <t>9,27%</t>
-  </si>
-  <si>
-    <t>6,21%</t>
-  </si>
-  <si>
-    <t>13,12%</t>
-  </si>
-  <si>
-    <t>19,9%</t>
-  </si>
-  <si>
-    <t>15,29%</t>
-  </si>
-  <si>
-    <t>24,83%</t>
-  </si>
-  <si>
-    <t>14,65%</t>
-  </si>
-  <si>
-    <t>12,25%</t>
-  </si>
-  <si>
-    <t>18,13%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>3,54%</t>
-  </si>
-  <si>
-    <t>5,19%</t>
-  </si>
-  <si>
-    <t>2,86%</t>
-  </si>
-  <si>
-    <t>8,61%</t>
-  </si>
-  <si>
-    <t>3,31%</t>
-  </si>
-  <si>
-    <t>2,05%</t>
+    <t>7,22%</t>
+  </si>
+  <si>
+    <t>86,53%</t>
+  </si>
+  <si>
+    <t>82,79%</t>
+  </si>
+  <si>
+    <t>89,56%</t>
+  </si>
+  <si>
+    <t>80,27%</t>
+  </si>
+  <si>
+    <t>76,49%</t>
+  </si>
+  <si>
+    <t>83,2%</t>
+  </si>
+  <si>
+    <t>83,17%</t>
+  </si>
+  <si>
+    <t>85,47%</t>
+  </si>
+  <si>
+    <t>5,07%</t>
+  </si>
+  <si>
+    <t>3,35%</t>
+  </si>
+  <si>
+    <t>10,57%</t>
+  </si>
+  <si>
+    <t>13,49%</t>
+  </si>
+  <si>
+    <t>8,02%</t>
+  </si>
+  <si>
+    <t>9,76%</t>
+  </si>
+  <si>
+    <t>8,4%</t>
+  </si>
+  <si>
+    <t>11,41%</t>
+  </si>
+  <si>
+    <t>9,16%</t>
+  </si>
+  <si>
+    <t>11,52%</t>
+  </si>
+  <si>
+    <t>8,81%</t>
+  </si>
+  <si>
+    <t>7,14%</t>
+  </si>
+  <si>
+    <t>10,74%</t>
+  </si>
+  <si>
+    <t>80,87%</t>
+  </si>
+  <si>
+    <t>75,76%</t>
+  </si>
+  <si>
+    <t>85,63%</t>
+  </si>
+  <si>
+    <t>78,24%</t>
+  </si>
+  <si>
+    <t>74,5%</t>
+  </si>
+  <si>
+    <t>81,87%</t>
+  </si>
+  <si>
+    <t>79,37%</t>
+  </si>
+  <si>
+    <t>82,05%</t>
+  </si>
+  <si>
+    <t>10,82%</t>
+  </si>
+  <si>
+    <t>7,21%</t>
+  </si>
+  <si>
+    <t>14,98%</t>
+  </si>
+  <si>
+    <t>12,13%</t>
+  </si>
+  <si>
+    <t>18,3%</t>
+  </si>
+  <si>
+    <t>11,27%</t>
+  </si>
+  <si>
+    <t>15,68%</t>
+  </si>
+  <si>
+    <t>8,31%</t>
+  </si>
+  <si>
+    <t>5,57%</t>
+  </si>
+  <si>
+    <t>12,63%</t>
+  </si>
+  <si>
+    <t>6,62%</t>
+  </si>
+  <si>
+    <t>4,96%</t>
+  </si>
+  <si>
+    <t>8,67%</t>
+  </si>
+  <si>
+    <t>7,34%</t>
+  </si>
+  <si>
+    <t>5,53%</t>
+  </si>
+  <si>
+    <t>83,51%</t>
+  </si>
+  <si>
+    <t>90,81%</t>
+  </si>
+  <si>
+    <t>74,44%</t>
+  </si>
+  <si>
+    <t>85,18%</t>
+  </si>
+  <si>
+    <t>82,56%</t>
+  </si>
+  <si>
+    <t>79,55%</t>
+  </si>
+  <si>
+    <t>9,73%</t>
+  </si>
+  <si>
+    <t>7,1%</t>
+  </si>
+  <si>
+    <t>13,82%</t>
+  </si>
+  <si>
+    <t>16,81%</t>
+  </si>
+  <si>
+    <t>11,31%</t>
+  </si>
+  <si>
+    <t>20,43%</t>
+  </si>
+  <si>
+    <t>13,76%</t>
+  </si>
+  <si>
+    <t>16,39%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>4,62%</t>
+  </si>
+  <si>
+    <t>2,95%</t>
+  </si>
+  <si>
+    <t>6,85%</t>
+  </si>
+  <si>
+    <t>3,68%</t>
+  </si>
+  <si>
+    <t>5,12%</t>
+  </si>
+  <si>
+    <t>89,4%</t>
+  </si>
+  <si>
+    <t>85,99%</t>
+  </si>
+  <si>
+    <t>92,34%</t>
+  </si>
+  <si>
+    <t>83,09%</t>
+  </si>
+  <si>
+    <t>79,75%</t>
+  </si>
+  <si>
+    <t>85,98%</t>
+  </si>
+  <si>
+    <t>86,25%</t>
+  </si>
+  <si>
+    <t>83,87%</t>
+  </si>
+  <si>
+    <t>88,18%</t>
+  </si>
+  <si>
+    <t>2,99%</t>
+  </si>
+  <si>
+    <t>8,03%</t>
+  </si>
+  <si>
+    <t>5,63%</t>
+  </si>
+  <si>
+    <t>9,9%</t>
+  </si>
+  <si>
+    <t>6,28%</t>
+  </si>
+  <si>
+    <t>4,9%</t>
+  </si>
+  <si>
+    <t>8,33%</t>
+  </si>
+  <si>
+    <t>5,65%</t>
+  </si>
+  <si>
+    <t>3,78%</t>
+  </si>
+  <si>
+    <t>8,08%</t>
+  </si>
+  <si>
+    <t>9,3%</t>
+  </si>
+  <si>
+    <t>11,95%</t>
+  </si>
+  <si>
+    <t>7,47%</t>
+  </si>
+  <si>
+    <t>9,09%</t>
+  </si>
+  <si>
+    <t>83,35%</t>
+  </si>
+  <si>
+    <t>80,25%</t>
+  </si>
+  <si>
+    <t>86,42%</t>
+  </si>
+  <si>
+    <t>79,15%</t>
+  </si>
+  <si>
+    <t>74,92%</t>
+  </si>
+  <si>
+    <t>86,72%</t>
+  </si>
+  <si>
+    <t>78,44%</t>
+  </si>
+  <si>
+    <t>85,7%</t>
+  </si>
+  <si>
+    <t>12,92%</t>
+  </si>
+  <si>
+    <t>16,0%</t>
+  </si>
+  <si>
+    <t>8,01%</t>
+  </si>
+  <si>
+    <t>15,59%</t>
+  </si>
+  <si>
+    <t>9,74%</t>
+  </si>
+  <si>
+    <t>14,94%</t>
+  </si>
+  <si>
+    <t>3,73%</t>
+  </si>
+  <si>
+    <t>4,93%</t>
+  </si>
+  <si>
+    <t>10,15%</t>
+  </si>
+  <si>
+    <t>7,55%</t>
+  </si>
+  <si>
+    <t>81,7%</t>
+  </si>
+  <si>
+    <t>63,72%</t>
+  </si>
+  <si>
+    <t>87,57%</t>
+  </si>
+  <si>
+    <t>75,62%</t>
+  </si>
+  <si>
+    <t>72,97%</t>
+  </si>
+  <si>
+    <t>78,42%</t>
+  </si>
+  <si>
+    <t>78,64%</t>
+  </si>
+  <si>
+    <t>69,46%</t>
+  </si>
+  <si>
+    <t>81,52%</t>
+  </si>
+  <si>
+    <t>14,74%</t>
+  </si>
+  <si>
+    <t>33,5%</t>
+  </si>
+  <si>
+    <t>15,49%</t>
+  </si>
+  <si>
+    <t>13,41%</t>
+  </si>
+  <si>
+    <t>18,5%</t>
+  </si>
+  <si>
+    <t>15,12%</t>
+  </si>
+  <si>
+    <t>12,14%</t>
+  </si>
+  <si>
+    <t>24,58%</t>
+  </si>
+  <si>
+    <t>3,56%</t>
+  </si>
+  <si>
+    <t>2,36%</t>
+  </si>
+  <si>
+    <t>8,88%</t>
+  </si>
+  <si>
+    <t>10,69%</t>
+  </si>
+  <si>
+    <t>6,24%</t>
+  </si>
+  <si>
+    <t>5,28%</t>
+  </si>
+  <si>
+    <t>7,49%</t>
+  </si>
+  <si>
+    <t>83,71%</t>
+  </si>
+  <si>
+    <t>78,88%</t>
+  </si>
+  <si>
+    <t>85,54%</t>
+  </si>
+  <si>
+    <t>78,19%</t>
+  </si>
+  <si>
+    <t>76,71%</t>
+  </si>
+  <si>
+    <t>11,81%</t>
+  </si>
+  <si>
+    <t>9,94%</t>
+  </si>
+  <si>
+    <t>17,13%</t>
+  </si>
+  <si>
+    <t>14,06%</t>
+  </si>
+  <si>
+    <t>12,41%</t>
+  </si>
+  <si>
+    <t>4,48%</t>
+  </si>
+  <si>
+    <t>3,87%</t>
   </si>
   <si>
     <t>5,23%</t>
   </si>
   <si>
-    <t>Malaga</t>
-  </si>
-  <si>
-    <t>87,72%</t>
-  </si>
-  <si>
-    <t>84,84%</t>
-  </si>
-  <si>
-    <t>89,98%</t>
-  </si>
-  <si>
-    <t>78,67%</t>
-  </si>
-  <si>
-    <t>75,37%</t>
-  </si>
-  <si>
-    <t>81,82%</t>
-  </si>
-  <si>
-    <t>83,11%</t>
-  </si>
-  <si>
-    <t>81,04%</t>
-  </si>
-  <si>
-    <t>85,17%</t>
-  </si>
-  <si>
-    <t>8,91%</t>
-  </si>
-  <si>
-    <t>6,8%</t>
-  </si>
-  <si>
-    <t>11,54%</t>
-  </si>
-  <si>
-    <t>15,34%</t>
-  </si>
-  <si>
-    <t>12,53%</t>
-  </si>
-  <si>
-    <t>18,04%</t>
-  </si>
-  <si>
-    <t>12,19%</t>
-  </si>
-  <si>
-    <t>10,44%</t>
-  </si>
-  <si>
-    <t>13,97%</t>
-  </si>
-  <si>
-    <t>3,37%</t>
-  </si>
-  <si>
-    <t>2,12%</t>
-  </si>
-  <si>
-    <t>5,03%</t>
-  </si>
-  <si>
-    <t>5,99%</t>
-  </si>
-  <si>
-    <t>4,24%</t>
-  </si>
-  <si>
-    <t>7,93%</t>
-  </si>
-  <si>
-    <t>4,7%</t>
-  </si>
-  <si>
-    <t>3,62%</t>
-  </si>
-  <si>
-    <t>5,94%</t>
-  </si>
-  <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
-    <t>87,0%</t>
-  </si>
-  <si>
-    <t>84,41%</t>
-  </si>
-  <si>
-    <t>89,33%</t>
-  </si>
-  <si>
-    <t>78,95%</t>
-  </si>
-  <si>
-    <t>75,64%</t>
-  </si>
-  <si>
-    <t>81,66%</t>
-  </si>
-  <si>
-    <t>82,87%</t>
-  </si>
-  <si>
-    <t>80,97%</t>
-  </si>
-  <si>
-    <t>84,85%</t>
-  </si>
-  <si>
-    <t>8,13%</t>
-  </si>
-  <si>
-    <t>6,18%</t>
-  </si>
-  <si>
-    <t>10,34%</t>
-  </si>
-  <si>
-    <t>15,16%</t>
-  </si>
-  <si>
-    <t>12,79%</t>
-  </si>
-  <si>
-    <t>17,97%</t>
-  </si>
-  <si>
-    <t>11,74%</t>
-  </si>
-  <si>
-    <t>9,98%</t>
-  </si>
-  <si>
-    <t>13,31%</t>
-  </si>
-  <si>
-    <t>3,47%</t>
-  </si>
-  <si>
-    <t>6,51%</t>
-  </si>
-  <si>
-    <t>5,89%</t>
-  </si>
-  <si>
-    <t>4,41%</t>
-  </si>
-  <si>
-    <t>7,87%</t>
-  </si>
-  <si>
-    <t>5,39%</t>
-  </si>
-  <si>
-    <t>4,36%</t>
-  </si>
-  <si>
-    <t>6,66%</t>
-  </si>
-  <si>
-    <t>88,84%</t>
-  </si>
-  <si>
-    <t>87,7%</t>
-  </si>
-  <si>
-    <t>89,87%</t>
-  </si>
-  <si>
-    <t>76,95%</t>
-  </si>
-  <si>
-    <t>79,79%</t>
-  </si>
-  <si>
-    <t>83,63%</t>
-  </si>
-  <si>
-    <t>82,66%</t>
-  </si>
-  <si>
-    <t>84,52%</t>
-  </si>
-  <si>
-    <t>8,06%</t>
-  </si>
-  <si>
-    <t>7,14%</t>
-  </si>
-  <si>
-    <t>9,06%</t>
-  </si>
-  <si>
-    <t>16,01%</t>
-  </si>
-  <si>
-    <t>14,92%</t>
-  </si>
-  <si>
-    <t>17,47%</t>
-  </si>
-  <si>
-    <t>12,1%</t>
-  </si>
-  <si>
-    <t>11,33%</t>
-  </si>
-  <si>
-    <t>12,91%</t>
-  </si>
-  <si>
-    <t>3,1%</t>
-  </si>
-  <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>3,79%</t>
-  </si>
-  <si>
-    <t>5,42%</t>
-  </si>
-  <si>
-    <t>4,28%</t>
-  </si>
-  <si>
-    <t>3,78%</t>
-  </si>
-  <si>
-    <t>4,77%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según limitación a hacer esfuerzos moderados en 2012 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>—%</t>
-  </si>
-  <si>
-    <t>85,19%</t>
-  </si>
-  <si>
-    <t>81,05%</t>
-  </si>
-  <si>
-    <t>88,36%</t>
-  </si>
-  <si>
-    <t>72,65%</t>
-  </si>
-  <si>
-    <t>68,45%</t>
-  </si>
-  <si>
-    <t>76,64%</t>
-  </si>
-  <si>
-    <t>78,81%</t>
-  </si>
-  <si>
-    <t>75,96%</t>
-  </si>
-  <si>
-    <t>81,15%</t>
-  </si>
-  <si>
-    <t>7,7%</t>
-  </si>
-  <si>
-    <t>5,43%</t>
-  </si>
-  <si>
-    <t>10,66%</t>
-  </si>
-  <si>
-    <t>16,15%</t>
-  </si>
-  <si>
-    <t>12,96%</t>
-  </si>
-  <si>
-    <t>19,38%</t>
-  </si>
-  <si>
-    <t>12,0%</t>
-  </si>
-  <si>
-    <t>9,95%</t>
-  </si>
-  <si>
-    <t>14,26%</t>
-  </si>
-  <si>
-    <t>7,11%</t>
-  </si>
-  <si>
-    <t>4,99%</t>
-  </si>
-  <si>
-    <t>10,38%</t>
-  </si>
-  <si>
-    <t>11,2%</t>
-  </si>
-  <si>
-    <t>8,42%</t>
-  </si>
-  <si>
-    <t>14,52%</t>
-  </si>
-  <si>
-    <t>9,19%</t>
-  </si>
-  <si>
-    <t>7,43%</t>
-  </si>
-  <si>
-    <t>11,47%</t>
-  </si>
-  <si>
-    <t>85,52%</t>
-  </si>
-  <si>
-    <t>81,18%</t>
-  </si>
-  <si>
-    <t>89,39%</t>
-  </si>
-  <si>
-    <t>76,63%</t>
-  </si>
-  <si>
-    <t>71,93%</t>
-  </si>
-  <si>
-    <t>81,23%</t>
-  </si>
-  <si>
-    <t>80,96%</t>
-  </si>
-  <si>
-    <t>77,55%</t>
-  </si>
-  <si>
-    <t>83,94%</t>
-  </si>
-  <si>
-    <t>8,76%</t>
-  </si>
-  <si>
-    <t>6,12%</t>
-  </si>
-  <si>
-    <t>16,33%</t>
-  </si>
-  <si>
-    <t>12,46%</t>
-  </si>
-  <si>
-    <t>21,14%</t>
-  </si>
-  <si>
-    <t>12,64%</t>
-  </si>
-  <si>
-    <t>9,96%</t>
-  </si>
-  <si>
-    <t>15,57%</t>
-  </si>
-  <si>
-    <t>5,72%</t>
-  </si>
-  <si>
-    <t>3,43%</t>
-  </si>
-  <si>
-    <t>8,94%</t>
-  </si>
-  <si>
-    <t>4,64%</t>
-  </si>
-  <si>
-    <t>6,39%</t>
-  </si>
-  <si>
-    <t>8,4%</t>
-  </si>
-  <si>
-    <t>84,46%</t>
-  </si>
-  <si>
-    <t>81,27%</t>
-  </si>
-  <si>
-    <t>87,3%</t>
-  </si>
-  <si>
-    <t>70,28%</t>
-  </si>
-  <si>
-    <t>66,69%</t>
-  </si>
-  <si>
-    <t>73,79%</t>
-  </si>
-  <si>
-    <t>77,33%</t>
-  </si>
-  <si>
-    <t>74,88%</t>
-  </si>
-  <si>
-    <t>9,59%</t>
-  </si>
-  <si>
-    <t>7,32%</t>
-  </si>
-  <si>
-    <t>12,16%</t>
-  </si>
-  <si>
-    <t>16,07%</t>
-  </si>
-  <si>
-    <t>13,38%</t>
-  </si>
-  <si>
-    <t>19,16%</t>
-  </si>
-  <si>
-    <t>12,85%</t>
-  </si>
-  <si>
-    <t>11,13%</t>
-  </si>
-  <si>
-    <t>14,75%</t>
-  </si>
-  <si>
-    <t>5,95%</t>
-  </si>
-  <si>
-    <t>4,31%</t>
-  </si>
-  <si>
-    <t>8,15%</t>
-  </si>
-  <si>
-    <t>13,65%</t>
-  </si>
-  <si>
-    <t>11,02%</t>
-  </si>
-  <si>
-    <t>16,44%</t>
-  </si>
-  <si>
-    <t>9,82%</t>
-  </si>
-  <si>
-    <t>8,29%</t>
-  </si>
-  <si>
-    <t>83,61%</t>
-  </si>
-  <si>
-    <t>77,43%</t>
-  </si>
-  <si>
-    <t>88,23%</t>
-  </si>
-  <si>
-    <t>71,48%</t>
-  </si>
-  <si>
-    <t>65,28%</t>
-  </si>
-  <si>
-    <t>76,94%</t>
-  </si>
-  <si>
-    <t>77,44%</t>
-  </si>
-  <si>
-    <t>72,94%</t>
-  </si>
-  <si>
-    <t>81,19%</t>
-  </si>
-  <si>
-    <t>12,84%</t>
-  </si>
-  <si>
-    <t>8,82%</t>
-  </si>
-  <si>
-    <t>18,87%</t>
-  </si>
-  <si>
-    <t>14,51%</t>
-  </si>
-  <si>
-    <t>16,05%</t>
-  </si>
-  <si>
-    <t>12,67%</t>
-  </si>
-  <si>
-    <t>20,02%</t>
-  </si>
-  <si>
-    <t>3,55%</t>
-  </si>
-  <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>6,95%</t>
-  </si>
-  <si>
-    <t>9,37%</t>
-  </si>
-  <si>
-    <t>5,73%</t>
-  </si>
-  <si>
-    <t>13,7%</t>
-  </si>
-  <si>
-    <t>4,39%</t>
-  </si>
-  <si>
-    <t>9,01%</t>
-  </si>
-  <si>
-    <t>81,81%</t>
-  </si>
-  <si>
-    <t>76,44%</t>
-  </si>
-  <si>
-    <t>85,98%</t>
-  </si>
-  <si>
-    <t>72,86%</t>
-  </si>
-  <si>
-    <t>67,08%</t>
-  </si>
-  <si>
-    <t>77,87%</t>
-  </si>
-  <si>
-    <t>77,29%</t>
-  </si>
-  <si>
-    <t>73,27%</t>
-  </si>
-  <si>
-    <t>80,9%</t>
-  </si>
-  <si>
-    <t>12,12%</t>
-  </si>
-  <si>
-    <t>16,51%</t>
-  </si>
-  <si>
-    <t>19,27%</t>
-  </si>
-  <si>
-    <t>15,28%</t>
-  </si>
-  <si>
-    <t>25,05%</t>
-  </si>
-  <si>
-    <t>15,73%</t>
-  </si>
-  <si>
-    <t>12,92%</t>
-  </si>
-  <si>
-    <t>19,06%</t>
-  </si>
-  <si>
-    <t>6,07%</t>
-  </si>
-  <si>
-    <t>3,72%</t>
-  </si>
-  <si>
-    <t>9,61%</t>
-  </si>
-  <si>
-    <t>4,9%</t>
-  </si>
-  <si>
-    <t>11,25%</t>
-  </si>
-  <si>
-    <t>6,98%</t>
-  </si>
-  <si>
-    <t>4,93%</t>
-  </si>
-  <si>
-    <t>9,41%</t>
-  </si>
-  <si>
-    <t>87,82%</t>
-  </si>
-  <si>
-    <t>84,94%</t>
-  </si>
-  <si>
-    <t>90,48%</t>
-  </si>
-  <si>
-    <t>76,41%</t>
-  </si>
-  <si>
-    <t>72,88%</t>
-  </si>
-  <si>
-    <t>79,85%</t>
-  </si>
-  <si>
-    <t>81,98%</t>
-  </si>
-  <si>
-    <t>79,71%</t>
-  </si>
-  <si>
-    <t>8,34%</t>
-  </si>
-  <si>
-    <t>6,06%</t>
-  </si>
-  <si>
-    <t>10,78%</t>
-  </si>
-  <si>
-    <t>15,44%</t>
-  </si>
-  <si>
-    <t>12,76%</t>
-  </si>
-  <si>
-    <t>18,36%</t>
-  </si>
-  <si>
-    <t>11,97%</t>
-  </si>
-  <si>
-    <t>10,16%</t>
-  </si>
-  <si>
-    <t>13,93%</t>
-  </si>
-  <si>
-    <t>3,84%</t>
-  </si>
-  <si>
-    <t>2,38%</t>
-  </si>
-  <si>
-    <t>5,67%</t>
-  </si>
-  <si>
-    <t>8,14%</t>
-  </si>
-  <si>
-    <t>5,92%</t>
-  </si>
-  <si>
-    <t>10,59%</t>
-  </si>
-  <si>
-    <t>6,04%</t>
-  </si>
-  <si>
-    <t>4,72%</t>
-  </si>
-  <si>
-    <t>7,52%</t>
-  </si>
-  <si>
-    <t>85,85%</t>
-  </si>
-  <si>
-    <t>83,1%</t>
-  </si>
-  <si>
-    <t>88,51%</t>
-  </si>
-  <si>
-    <t>78,74%</t>
-  </si>
-  <si>
-    <t>75,53%</t>
-  </si>
-  <si>
-    <t>81,69%</t>
-  </si>
-  <si>
-    <t>82,2%</t>
-  </si>
-  <si>
-    <t>80,24%</t>
-  </si>
-  <si>
-    <t>84,28%</t>
-  </si>
-  <si>
-    <t>11,22%</t>
-  </si>
-  <si>
-    <t>8,7%</t>
-  </si>
-  <si>
-    <t>15,51%</t>
-  </si>
-  <si>
-    <t>13,13%</t>
-  </si>
-  <si>
-    <t>18,54%</t>
-  </si>
-  <si>
-    <t>13,42%</t>
-  </si>
-  <si>
-    <t>2,93%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>4,52%</t>
-  </si>
-  <si>
-    <t>5,75%</t>
-  </si>
-  <si>
-    <t>4,19%</t>
-  </si>
-  <si>
-    <t>7,41%</t>
-  </si>
-  <si>
-    <t>4,38%</t>
-  </si>
-  <si>
-    <t>3,48%</t>
-  </si>
-  <si>
-    <t>5,55%</t>
-  </si>
-  <si>
-    <t>85,37%</t>
-  </si>
-  <si>
-    <t>84,12%</t>
-  </si>
-  <si>
-    <t>86,69%</t>
-  </si>
-  <si>
-    <t>74,67%</t>
-  </si>
-  <si>
-    <t>73,11%</t>
-  </si>
-  <si>
-    <t>76,07%</t>
-  </si>
-  <si>
-    <t>79,92%</t>
-  </si>
-  <si>
-    <t>80,76%</t>
-  </si>
-  <si>
-    <t>8,67%</t>
-  </si>
-  <si>
-    <t>10,8%</t>
-  </si>
-  <si>
-    <t>16,3%</t>
-  </si>
-  <si>
-    <t>15,07%</t>
-  </si>
-  <si>
-    <t>17,52%</t>
-  </si>
-  <si>
-    <t>12,3%</t>
-  </si>
-  <si>
-    <t>13,87%</t>
-  </si>
-  <si>
-    <t>4,87%</t>
-  </si>
-  <si>
-    <t>4,12%</t>
-  </si>
-  <si>
-    <t>9,03%</t>
-  </si>
-  <si>
-    <t>8,05%</t>
-  </si>
-  <si>
-    <t>10,09%</t>
-  </si>
-  <si>
-    <t>6,99%</t>
-  </si>
-  <si>
-    <t>6,34%</t>
-  </si>
-  <si>
-    <t>7,71%</t>
-  </si>
-  <si>
-    <t>Población según limitación a hacer esfuerzos moderados en 2015 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>81,24%</t>
-  </si>
-  <si>
-    <t>76,13%</t>
-  </si>
-  <si>
-    <t>85,67%</t>
-  </si>
-  <si>
-    <t>65,61%</t>
-  </si>
-  <si>
-    <t>77,19%</t>
-  </si>
-  <si>
-    <t>72,55%</t>
-  </si>
-  <si>
-    <t>80,25%</t>
-  </si>
-  <si>
-    <t>12,55%</t>
-  </si>
-  <si>
-    <t>16,94%</t>
-  </si>
-  <si>
-    <t>14,04%</t>
-  </si>
-  <si>
-    <t>10,54%</t>
-  </si>
-  <si>
-    <t>18,96%</t>
-  </si>
-  <si>
-    <t>13,28%</t>
-  </si>
-  <si>
-    <t>10,62%</t>
-  </si>
-  <si>
-    <t>16,68%</t>
-  </si>
-  <si>
-    <t>3,8%</t>
-  </si>
-  <si>
-    <t>9,62%</t>
-  </si>
-  <si>
-    <t>10,3%</t>
-  </si>
-  <si>
-    <t>19,02%</t>
-  </si>
-  <si>
-    <t>7,51%</t>
-  </si>
-  <si>
-    <t>12,95%</t>
-  </si>
-  <si>
-    <t>87,95%</t>
-  </si>
-  <si>
-    <t>85,01%</t>
-  </si>
-  <si>
-    <t>90,46%</t>
-  </si>
-  <si>
-    <t>78,96%</t>
-  </si>
-  <si>
-    <t>75,22%</t>
-  </si>
-  <si>
-    <t>82,72%</t>
-  </si>
-  <si>
-    <t>83,37%</t>
-  </si>
-  <si>
-    <t>80,88%</t>
-  </si>
-  <si>
-    <t>85,77%</t>
-  </si>
-  <si>
-    <t>8,36%</t>
-  </si>
-  <si>
-    <t>11,09%</t>
-  </si>
-  <si>
-    <t>13,29%</t>
-  </si>
-  <si>
-    <t>10,12%</t>
-  </si>
-  <si>
-    <t>16,49%</t>
-  </si>
-  <si>
-    <t>10,87%</t>
-  </si>
-  <si>
-    <t>8,84%</t>
-  </si>
-  <si>
-    <t>3,69%</t>
-  </si>
-  <si>
-    <t>2,24%</t>
-  </si>
-  <si>
-    <t>5,37%</t>
-  </si>
-  <si>
-    <t>7,75%</t>
-  </si>
-  <si>
-    <t>5,49%</t>
-  </si>
-  <si>
-    <t>5,76%</t>
-  </si>
-  <si>
-    <t>4,44%</t>
-  </si>
-  <si>
-    <t>86,54%</t>
-  </si>
-  <si>
-    <t>82,42%</t>
-  </si>
-  <si>
-    <t>89,78%</t>
-  </si>
-  <si>
-    <t>80,21%</t>
-  </si>
-  <si>
-    <t>75,07%</t>
-  </si>
-  <si>
-    <t>84,33%</t>
-  </si>
-  <si>
-    <t>83,29%</t>
-  </si>
-  <si>
-    <t>80,03%</t>
-  </si>
-  <si>
-    <t>86,05%</t>
-  </si>
-  <si>
-    <t>11,76%</t>
-  </si>
-  <si>
-    <t>8,71%</t>
-  </si>
-  <si>
-    <t>15,58%</t>
-  </si>
-  <si>
-    <t>15,0%</t>
-  </si>
-  <si>
-    <t>11,35%</t>
-  </si>
-  <si>
-    <t>19,62%</t>
-  </si>
-  <si>
-    <t>13,43%</t>
-  </si>
-  <si>
-    <t>10,96%</t>
-  </si>
-  <si>
-    <t>16,2%</t>
-  </si>
-  <si>
-    <t>1,7%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>3,58%</t>
-  </si>
-  <si>
-    <t>4,78%</t>
-  </si>
-  <si>
-    <t>2,83%</t>
-  </si>
-  <si>
-    <t>7,91%</t>
-  </si>
-  <si>
-    <t>3,28%</t>
-  </si>
-  <si>
-    <t>1,96%</t>
-  </si>
-  <si>
-    <t>5,01%</t>
-  </si>
-  <si>
-    <t>81,54%</t>
-  </si>
-  <si>
-    <t>88,7%</t>
-  </si>
-  <si>
-    <t>73,83%</t>
-  </si>
-  <si>
-    <t>69,09%</t>
-  </si>
-  <si>
-    <t>78,43%</t>
-  </si>
-  <si>
-    <t>79,66%</t>
-  </si>
-  <si>
-    <t>76,5%</t>
-  </si>
-  <si>
-    <t>82,63%</t>
-  </si>
-  <si>
-    <t>8,74%</t>
-  </si>
-  <si>
-    <t>13,33%</t>
-  </si>
-  <si>
-    <t>10,01%</t>
-  </si>
-  <si>
-    <t>17,17%</t>
-  </si>
-  <si>
-    <t>7,66%</t>
-  </si>
-  <si>
-    <t>11,99%</t>
-  </si>
-  <si>
-    <t>8,5%</t>
-  </si>
-  <si>
-    <t>6,01%</t>
-  </si>
-  <si>
-    <t>11,83%</t>
-  </si>
-  <si>
-    <t>16,67%</t>
-  </si>
-  <si>
-    <t>10,72%</t>
-  </si>
-  <si>
-    <t>8,44%</t>
-  </si>
-  <si>
-    <t>87,34%</t>
-  </si>
-  <si>
-    <t>82,53%</t>
-  </si>
-  <si>
-    <t>91,12%</t>
-  </si>
-  <si>
-    <t>77,73%</t>
-  </si>
-  <si>
-    <t>71,79%</t>
-  </si>
-  <si>
-    <t>82,45%</t>
-  </si>
-  <si>
-    <t>78,68%</t>
-  </si>
-  <si>
-    <t>86,1%</t>
-  </si>
-  <si>
-    <t>10,04%</t>
-  </si>
-  <si>
-    <t>6,92%</t>
-  </si>
-  <si>
-    <t>14,54%</t>
-  </si>
-  <si>
-    <t>17,83%</t>
-  </si>
-  <si>
-    <t>24,06%</t>
-  </si>
-  <si>
-    <t>14,0%</t>
-  </si>
-  <si>
-    <t>17,64%</t>
-  </si>
-  <si>
-    <t>2,62%</t>
-  </si>
-  <si>
-    <t>6,05%</t>
-  </si>
-  <si>
-    <t>8,22%</t>
-  </si>
-  <si>
-    <t>1,97%</t>
-  </si>
-  <si>
-    <t>5,68%</t>
-  </si>
-  <si>
-    <t>74,11%</t>
-  </si>
-  <si>
-    <t>84,04%</t>
-  </si>
-  <si>
-    <t>68,93%</t>
-  </si>
-  <si>
-    <t>62,85%</t>
-  </si>
-  <si>
-    <t>74,35%</t>
-  </si>
-  <si>
-    <t>74,15%</t>
-  </si>
-  <si>
-    <t>70,39%</t>
-  </si>
-  <si>
-    <t>77,86%</t>
-  </si>
-  <si>
-    <t>9,54%</t>
-  </si>
-  <si>
-    <t>6,24%</t>
-  </si>
-  <si>
-    <t>13,77%</t>
-  </si>
-  <si>
-    <t>17,49%</t>
-  </si>
-  <si>
-    <t>13,25%</t>
-  </si>
-  <si>
-    <t>22,49%</t>
-  </si>
-  <si>
-    <t>13,59%</t>
-  </si>
-  <si>
-    <t>10,51%</t>
-  </si>
-  <si>
-    <t>16,76%</t>
-  </si>
-  <si>
-    <t>10,89%</t>
-  </si>
-  <si>
-    <t>7,96%</t>
-  </si>
-  <si>
-    <t>13,57%</t>
-  </si>
-  <si>
-    <t>9,74%</t>
-  </si>
-  <si>
-    <t>18,48%</t>
-  </si>
-  <si>
-    <t>12,26%</t>
-  </si>
-  <si>
-    <t>9,67%</t>
-  </si>
-  <si>
-    <t>15,64%</t>
-  </si>
-  <si>
-    <t>86,55%</t>
-  </si>
-  <si>
-    <t>83,69%</t>
-  </si>
-  <si>
-    <t>89,24%</t>
-  </si>
-  <si>
-    <t>75,39%</t>
-  </si>
-  <si>
-    <t>82,52%</t>
-  </si>
-  <si>
-    <t>80,23%</t>
-  </si>
-  <si>
-    <t>84,65%</t>
-  </si>
-  <si>
-    <t>10,43%</t>
-  </si>
-  <si>
-    <t>13,22%</t>
-  </si>
-  <si>
-    <t>11,51%</t>
-  </si>
-  <si>
-    <t>9,25%</t>
-  </si>
-  <si>
-    <t>14,37%</t>
-  </si>
-  <si>
-    <t>10,98%</t>
-  </si>
-  <si>
-    <t>3,02%</t>
-  </si>
-  <si>
-    <t>1,77%</t>
-  </si>
-  <si>
-    <t>4,54%</t>
-  </si>
-  <si>
-    <t>9,81%</t>
-  </si>
-  <si>
-    <t>7,65%</t>
-  </si>
-  <si>
-    <t>12,38%</t>
-  </si>
-  <si>
-    <t>6,5%</t>
-  </si>
-  <si>
-    <t>5,09%</t>
-  </si>
-  <si>
-    <t>88,38%</t>
-  </si>
-  <si>
-    <t>80,38%</t>
-  </si>
-  <si>
-    <t>77,38%</t>
-  </si>
-  <si>
-    <t>83,22%</t>
-  </si>
-  <si>
-    <t>84,26%</t>
-  </si>
-  <si>
-    <t>82,34%</t>
-  </si>
-  <si>
-    <t>86,18%</t>
-  </si>
-  <si>
-    <t>9,23%</t>
-  </si>
-  <si>
-    <t>7,28%</t>
-  </si>
-  <si>
-    <t>11,36%</t>
-  </si>
-  <si>
-    <t>15,04%</t>
-  </si>
-  <si>
-    <t>12,62%</t>
-  </si>
-  <si>
-    <t>18,03%</t>
-  </si>
-  <si>
-    <t>12,22%</t>
-  </si>
-  <si>
-    <t>13,9%</t>
-  </si>
-  <si>
-    <t>2,39%</t>
-  </si>
-  <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>3,74%</t>
-  </si>
-  <si>
-    <t>4,59%</t>
-  </si>
-  <si>
-    <t>6,4%</t>
-  </si>
-  <si>
-    <t>3,52%</t>
-  </si>
-  <si>
-    <t>2,6%</t>
-  </si>
-  <si>
-    <t>4,63%</t>
-  </si>
-  <si>
-    <t>86,14%</t>
-  </si>
-  <si>
-    <t>87,23%</t>
-  </si>
-  <si>
-    <t>77,37%</t>
-  </si>
-  <si>
-    <t>75,78%</t>
-  </si>
-  <si>
-    <t>78,85%</t>
-  </si>
-  <si>
-    <t>80,65%</t>
-  </si>
-  <si>
-    <t>82,69%</t>
-  </si>
-  <si>
-    <t>9,55%</t>
-  </si>
-  <si>
-    <t>8,58%</t>
-  </si>
-  <si>
-    <t>14,18%</t>
-  </si>
-  <si>
-    <t>13,02%</t>
-  </si>
-  <si>
-    <t>15,43%</t>
-  </si>
-  <si>
-    <t>11,92%</t>
-  </si>
-  <si>
-    <t>11,08%</t>
-  </si>
-  <si>
-    <t>12,68%</t>
-  </si>
-  <si>
-    <t>3,67%</t>
-  </si>
-  <si>
-    <t>8,45%</t>
-  </si>
-  <si>
-    <t>7,42%</t>
-  </si>
-  <si>
-    <t>9,53%</t>
-  </si>
-  <si>
-    <t>6,42%</t>
-  </si>
-  <si>
-    <t>5,79%</t>
-  </si>
-  <si>
-    <t>Población según limitación a hacer esfuerzos moderados en 2023 (Tasa respuesta: 99,99%)</t>
-  </si>
-  <si>
-    <t>83,73%</t>
-  </si>
-  <si>
-    <t>79,97%</t>
-  </si>
-  <si>
-    <t>76,42%</t>
-  </si>
-  <si>
-    <t>83,14%</t>
-  </si>
-  <si>
-    <t>84,56%</t>
-  </si>
-  <si>
-    <t>14,28%</t>
-  </si>
-  <si>
-    <t>10,68%</t>
-  </si>
-  <si>
-    <t>18,68%</t>
-  </si>
-  <si>
-    <t>16,11%</t>
-  </si>
-  <si>
-    <t>13,14%</t>
-  </si>
-  <si>
-    <t>15,21%</t>
-  </si>
-  <si>
-    <t>17,92%</t>
-  </si>
-  <si>
-    <t>2,0%</t>
-  </si>
-  <si>
-    <t>3,92%</t>
-  </si>
-  <si>
-    <t>2,52%</t>
-  </si>
-  <si>
-    <t>5,86%</t>
-  </si>
-  <si>
-    <t>2,98%</t>
-  </si>
-  <si>
-    <t>1,94%</t>
-  </si>
-  <si>
-    <t>4,27%</t>
-  </si>
-  <si>
-    <t>82,88%</t>
-  </si>
-  <si>
-    <t>79,24%</t>
-  </si>
-  <si>
-    <t>86,11%</t>
-  </si>
-  <si>
-    <t>75,92%</t>
-  </si>
-  <si>
-    <t>72,69%</t>
-  </si>
-  <si>
-    <t>78,8%</t>
-  </si>
-  <si>
-    <t>79,29%</t>
-  </si>
-  <si>
-    <t>76,52%</t>
-  </si>
-  <si>
-    <t>81,6%</t>
-  </si>
-  <si>
-    <t>13,66%</t>
-  </si>
-  <si>
-    <t>10,58%</t>
-  </si>
-  <si>
-    <t>16,87%</t>
-  </si>
-  <si>
-    <t>16,08%</t>
-  </si>
-  <si>
-    <t>18,78%</t>
-  </si>
-  <si>
-    <t>14,91%</t>
-  </si>
-  <si>
-    <t>12,99%</t>
-  </si>
-  <si>
-    <t>17,11%</t>
-  </si>
-  <si>
-    <t>3,46%</t>
-  </si>
-  <si>
-    <t>5,28%</t>
-  </si>
-  <si>
-    <t>8,0%</t>
-  </si>
-  <si>
-    <t>6,08%</t>
-  </si>
-  <si>
-    <t>5,8%</t>
-  </si>
-  <si>
-    <t>7,27%</t>
-  </si>
-  <si>
-    <t>86,53%</t>
-  </si>
-  <si>
-    <t>89,49%</t>
-  </si>
-  <si>
-    <t>80,27%</t>
-  </si>
-  <si>
-    <t>76,69%</t>
-  </si>
-  <si>
-    <t>83,17%</t>
-  </si>
-  <si>
-    <t>80,79%</t>
-  </si>
-  <si>
-    <t>85,42%</t>
-  </si>
-  <si>
-    <t>5,07%</t>
-  </si>
-  <si>
-    <t>3,3%</t>
-  </si>
-  <si>
-    <t>7,8%</t>
-  </si>
-  <si>
-    <t>10,57%</t>
-  </si>
-  <si>
-    <t>13,4%</t>
-  </si>
-  <si>
-    <t>8,02%</t>
-  </si>
-  <si>
-    <t>9,78%</t>
-  </si>
-  <si>
-    <t>6,25%</t>
-  </si>
-  <si>
-    <t>11,68%</t>
-  </si>
-  <si>
-    <t>9,16%</t>
-  </si>
-  <si>
-    <t>7,17%</t>
-  </si>
-  <si>
-    <t>11,71%</t>
-  </si>
-  <si>
-    <t>8,81%</t>
-  </si>
-  <si>
-    <t>7,1%</t>
-  </si>
-  <si>
-    <t>10,6%</t>
-  </si>
-  <si>
-    <t>80,87%</t>
-  </si>
-  <si>
-    <t>75,34%</t>
-  </si>
-  <si>
-    <t>78,24%</t>
-  </si>
-  <si>
-    <t>74,38%</t>
-  </si>
-  <si>
-    <t>81,57%</t>
-  </si>
-  <si>
-    <t>79,37%</t>
-  </si>
-  <si>
-    <t>76,19%</t>
-  </si>
-  <si>
-    <t>82,07%</t>
-  </si>
-  <si>
-    <t>10,82%</t>
-  </si>
-  <si>
-    <t>7,62%</t>
-  </si>
-  <si>
-    <t>15,14%</t>
-  </si>
-  <si>
-    <t>18,16%</t>
-  </si>
-  <si>
-    <t>11,19%</t>
-  </si>
-  <si>
-    <t>15,8%</t>
-  </si>
-  <si>
-    <t>8,31%</t>
-  </si>
-  <si>
-    <t>5,2%</t>
-  </si>
-  <si>
-    <t>12,69%</t>
-  </si>
-  <si>
-    <t>6,62%</t>
-  </si>
-  <si>
-    <t>8,53%</t>
-  </si>
-  <si>
-    <t>7,34%</t>
-  </si>
-  <si>
-    <t>9,36%</t>
-  </si>
-  <si>
-    <t>83,84%</t>
-  </si>
-  <si>
-    <t>91,22%</t>
-  </si>
-  <si>
-    <t>74,37%</t>
-  </si>
-  <si>
-    <t>85,49%</t>
-  </si>
-  <si>
-    <t>82,56%</t>
-  </si>
-  <si>
-    <t>85,83%</t>
-  </si>
-  <si>
-    <t>9,73%</t>
-  </si>
-  <si>
-    <t>6,58%</t>
-  </si>
-  <si>
-    <t>13,21%</t>
-  </si>
-  <si>
-    <t>16,81%</t>
-  </si>
-  <si>
-    <t>11,44%</t>
-  </si>
-  <si>
-    <t>20,58%</t>
-  </si>
-  <si>
-    <t>13,76%</t>
-  </si>
-  <si>
-    <t>11,06%</t>
-  </si>
-  <si>
-    <t>16,23%</t>
-  </si>
-  <si>
-    <t>2,45%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>4,62%</t>
-  </si>
-  <si>
-    <t>2,9%</t>
-  </si>
-  <si>
-    <t>3,68%</t>
-  </si>
-  <si>
-    <t>2,51%</t>
-  </si>
-  <si>
-    <t>5,15%</t>
-  </si>
-  <si>
-    <t>89,4%</t>
-  </si>
-  <si>
-    <t>92,22%</t>
-  </si>
-  <si>
-    <t>83,09%</t>
-  </si>
-  <si>
-    <t>79,69%</t>
-  </si>
-  <si>
-    <t>86,25%</t>
-  </si>
-  <si>
-    <t>83,99%</t>
-  </si>
-  <si>
-    <t>88,31%</t>
-  </si>
-  <si>
-    <t>4,96%</t>
-  </si>
-  <si>
-    <t>7,98%</t>
-  </si>
-  <si>
-    <t>7,6%</t>
-  </si>
-  <si>
-    <t>5,57%</t>
-  </si>
-  <si>
-    <t>6,28%</t>
-  </si>
-  <si>
-    <t>4,8%</t>
-  </si>
-  <si>
-    <t>5,65%</t>
-  </si>
-  <si>
-    <t>3,94%</t>
-  </si>
-  <si>
-    <t>8,01%</t>
-  </si>
-  <si>
-    <t>9,3%</t>
-  </si>
-  <si>
-    <t>12,03%</t>
-  </si>
-  <si>
-    <t>7,47%</t>
-  </si>
-  <si>
-    <t>83,35%</t>
-  </si>
-  <si>
-    <t>80,06%</t>
-  </si>
-  <si>
-    <t>79,15%</t>
-  </si>
-  <si>
-    <t>74,71%</t>
-  </si>
-  <si>
-    <t>86,96%</t>
-  </si>
-  <si>
-    <t>80,99%</t>
-  </si>
-  <si>
-    <t>78,66%</t>
-  </si>
-  <si>
-    <t>86,03%</t>
-  </si>
-  <si>
-    <t>10,35%</t>
-  </si>
-  <si>
-    <t>16,02%</t>
-  </si>
-  <si>
-    <t>12,78%</t>
-  </si>
-  <si>
-    <t>8,12%</t>
-  </si>
-  <si>
-    <t>15,82%</t>
-  </si>
-  <si>
-    <t>14,86%</t>
-  </si>
-  <si>
-    <t>3,73%</t>
-  </si>
-  <si>
-    <t>2,4%</t>
-  </si>
-  <si>
-    <t>5,52%</t>
-  </si>
-  <si>
-    <t>8,07%</t>
-  </si>
-  <si>
-    <t>5,0%</t>
-  </si>
-  <si>
-    <t>10,06%</t>
-  </si>
-  <si>
-    <t>4,51%</t>
-  </si>
-  <si>
-    <t>7,48%</t>
-  </si>
-  <si>
-    <t>81,7%</t>
-  </si>
-  <si>
-    <t>65,12%</t>
-  </si>
-  <si>
-    <t>87,83%</t>
-  </si>
-  <si>
-    <t>75,62%</t>
-  </si>
-  <si>
-    <t>72,56%</t>
-  </si>
-  <si>
-    <t>78,28%</t>
-  </si>
-  <si>
-    <t>78,64%</t>
-  </si>
-  <si>
-    <t>69,95%</t>
-  </si>
-  <si>
-    <t>14,74%</t>
-  </si>
-  <si>
-    <t>31,75%</t>
-  </si>
-  <si>
-    <t>15,49%</t>
-  </si>
-  <si>
-    <t>13,26%</t>
-  </si>
-  <si>
-    <t>18,5%</t>
-  </si>
-  <si>
-    <t>15,12%</t>
-  </si>
-  <si>
-    <t>24,59%</t>
-  </si>
-  <si>
-    <t>3,56%</t>
-  </si>
-  <si>
-    <t>8,88%</t>
-  </si>
-  <si>
-    <t>7,33%</t>
-  </si>
-  <si>
-    <t>5,11%</t>
-  </si>
-  <si>
-    <t>7,29%</t>
-  </si>
-  <si>
-    <t>83,71%</t>
-  </si>
-  <si>
-    <t>79,26%</t>
-  </si>
-  <si>
-    <t>85,57%</t>
-  </si>
-  <si>
-    <t>78,19%</t>
-  </si>
-  <si>
-    <t>76,88%</t>
-  </si>
-  <si>
-    <t>80,41%</t>
-  </si>
-  <si>
-    <t>80,78%</t>
-  </si>
-  <si>
-    <t>81,93%</t>
-  </si>
-  <si>
-    <t>11,81%</t>
-  </si>
-  <si>
-    <t>10,07%</t>
-  </si>
-  <si>
-    <t>16,7%</t>
-  </si>
-  <si>
-    <t>14,06%</t>
-  </si>
-  <si>
-    <t>12,6%</t>
-  </si>
-  <si>
-    <t>15,22%</t>
-  </si>
-  <si>
-    <t>4,48%</t>
-  </si>
-  <si>
-    <t>3,83%</t>
-  </si>
-  <si>
-    <t>6,88%</t>
-  </si>
-  <si>
-    <t>8,49%</t>
-  </si>
-  <si>
-    <t>6,75%</t>
+    <t>6,9%</t>
+  </si>
+  <si>
+    <t>5,66%</t>
   </si>
 </sst>
 </file>
@@ -2988,7 +2985,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8EA6EC9-E27B-4D4A-8CD1-62020A60D797}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7C653F1-9A08-4FE2-9647-2C95CB5BB848}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -3814,10 +3811,10 @@
         <v>113</v>
       </c>
       <c r="P17" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>114</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3835,7 +3832,7 @@
         <v>31</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>38</v>
+        <v>115</v>
       </c>
       <c r="G18" s="7" t="s">
         <v>116</v>
@@ -3865,10 +3862,10 @@
         <v>120</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>31</v>
+        <v>121</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3924,7 +3921,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -3936,13 +3933,13 @@
         <v>188146</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="H20" s="7">
         <v>165</v>
@@ -3951,13 +3948,13 @@
         <v>172953</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="M20" s="7">
         <v>353</v>
@@ -3966,7 +3963,7 @@
         <v>361099</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>129</v>
+        <v>19</v>
       </c>
       <c r="P20" s="7" t="s">
         <v>130</v>
@@ -4041,10 +4038,10 @@
         <v>141</v>
       </c>
       <c r="F22" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>142</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>143</v>
       </c>
       <c r="H22" s="7">
         <v>12</v>
@@ -4053,13 +4050,13 @@
         <v>12915</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="K22" s="7" t="s">
         <v>144</v>
       </c>
-      <c r="K22" s="7" t="s">
+      <c r="L22" s="7" t="s">
         <v>145</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>28</v>
       </c>
       <c r="M22" s="7">
         <v>18</v>
@@ -4456,7 +4453,7 @@
         <v>197</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>198</v>
+        <v>142</v>
       </c>
       <c r="H30" s="7">
         <v>38</v>
@@ -4465,13 +4462,13 @@
         <v>38256</v>
       </c>
       <c r="J30" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="K30" s="7" t="s">
         <v>199</v>
       </c>
-      <c r="K30" s="7" t="s">
+      <c r="L30" s="7" t="s">
         <v>200</v>
-      </c>
-      <c r="L30" s="7" t="s">
-        <v>201</v>
       </c>
       <c r="M30" s="7">
         <v>60</v>
@@ -4480,13 +4477,13 @@
         <v>58957</v>
       </c>
       <c r="O30" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="P30" s="7" t="s">
         <v>202</v>
       </c>
-      <c r="P30" s="7" t="s">
+      <c r="Q30" s="7" t="s">
         <v>203</v>
-      </c>
-      <c r="Q30" s="7" t="s">
-        <v>204</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -4542,7 +4539,7 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B32" s="5" t="s">
         <v>10</v>
@@ -4554,13 +4551,13 @@
         <v>647065</v>
       </c>
       <c r="E32" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="F32" s="7" t="s">
         <v>206</v>
       </c>
-      <c r="F32" s="7" t="s">
+      <c r="G32" s="7" t="s">
         <v>207</v>
-      </c>
-      <c r="G32" s="7" t="s">
-        <v>208</v>
       </c>
       <c r="H32" s="7">
         <v>593</v>
@@ -4569,13 +4566,13 @@
         <v>618604</v>
       </c>
       <c r="J32" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="K32" s="7" t="s">
         <v>209</v>
       </c>
-      <c r="K32" s="7" t="s">
+      <c r="L32" s="7" t="s">
         <v>210</v>
-      </c>
-      <c r="L32" s="7" t="s">
-        <v>211</v>
       </c>
       <c r="M32" s="7">
         <v>1227</v>
@@ -4584,13 +4581,13 @@
         <v>1265669</v>
       </c>
       <c r="O32" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="P32" s="7" t="s">
         <v>212</v>
       </c>
-      <c r="P32" s="7" t="s">
+      <c r="Q32" s="7" t="s">
         <v>213</v>
-      </c>
-      <c r="Q32" s="7" t="s">
-        <v>214</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -4605,13 +4602,13 @@
         <v>60447</v>
       </c>
       <c r="E33" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="F33" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="G33" s="7" t="s">
         <v>215</v>
-      </c>
-      <c r="F33" s="7" t="s">
-        <v>216</v>
-      </c>
-      <c r="G33" s="7" t="s">
-        <v>217</v>
       </c>
       <c r="H33" s="7">
         <v>110</v>
@@ -4620,13 +4617,13 @@
         <v>118796</v>
       </c>
       <c r="J33" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="K33" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="L33" s="7" t="s">
         <v>218</v>
-      </c>
-      <c r="K33" s="7" t="s">
-        <v>219</v>
-      </c>
-      <c r="L33" s="7" t="s">
-        <v>220</v>
       </c>
       <c r="M33" s="7">
         <v>174</v>
@@ -4635,13 +4632,13 @@
         <v>179242</v>
       </c>
       <c r="O33" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="P33" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="Q33" s="7" t="s">
         <v>221</v>
-      </c>
-      <c r="P33" s="7" t="s">
-        <v>222</v>
-      </c>
-      <c r="Q33" s="7" t="s">
-        <v>223</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -4659,10 +4656,10 @@
         <v>132</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>225</v>
+        <v>22</v>
       </c>
       <c r="H34" s="7">
         <v>42</v>
@@ -4671,13 +4668,13 @@
         <v>46111</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="M34" s="7">
         <v>80</v>
@@ -4686,13 +4683,13 @@
         <v>82395</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -4760,13 +4757,13 @@
         <v>2910780</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="H36" s="7">
         <v>2599</v>
@@ -4778,25 +4775,25 @@
         <v>73</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="M36" s="7">
         <v>5437</v>
       </c>
       <c r="N36" s="7">
-        <v>5565961</v>
+        <v>5565962</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -4811,13 +4808,13 @@
         <v>264201</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="H37" s="7">
         <v>524</v>
@@ -4826,13 +4823,13 @@
         <v>540972</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="M37" s="7">
         <v>796</v>
@@ -4841,13 +4838,13 @@
         <v>805173</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -4862,13 +4859,13 @@
         <v>101563</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="H38" s="7">
         <v>174</v>
@@ -4877,13 +4874,13 @@
         <v>183044</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>33</v>
+        <v>250</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>144</v>
+        <v>251</v>
       </c>
       <c r="M38" s="7">
         <v>278</v>
@@ -4892,13 +4889,13 @@
         <v>284606</v>
       </c>
       <c r="O38" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="P38" s="7" t="s">
         <v>253</v>
       </c>
-      <c r="P38" s="7" t="s">
+      <c r="Q38" s="7" t="s">
         <v>254</v>
-      </c>
-      <c r="Q38" s="7" t="s">
-        <v>255</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -4940,7 +4937,7 @@
         <v>6511</v>
       </c>
       <c r="N39" s="7">
-        <v>6655740</v>
+        <v>6655741</v>
       </c>
       <c r="O39" s="7" t="s">
         <v>40</v>
@@ -4954,7 +4951,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
   </sheetData>
@@ -4978,7 +4975,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9F48408-711A-4C01-8F03-63A0A8F96875}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{029F231C-3CB6-46EC-BD68-D58714AE3AD2}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4995,7 +4992,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5100,39 +5097,39 @@
       </c>
       <c r="D4" s="7"/>
       <c r="E4" s="7" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
       </c>
       <c r="I4" s="7"/>
       <c r="J4" s="7" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
       </c>
       <c r="N4" s="7"/>
       <c r="O4" s="7" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5145,39 +5142,39 @@
       </c>
       <c r="D5" s="7"/>
       <c r="E5" s="7" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
       </c>
       <c r="I5" s="7"/>
       <c r="J5" s="7" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="M5" s="7">
         <v>0</v>
       </c>
       <c r="N5" s="7"/>
       <c r="O5" s="7" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5190,39 +5187,39 @@
       </c>
       <c r="D6" s="7"/>
       <c r="E6" s="7" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="H6" s="7">
         <v>0</v>
       </c>
       <c r="I6" s="7"/>
       <c r="J6" s="7" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="M6" s="7">
         <v>0</v>
       </c>
       <c r="N6" s="7"/>
       <c r="O6" s="7" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -5235,39 +5232,39 @@
       </c>
       <c r="D7" s="7"/>
       <c r="E7" s="7" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="H7" s="7">
         <v>0</v>
       </c>
       <c r="I7" s="7"/>
       <c r="J7" s="7" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="M7" s="7">
         <v>0</v>
       </c>
       <c r="N7" s="7"/>
       <c r="O7" s="7" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5284,13 +5281,13 @@
         <v>430657</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>258</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>259</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="G8" s="7" t="s">
         <v>260</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>261</v>
       </c>
       <c r="H8" s="7">
         <v>349</v>
@@ -5299,13 +5296,13 @@
         <v>380489</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="K8" s="7" t="s">
         <v>262</v>
       </c>
-      <c r="K8" s="7" t="s">
+      <c r="L8" s="7" t="s">
         <v>263</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>264</v>
       </c>
       <c r="M8" s="7">
         <v>758</v>
@@ -5314,13 +5311,13 @@
         <v>811146</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="P8" s="7" t="s">
         <v>265</v>
       </c>
-      <c r="P8" s="7" t="s">
+      <c r="Q8" s="7" t="s">
         <v>266</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>267</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5335,13 +5332,13 @@
         <v>38917</v>
       </c>
       <c r="E9" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="F9" s="7" t="s">
         <v>268</v>
       </c>
-      <c r="F9" s="7" t="s">
+      <c r="G9" s="7" t="s">
         <v>269</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>270</v>
       </c>
       <c r="H9" s="7">
         <v>78</v>
@@ -5350,13 +5347,13 @@
         <v>84604</v>
       </c>
       <c r="J9" s="7" t="s">
+        <v>270</v>
+      </c>
+      <c r="K9" s="7" t="s">
         <v>271</v>
       </c>
-      <c r="K9" s="7" t="s">
+      <c r="L9" s="7" t="s">
         <v>272</v>
-      </c>
-      <c r="L9" s="7" t="s">
-        <v>273</v>
       </c>
       <c r="M9" s="7">
         <v>112</v>
@@ -5365,13 +5362,13 @@
         <v>123521</v>
       </c>
       <c r="O9" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="P9" s="7" t="s">
         <v>274</v>
       </c>
-      <c r="P9" s="7" t="s">
+      <c r="Q9" s="7" t="s">
         <v>275</v>
-      </c>
-      <c r="Q9" s="7" t="s">
-        <v>276</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -5386,13 +5383,13 @@
         <v>35954</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>276</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>277</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>278</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>279</v>
       </c>
       <c r="H10" s="7">
         <v>53</v>
@@ -5401,13 +5398,13 @@
         <v>58671</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>282</v>
+        <v>114</v>
       </c>
       <c r="M10" s="7">
         <v>82</v>
@@ -5416,13 +5413,13 @@
         <v>94625</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5490,13 +5487,13 @@
         <v>277112</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="H12" s="7">
         <v>245</v>
@@ -5505,13 +5502,13 @@
         <v>261340</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="M12" s="7">
         <v>521</v>
@@ -5520,13 +5517,13 @@
         <v>538452</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -5541,13 +5538,13 @@
         <v>28396</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>83</v>
+        <v>294</v>
       </c>
       <c r="H13" s="7">
         <v>49</v>
@@ -5556,13 +5553,13 @@
         <v>55700</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>295</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>296</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>297</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>298</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>299</v>
       </c>
       <c r="M13" s="7">
         <v>75</v>
@@ -5571,13 +5568,13 @@
         <v>84096</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>298</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>299</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>300</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>301</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>302</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5592,13 +5589,13 @@
         <v>18538</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>301</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>302</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>303</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>304</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>305</v>
       </c>
       <c r="H14" s="7">
         <v>23</v>
@@ -5610,10 +5607,10 @@
         <v>107</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>109</v>
+        <v>305</v>
       </c>
       <c r="M14" s="7">
         <v>40</v>
@@ -5622,10 +5619,10 @@
         <v>42518</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>306</v>
+      </c>
+      <c r="P14" s="7" t="s">
         <v>307</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>202</v>
       </c>
       <c r="Q14" s="7" t="s">
         <v>308</v>
@@ -5732,7 +5729,7 @@
         <v>316</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>101</v>
+        <v>317</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5747,10 +5744,10 @@
         <v>64148</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>318</v>
+        <v>281</v>
       </c>
       <c r="G17" s="7" t="s">
         <v>319</v>
@@ -5816,10 +5813,10 @@
         <v>329</v>
       </c>
       <c r="K18" s="7" t="s">
+        <v>278</v>
+      </c>
+      <c r="L18" s="7" t="s">
         <v>330</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>331</v>
       </c>
       <c r="M18" s="7">
         <v>124</v>
@@ -5828,13 +5825,13 @@
         <v>132093</v>
       </c>
       <c r="O18" s="7" t="s">
+        <v>331</v>
+      </c>
+      <c r="P18" s="7" t="s">
         <v>332</v>
       </c>
-      <c r="P18" s="7" t="s">
+      <c r="Q18" s="7" t="s">
         <v>333</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5890,7 +5887,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -5968,13 +5965,13 @@
         <v>42065</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>322</v>
+        <v>346</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>164</v>
+        <v>348</v>
       </c>
       <c r="M21" s="7">
         <v>64</v>
@@ -5983,13 +5980,13 @@
         <v>69364</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -6004,13 +6001,13 @@
         <v>7554</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>350</v>
+        <v>202</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="H22" s="7">
         <v>20</v>
@@ -6019,13 +6016,13 @@
         <v>20568</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="M22" s="7">
         <v>27</v>
@@ -6034,13 +6031,13 @@
         <v>28122</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>225</v>
+        <v>357</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6108,13 +6105,13 @@
         <v>224147</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="H24" s="7">
         <v>197</v>
@@ -6123,13 +6120,13 @@
         <v>204022</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="M24" s="7">
         <v>411</v>
@@ -6138,13 +6135,13 @@
         <v>428169</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -6159,13 +6156,13 @@
         <v>33199</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>308</v>
+        <v>370</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
       <c r="H25" s="7">
         <v>51</v>
@@ -6174,13 +6171,13 @@
         <v>53972</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>369</v>
+        <v>372</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>370</v>
+        <v>373</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>371</v>
+        <v>374</v>
       </c>
       <c r="M25" s="7">
         <v>82</v>
@@ -6189,13 +6186,13 @@
         <v>87171</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>372</v>
+        <v>375</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>373</v>
+        <v>376</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>374</v>
+        <v>377</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6210,13 +6207,13 @@
         <v>16635</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>375</v>
+        <v>160</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="H26" s="7">
         <v>21</v>
@@ -6225,13 +6222,13 @@
         <v>22037</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>228</v>
+        <v>380</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>378</v>
+        <v>381</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>379</v>
+        <v>382</v>
       </c>
       <c r="M26" s="7">
         <v>37</v>
@@ -6240,13 +6237,13 @@
         <v>38672</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>380</v>
+        <v>383</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>382</v>
+        <v>385</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6314,13 +6311,13 @@
         <v>582049</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>383</v>
+        <v>386</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>384</v>
+        <v>387</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>385</v>
+        <v>388</v>
       </c>
       <c r="H28" s="7">
         <v>489</v>
@@ -6329,13 +6326,13 @@
         <v>530183</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>386</v>
+        <v>389</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>387</v>
+        <v>390</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>388</v>
+        <v>391</v>
       </c>
       <c r="M28" s="7">
         <v>1032</v>
@@ -6344,13 +6341,13 @@
         <v>1112232</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>389</v>
+        <v>392</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>50</v>
+        <v>393</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -6365,13 +6362,13 @@
         <v>55291</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>391</v>
+        <v>394</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>392</v>
+        <v>395</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>393</v>
+        <v>396</v>
       </c>
       <c r="H29" s="7">
         <v>99</v>
@@ -6380,13 +6377,13 @@
         <v>107156</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>394</v>
+        <v>300</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="M29" s="7">
         <v>151</v>
@@ -6395,13 +6392,13 @@
         <v>162447</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>398</v>
+        <v>215</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6416,10 +6413,10 @@
         <v>25448</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>401</v>
+        <v>92</v>
       </c>
       <c r="G30" s="7" t="s">
         <v>402</v>
@@ -6508,7 +6505,7 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B32" s="5" t="s">
         <v>10</v>
@@ -6541,7 +6538,7 @@
         <v>413</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>414</v>
+        <v>48</v>
       </c>
       <c r="M32" s="7">
         <v>1219</v>
@@ -6550,13 +6547,13 @@
         <v>1317575</v>
       </c>
       <c r="O32" s="7" t="s">
+        <v>414</v>
+      </c>
+      <c r="P32" s="7" t="s">
         <v>415</v>
       </c>
-      <c r="P32" s="7" t="s">
+      <c r="Q32" s="7" t="s">
         <v>416</v>
-      </c>
-      <c r="Q32" s="7" t="s">
-        <v>417</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -6571,13 +6568,13 @@
         <v>87386</v>
       </c>
       <c r="E33" s="7" t="s">
+        <v>417</v>
+      </c>
+      <c r="F33" s="7" t="s">
         <v>418</v>
       </c>
-      <c r="F33" s="7" t="s">
+      <c r="G33" s="7" t="s">
         <v>419</v>
-      </c>
-      <c r="G33" s="7" t="s">
-        <v>329</v>
       </c>
       <c r="H33" s="7">
         <v>115</v>
@@ -6604,10 +6601,10 @@
         <v>423</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>221</v>
+        <v>113</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>370</v>
+        <v>424</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -6622,13 +6619,13 @@
         <v>22825</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="H34" s="7">
         <v>43</v>
@@ -6637,10 +6634,10 @@
         <v>47408</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>428</v>
+        <v>327</v>
       </c>
       <c r="L34" s="7" t="s">
         <v>429</v>
@@ -6655,10 +6652,10 @@
         <v>430</v>
       </c>
       <c r="P34" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="Q34" s="7" t="s">
         <v>431</v>
-      </c>
-      <c r="Q34" s="7" t="s">
-        <v>432</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -6726,13 +6723,13 @@
         <v>2925391</v>
       </c>
       <c r="E36" s="7" t="s">
+        <v>432</v>
+      </c>
+      <c r="F36" s="7" t="s">
         <v>433</v>
       </c>
-      <c r="F36" s="7" t="s">
+      <c r="G36" s="7" t="s">
         <v>434</v>
-      </c>
-      <c r="G36" s="7" t="s">
-        <v>435</v>
       </c>
       <c r="H36" s="7">
         <v>2468</v>
@@ -6741,13 +6738,13 @@
         <v>2656907</v>
       </c>
       <c r="J36" s="7" t="s">
+        <v>435</v>
+      </c>
+      <c r="K36" s="7" t="s">
         <v>436</v>
       </c>
-      <c r="K36" s="7" t="s">
+      <c r="L36" s="7" t="s">
         <v>437</v>
-      </c>
-      <c r="L36" s="7" t="s">
-        <v>438</v>
       </c>
       <c r="M36" s="7">
         <v>5224</v>
@@ -6756,13 +6753,13 @@
         <v>5582298</v>
       </c>
       <c r="O36" s="7" t="s">
+        <v>438</v>
+      </c>
+      <c r="P36" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="Q36" s="7" t="s">
         <v>439</v>
-      </c>
-      <c r="P36" s="7" t="s">
-        <v>265</v>
-      </c>
-      <c r="Q36" s="7" t="s">
-        <v>440</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -6780,10 +6777,10 @@
         <v>21</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>441</v>
+        <v>344</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="H37" s="7">
         <v>535</v>
@@ -6792,13 +6789,13 @@
         <v>579929</v>
       </c>
       <c r="J37" s="7" t="s">
+        <v>441</v>
+      </c>
+      <c r="K37" s="7" t="s">
+        <v>442</v>
+      </c>
+      <c r="L37" s="7" t="s">
         <v>443</v>
-      </c>
-      <c r="K37" s="7" t="s">
-        <v>444</v>
-      </c>
-      <c r="L37" s="7" t="s">
-        <v>445</v>
       </c>
       <c r="M37" s="7">
         <v>839</v>
@@ -6810,10 +6807,10 @@
         <v>27</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -6828,13 +6825,13 @@
         <v>166753</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>449</v>
+        <v>36</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>303</v>
+        <v>447</v>
       </c>
       <c r="H38" s="7">
         <v>295</v>
@@ -6843,13 +6840,13 @@
         <v>321473</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>452</v>
+        <v>274</v>
       </c>
       <c r="M38" s="7">
         <v>444</v>
@@ -6858,13 +6855,13 @@
         <v>488226</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>455</v>
+        <v>408</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -6920,7 +6917,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
   </sheetData>
@@ -6944,7 +6941,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A57A9D97-4254-4ECB-B22F-0408994ACE71}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD9B747D-258A-4252-907A-A151F72D7435}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6961,7 +6958,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -7068,13 +7065,13 @@
         <v>238656</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>457</v>
+        <v>453</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="H4" s="7">
         <v>204</v>
@@ -7083,13 +7080,13 @@
         <v>207660</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>290</v>
+        <v>456</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="M4" s="7">
         <v>419</v>
@@ -7098,13 +7095,13 @@
         <v>446315</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -7119,13 +7116,13 @@
         <v>36857</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>464</v>
+        <v>350</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>419</v>
+        <v>461</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="H5" s="7">
         <v>37</v>
@@ -7134,13 +7131,13 @@
         <v>40521</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="M5" s="7">
         <v>69</v>
@@ -7149,13 +7146,13 @@
         <v>77378</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -7170,13 +7167,13 @@
         <v>18248</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>160</v>
+        <v>469</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>473</v>
+        <v>86</v>
       </c>
       <c r="H6" s="7">
         <v>36</v>
@@ -7185,13 +7182,13 @@
         <v>40522</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>474</v>
+        <v>464</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>475</v>
+        <v>471</v>
       </c>
       <c r="M6" s="7">
         <v>55</v>
@@ -7200,13 +7197,13 @@
         <v>58771</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>452</v>
+        <v>472</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -7274,13 +7271,13 @@
         <v>442015</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>479</v>
+        <v>17</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
       <c r="H8" s="7">
         <v>392</v>
@@ -7289,13 +7286,13 @@
         <v>413041</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>481</v>
+        <v>477</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>482</v>
+        <v>478</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="M8" s="7">
         <v>808</v>
@@ -7304,13 +7301,13 @@
         <v>855056</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>485</v>
+        <v>481</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>486</v>
+        <v>482</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -7325,13 +7322,13 @@
         <v>42036</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>487</v>
+        <v>483</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>392</v>
+        <v>484</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="H9" s="7">
         <v>58</v>
@@ -7340,13 +7337,13 @@
         <v>69492</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="M9" s="7">
         <v>98</v>
@@ -7355,13 +7352,13 @@
         <v>111528</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>493</v>
+        <v>303</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>421</v>
+        <v>490</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -7376,13 +7373,13 @@
         <v>18524</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>494</v>
+        <v>39</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>495</v>
+        <v>491</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>496</v>
+        <v>492</v>
       </c>
       <c r="H10" s="7">
         <v>34</v>
@@ -7391,13 +7388,13 @@
         <v>40551</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>497</v>
+        <v>225</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>498</v>
+        <v>249</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>28</v>
+        <v>493</v>
       </c>
       <c r="M10" s="7">
         <v>53</v>
@@ -7406,13 +7403,13 @@
         <v>59075</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>499</v>
+        <v>484</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>500</v>
+        <v>494</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>429</v>
+        <v>495</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -7480,13 +7477,13 @@
         <v>275688</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>501</v>
+        <v>496</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>502</v>
+        <v>497</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>503</v>
+        <v>498</v>
       </c>
       <c r="H12" s="7">
         <v>274</v>
@@ -7495,13 +7492,13 @@
         <v>269769</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>504</v>
+        <v>499</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>505</v>
+        <v>500</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>506</v>
+        <v>501</v>
       </c>
       <c r="M12" s="7">
         <v>560</v>
@@ -7510,13 +7507,13 @@
         <v>545457</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>507</v>
+        <v>502</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>508</v>
+        <v>503</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>509</v>
+        <v>504</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -7531,13 +7528,13 @@
         <v>37462</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>510</v>
+        <v>505</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>512</v>
+        <v>59</v>
       </c>
       <c r="H13" s="7">
         <v>44</v>
@@ -7546,13 +7543,13 @@
         <v>50455</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>513</v>
+        <v>507</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>514</v>
+        <v>508</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>515</v>
+        <v>322</v>
       </c>
       <c r="M13" s="7">
         <v>87</v>
@@ -7561,13 +7558,13 @@
         <v>87917</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>516</v>
+        <v>509</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>517</v>
+        <v>510</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>518</v>
+        <v>511</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -7582,13 +7579,13 @@
         <v>5415</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>519</v>
+        <v>512</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>520</v>
+        <v>513</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>521</v>
+        <v>514</v>
       </c>
       <c r="H14" s="7">
         <v>14</v>
@@ -7597,13 +7594,13 @@
         <v>16085</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>522</v>
+        <v>515</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>523</v>
+        <v>516</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>524</v>
+        <v>517</v>
       </c>
       <c r="M14" s="7">
         <v>20</v>
@@ -7612,13 +7609,13 @@
         <v>21500</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>525</v>
+        <v>518</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>526</v>
+        <v>37</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>527</v>
+        <v>519</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -7686,13 +7683,13 @@
         <v>317313</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>486</v>
+        <v>520</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>528</v>
+        <v>521</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>529</v>
+        <v>522</v>
       </c>
       <c r="H16" s="7">
         <v>271</v>
@@ -7701,13 +7698,13 @@
         <v>285945</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>530</v>
+        <v>523</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>531</v>
+        <v>524</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>532</v>
+        <v>525</v>
       </c>
       <c r="M16" s="7">
         <v>572</v>
@@ -7716,13 +7713,13 @@
         <v>603258</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>533</v>
+        <v>526</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>534</v>
+        <v>527</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>535</v>
+        <v>528</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -7737,13 +7734,13 @@
         <v>21190</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>354</v>
+        <v>529</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>521</v>
+        <v>530</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>536</v>
+        <v>531</v>
       </c>
       <c r="H17" s="7">
         <v>46</v>
@@ -7752,13 +7749,13 @@
         <v>51624</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>537</v>
+        <v>532</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>538</v>
+        <v>533</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>539</v>
+        <v>534</v>
       </c>
       <c r="M17" s="7">
         <v>67</v>
@@ -7767,13 +7764,13 @@
         <v>72814</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>473</v>
+        <v>109</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>540</v>
+        <v>535</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>541</v>
+        <v>536</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -7788,13 +7785,13 @@
         <v>31461</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>542</v>
+        <v>537</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>543</v>
+        <v>538</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>544</v>
+        <v>539</v>
       </c>
       <c r="H18" s="7">
         <v>41</v>
@@ -7806,10 +7803,10 @@
         <v>343</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>242</v>
+        <v>540</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>545</v>
+        <v>541</v>
       </c>
       <c r="M18" s="7">
         <v>73</v>
@@ -7818,13 +7815,13 @@
         <v>81175</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>546</v>
+        <v>542</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>547</v>
+        <v>543</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>489</v>
+        <v>544</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -7880,7 +7877,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -7892,13 +7889,13 @@
         <v>184478</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>549</v>
+        <v>521</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>550</v>
+        <v>546</v>
       </c>
       <c r="H20" s="7">
         <v>177</v>
@@ -7907,13 +7904,13 @@
         <v>169902</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>551</v>
+        <v>547</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>552</v>
+        <v>548</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>184</v>
+        <v>549</v>
       </c>
       <c r="M20" s="7">
         <v>361</v>
@@ -7922,13 +7919,13 @@
         <v>354380</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>553</v>
+        <v>550</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>554</v>
+        <v>551</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7943,13 +7940,13 @@
         <v>21199</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>556</v>
+        <v>553</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>557</v>
+        <v>554</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>558</v>
+        <v>325</v>
       </c>
       <c r="H21" s="7">
         <v>37</v>
@@ -7958,13 +7955,13 @@
         <v>38977</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>559</v>
+        <v>555</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>477</v>
+        <v>556</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>560</v>
+        <v>557</v>
       </c>
       <c r="M21" s="7">
         <v>60</v>
@@ -7973,13 +7970,13 @@
         <v>60176</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>561</v>
+        <v>114</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>442</v>
+        <v>145</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>562</v>
+        <v>558</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -7994,13 +7991,13 @@
         <v>5544</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>563</v>
+        <v>559</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>32</v>
+        <v>560</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>564</v>
+        <v>561</v>
       </c>
       <c r="H22" s="7">
         <v>9</v>
@@ -8009,13 +8006,13 @@
         <v>9708</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>500</v>
+        <v>96</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>175</v>
+        <v>562</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="M22" s="7">
         <v>14</v>
@@ -8024,13 +8021,13 @@
         <v>15252</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>350</v>
+        <v>202</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>567</v>
+        <v>223</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -8101,10 +8098,10 @@
         <v>101</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>568</v>
+        <v>74</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>569</v>
+        <v>565</v>
       </c>
       <c r="H24" s="7">
         <v>187</v>
@@ -8113,13 +8110,13 @@
         <v>188260</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>570</v>
+        <v>566</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>571</v>
+        <v>567</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>572</v>
+        <v>568</v>
       </c>
       <c r="M24" s="7">
         <v>391</v>
@@ -8128,13 +8125,13 @@
         <v>397638</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>573</v>
+        <v>569</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>574</v>
+        <v>570</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>575</v>
+        <v>571</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -8149,13 +8146,13 @@
         <v>25092</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>576</v>
+        <v>572</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>577</v>
+        <v>573</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>578</v>
+        <v>574</v>
       </c>
       <c r="H25" s="7">
         <v>45</v>
@@ -8164,13 +8161,13 @@
         <v>47781</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>579</v>
+        <v>575</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>580</v>
+        <v>576</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>581</v>
+        <v>577</v>
       </c>
       <c r="M25" s="7">
         <v>70</v>
@@ -8179,13 +8176,13 @@
         <v>72874</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>582</v>
+        <v>578</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>583</v>
+        <v>579</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>584</v>
+        <v>580</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -8200,13 +8197,13 @@
         <v>28652</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>585</v>
+        <v>581</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>586</v>
+        <v>582</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>444</v>
+        <v>583</v>
       </c>
       <c r="H26" s="7">
         <v>31</v>
@@ -8215,13 +8212,13 @@
         <v>37074</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>587</v>
+        <v>584</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>588</v>
+        <v>585</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>589</v>
+        <v>586</v>
       </c>
       <c r="M26" s="7">
         <v>61</v>
@@ -8230,13 +8227,13 @@
         <v>65726</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>590</v>
+        <v>444</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>591</v>
+        <v>587</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>592</v>
+        <v>588</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -8304,13 +8301,13 @@
         <v>568283</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>593</v>
+        <v>589</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>594</v>
+        <v>590</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>595</v>
+        <v>591</v>
       </c>
       <c r="H28" s="7">
         <v>518</v>
@@ -8319,13 +8316,13 @@
         <v>543914</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>554</v>
+        <v>592</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>156</v>
+        <v>594</v>
       </c>
       <c r="M28" s="7">
         <v>1016</v>
@@ -8334,13 +8331,13 @@
         <v>1112198</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>599</v>
+        <v>309</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -8355,13 +8352,13 @@
         <v>68457</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>600</v>
+        <v>597</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>328</v>
+        <v>563</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>601</v>
+        <v>598</v>
       </c>
       <c r="H29" s="7">
         <v>70</v>
@@ -8370,13 +8367,13 @@
         <v>79554</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>602</v>
+        <v>599</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>603</v>
+        <v>600</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>604</v>
+        <v>87</v>
       </c>
       <c r="M29" s="7">
         <v>133</v>
@@ -8385,13 +8382,13 @@
         <v>148011</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>605</v>
+        <v>324</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>283</v>
+        <v>587</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>395</v>
+        <v>271</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -8406,13 +8403,13 @@
         <v>19817</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>606</v>
+        <v>601</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>607</v>
+        <v>602</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>608</v>
+        <v>603</v>
       </c>
       <c r="H30" s="7">
         <v>58</v>
@@ -8421,13 +8418,13 @@
         <v>67826</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>609</v>
+        <v>604</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>610</v>
+        <v>605</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>611</v>
+        <v>606</v>
       </c>
       <c r="M30" s="7">
         <v>77</v>
@@ -8436,13 +8433,13 @@
         <v>87643</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>612</v>
+        <v>607</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>613</v>
+        <v>608</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>451</v>
+        <v>609</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -8498,7 +8495,7 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B32" s="5" t="s">
         <v>10</v>
@@ -8510,13 +8507,13 @@
         <v>688112</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>614</v>
+        <v>610</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>360</v>
+        <v>504</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>385</v>
+        <v>611</v>
       </c>
       <c r="H32" s="7">
         <v>618</v>
@@ -8525,13 +8522,13 @@
         <v>664040</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>615</v>
+        <v>612</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>616</v>
+        <v>613</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="M32" s="7">
         <v>1277</v>
@@ -8540,13 +8537,13 @@
         <v>1352152</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>618</v>
+        <v>615</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>620</v>
+        <v>617</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -8561,13 +8558,13 @@
         <v>71857</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>621</v>
+        <v>618</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>622</v>
+        <v>619</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
       <c r="H33" s="7">
         <v>107</v>
@@ -8576,13 +8573,13 @@
         <v>124222</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>624</v>
+        <v>621</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>625</v>
+        <v>622</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>626</v>
+        <v>623</v>
       </c>
       <c r="M33" s="7">
         <v>179</v>
@@ -8591,13 +8588,13 @@
         <v>196079</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>627</v>
+        <v>624</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>470</v>
+        <v>625</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -8612,13 +8609,13 @@
         <v>18614</v>
       </c>
       <c r="E34" s="7" t="s">
+        <v>627</v>
+      </c>
+      <c r="F34" s="7" t="s">
+        <v>628</v>
+      </c>
+      <c r="G34" s="7" t="s">
         <v>629</v>
-      </c>
-      <c r="F34" s="7" t="s">
-        <v>630</v>
-      </c>
-      <c r="G34" s="7" t="s">
-        <v>631</v>
       </c>
       <c r="H34" s="7">
         <v>30</v>
@@ -8627,13 +8624,13 @@
         <v>37905</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>632</v>
+        <v>603</v>
       </c>
       <c r="K34" s="7" t="s">
         <v>120</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>633</v>
+        <v>148</v>
       </c>
       <c r="M34" s="7">
         <v>49</v>
@@ -8642,13 +8639,13 @@
         <v>56519</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>634</v>
+        <v>630</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>635</v>
+        <v>631</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>636</v>
+        <v>632</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -8716,13 +8713,13 @@
         <v>2923923</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>637</v>
+        <v>633</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>17</v>
+        <v>634</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>638</v>
+        <v>635</v>
       </c>
       <c r="H36" s="7">
         <v>2641</v>
@@ -8731,13 +8728,13 @@
         <v>2742531</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>639</v>
+        <v>636</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>640</v>
+        <v>637</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>641</v>
+        <v>638</v>
       </c>
       <c r="M36" s="7">
         <v>5404</v>
@@ -8746,13 +8743,13 @@
         <v>5666454</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>211</v>
+        <v>639</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -8767,13 +8764,13 @@
         <v>324151</v>
       </c>
       <c r="E37" s="7" t="s">
+        <v>642</v>
+      </c>
+      <c r="F37" s="7" t="s">
+        <v>643</v>
+      </c>
+      <c r="G37" s="7" t="s">
         <v>644</v>
-      </c>
-      <c r="F37" s="7" t="s">
-        <v>645</v>
-      </c>
-      <c r="G37" s="7" t="s">
-        <v>270</v>
       </c>
       <c r="H37" s="7">
         <v>444</v>
@@ -8782,13 +8779,13 @@
         <v>502626</v>
       </c>
       <c r="J37" s="7" t="s">
+        <v>645</v>
+      </c>
+      <c r="K37" s="7" t="s">
         <v>646</v>
       </c>
-      <c r="K37" s="7" t="s">
+      <c r="L37" s="7" t="s">
         <v>647</v>
-      </c>
-      <c r="L37" s="7" t="s">
-        <v>648</v>
       </c>
       <c r="M37" s="7">
         <v>763</v>
@@ -8797,13 +8794,13 @@
         <v>826777</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>649</v>
+        <v>166</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>651</v>
+        <v>490</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -8818,13 +8815,13 @@
         <v>146276</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>327</v>
+        <v>649</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>198</v>
+        <v>519</v>
       </c>
       <c r="H38" s="7">
         <v>253</v>
@@ -8833,13 +8830,13 @@
         <v>299385</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>654</v>
+        <v>429</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>655</v>
+        <v>642</v>
       </c>
       <c r="M38" s="7">
         <v>402</v>
@@ -8848,13 +8845,13 @@
         <v>445660</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>656</v>
+        <v>451</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>657</v>
+        <v>652</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>277</v>
+        <v>107</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -8910,7 +8907,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
   </sheetData>
@@ -8934,7 +8931,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7346F3A-DBE7-4F26-BE35-18ACC0F03635}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BCF81273-71CD-46EA-A5C5-7074CBED9ED5}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -8951,7 +8948,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>658</v>
+        <v>653</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -9058,13 +9055,13 @@
         <v>217941</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>659</v>
+        <v>654</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>47</v>
+        <v>655</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>129</v>
+        <v>656</v>
       </c>
       <c r="H4" s="7">
         <v>423</v>
@@ -9073,13 +9070,13 @@
         <v>217037</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>660</v>
+        <v>657</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>661</v>
+        <v>658</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>662</v>
+        <v>659</v>
       </c>
       <c r="M4" s="7">
         <v>695</v>
@@ -9088,13 +9085,13 @@
         <v>434977</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>49</v>
+        <v>660</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -9109,13 +9106,13 @@
         <v>37161</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>665</v>
+        <v>493</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>666</v>
+        <v>663</v>
       </c>
       <c r="H5" s="7">
         <v>94</v>
@@ -9124,13 +9121,13 @@
         <v>43718</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>667</v>
+        <v>664</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>668</v>
+        <v>665</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>273</v>
+        <v>666</v>
       </c>
       <c r="M5" s="7">
         <v>146</v>
@@ -9139,13 +9136,13 @@
         <v>80878</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>667</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>668</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>669</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>343</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>670</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -9160,13 +9157,13 @@
         <v>5197</v>
       </c>
       <c r="E6" s="7" t="s">
+        <v>670</v>
+      </c>
+      <c r="F6" s="7" t="s">
         <v>671</v>
       </c>
-      <c r="F6" s="7" t="s">
-        <v>32</v>
-      </c>
       <c r="G6" s="7" t="s">
-        <v>449</v>
+        <v>672</v>
       </c>
       <c r="H6" s="7">
         <v>21</v>
@@ -9175,13 +9172,13 @@
         <v>10649</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="M6" s="7">
         <v>28</v>
@@ -9190,13 +9187,13 @@
         <v>15846</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>675</v>
+        <v>172</v>
       </c>
       <c r="P6" s="7" t="s">
         <v>676</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>677</v>
+        <v>117</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -9264,13 +9261,13 @@
         <v>430407</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>677</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>678</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="G8" s="7" t="s">
         <v>679</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>680</v>
       </c>
       <c r="H8" s="7">
         <v>517</v>
@@ -9279,13 +9276,13 @@
         <v>421043</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>680</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>363</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>681</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>682</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>683</v>
       </c>
       <c r="M8" s="7">
         <v>820</v>
@@ -9294,13 +9291,13 @@
         <v>851451</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>682</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>683</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>684</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>685</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>686</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -9315,13 +9312,13 @@
         <v>70933</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>688</v>
+        <v>145</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>689</v>
+        <v>686</v>
       </c>
       <c r="H9" s="7">
         <v>134</v>
@@ -9330,13 +9327,13 @@
         <v>89157</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>690</v>
+        <v>687</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
       <c r="M9" s="7">
         <v>197</v>
@@ -9345,13 +9342,13 @@
         <v>160090</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>693</v>
+        <v>343</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>694</v>
+        <v>691</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -9366,13 +9363,13 @@
         <v>17957</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>695</v>
+        <v>692</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>37</v>
+        <v>693</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
       <c r="H10" s="7">
         <v>66</v>
@@ -9381,13 +9378,13 @@
         <v>44366</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>695</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>696</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>697</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>698</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>452</v>
       </c>
       <c r="M10" s="7">
         <v>82</v>
@@ -9396,10 +9393,10 @@
         <v>62324</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>698</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>699</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>33</v>
       </c>
       <c r="Q10" s="7" t="s">
         <v>700</v>
@@ -9473,10 +9470,10 @@
         <v>701</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>212</v>
+        <v>702</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>702</v>
+        <v>703</v>
       </c>
       <c r="H12" s="7">
         <v>408</v>
@@ -9485,13 +9482,13 @@
         <v>299652</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>704</v>
+        <v>705</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>126</v>
+        <v>706</v>
       </c>
       <c r="M12" s="7">
         <v>708</v>
@@ -9500,13 +9497,13 @@
         <v>578488</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>705</v>
+        <v>707</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>706</v>
+        <v>640</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -9521,13 +9518,13 @@
         <v>16324</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>710</v>
+        <v>138</v>
       </c>
       <c r="H13" s="7">
         <v>68</v>
@@ -9539,7 +9536,7 @@
         <v>711</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>281</v>
+        <v>370</v>
       </c>
       <c r="L13" s="7" t="s">
         <v>712</v>
@@ -9554,7 +9551,7 @@
         <v>713</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>612</v>
+        <v>22</v>
       </c>
       <c r="Q13" s="7" t="s">
         <v>714</v>
@@ -9572,10 +9569,10 @@
         <v>27080</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>308</v>
+        <v>715</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>715</v>
+        <v>428</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>716</v>
@@ -9590,10 +9587,10 @@
         <v>717</v>
       </c>
       <c r="K14" s="7" t="s">
+        <v>383</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>718</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>719</v>
       </c>
       <c r="M14" s="7">
         <v>98</v>
@@ -9602,13 +9599,13 @@
         <v>61255</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>719</v>
+      </c>
+      <c r="P14" s="7" t="s">
         <v>720</v>
       </c>
-      <c r="P14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>721</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>722</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -9676,13 +9673,13 @@
         <v>260607</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>722</v>
+      </c>
+      <c r="F16" s="7" t="s">
         <v>723</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="G16" s="7" t="s">
         <v>724</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>186</v>
       </c>
       <c r="H16" s="7">
         <v>411</v>
@@ -9709,10 +9706,10 @@
         <v>728</v>
       </c>
       <c r="P16" s="7" t="s">
+        <v>658</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>729</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>730</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -9727,13 +9724,13 @@
         <v>34867</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>730</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>731</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>732</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>733</v>
       </c>
       <c r="H17" s="7">
         <v>128</v>
@@ -9742,10 +9739,10 @@
         <v>64891</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>583</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>733</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>25</v>
       </c>
       <c r="L17" s="7" t="s">
         <v>734</v>
@@ -9757,7 +9754,7 @@
         <v>99758</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="P17" s="7" t="s">
         <v>735</v>
@@ -9796,10 +9793,10 @@
         <v>740</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>278</v>
+        <v>741</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>741</v>
+        <v>742</v>
       </c>
       <c r="M18" s="7">
         <v>88</v>
@@ -9808,13 +9805,13 @@
         <v>55139</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>742</v>
+        <v>743</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>427</v>
+        <v>744</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>743</v>
+        <v>587</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -9870,7 +9867,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -9882,13 +9879,13 @@
         <v>172780</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>383</v>
+        <v>386</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>744</v>
+        <v>745</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>745</v>
+        <v>746</v>
       </c>
       <c r="H20" s="7">
         <v>360</v>
@@ -9900,10 +9897,10 @@
         <v>73</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>746</v>
+        <v>747</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>747</v>
+        <v>748</v>
       </c>
       <c r="M20" s="7">
         <v>599</v>
@@ -9912,13 +9909,13 @@
         <v>376208</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>748</v>
+        <v>749</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>236</v>
+        <v>750</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>749</v>
+        <v>520</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -9933,13 +9930,13 @@
         <v>19151</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>750</v>
+        <v>751</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>751</v>
+        <v>752</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>752</v>
+        <v>753</v>
       </c>
       <c r="H21" s="7">
         <v>106</v>
@@ -9948,13 +9945,13 @@
         <v>43531</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>753</v>
+        <v>754</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>754</v>
+        <v>755</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>755</v>
+        <v>756</v>
       </c>
       <c r="M21" s="7">
         <v>138</v>
@@ -9963,10 +9960,10 @@
         <v>62682</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>756</v>
+        <v>757</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>757</v>
+        <v>58</v>
       </c>
       <c r="Q21" s="7" t="s">
         <v>758</v>
@@ -9984,13 +9981,13 @@
         <v>4817</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>674</v>
+      </c>
+      <c r="F22" s="7" t="s">
         <v>759</v>
       </c>
-      <c r="F22" s="7" t="s">
-        <v>760</v>
-      </c>
       <c r="G22" s="7" t="s">
-        <v>761</v>
+        <v>201</v>
       </c>
       <c r="H22" s="7">
         <v>28</v>
@@ -9999,13 +9996,13 @@
         <v>11949</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>760</v>
+      </c>
+      <c r="K22" s="7" t="s">
         <v>761</v>
       </c>
-      <c r="K22" s="7" t="s">
+      <c r="L22" s="7" t="s">
         <v>762</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>751</v>
       </c>
       <c r="M22" s="7">
         <v>36</v>
@@ -10017,10 +10014,10 @@
         <v>763</v>
       </c>
       <c r="P22" s="7" t="s">
+        <v>559</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>764</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>765</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -10088,10 +10085,10 @@
         <v>247828</v>
       </c>
       <c r="E24" s="7" t="s">
+        <v>765</v>
+      </c>
+      <c r="F24" s="7" t="s">
         <v>766</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>360</v>
       </c>
       <c r="G24" s="7" t="s">
         <v>767</v>
@@ -10109,7 +10106,7 @@
         <v>769</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>637</v>
+        <v>770</v>
       </c>
       <c r="M24" s="7">
         <v>670</v>
@@ -10118,13 +10115,13 @@
         <v>476848</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>770</v>
+        <v>771</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>771</v>
+        <v>772</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>772</v>
+        <v>773</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -10139,13 +10136,13 @@
         <v>13740</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>773</v>
+        <v>741</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>675</v>
+        <v>774</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
       <c r="H25" s="7">
         <v>47</v>
@@ -10154,13 +10151,13 @@
         <v>20960</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>775</v>
+        <v>408</v>
       </c>
       <c r="K25" s="7" t="s">
         <v>776</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>332</v>
+        <v>777</v>
       </c>
       <c r="M25" s="7">
         <v>68</v>
@@ -10169,13 +10166,13 @@
         <v>34700</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>777</v>
+        <v>778</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>778</v>
+        <v>779</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>403</v>
+        <v>780</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -10190,13 +10187,13 @@
         <v>15654</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>779</v>
+        <v>781</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>780</v>
+        <v>782</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>781</v>
+        <v>783</v>
       </c>
       <c r="H26" s="7">
         <v>62</v>
@@ -10205,13 +10202,13 @@
         <v>25642</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>782</v>
+        <v>784</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>277</v>
+        <v>700</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>783</v>
+        <v>785</v>
       </c>
       <c r="M26" s="7">
         <v>93</v>
@@ -10220,13 +10217,13 @@
         <v>41297</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>784</v>
+        <v>786</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>543</v>
+        <v>406</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>81</v>
+        <v>787</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -10294,13 +10291,13 @@
         <v>523226</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>785</v>
+        <v>788</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>786</v>
+        <v>789</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>555</v>
+        <v>790</v>
       </c>
       <c r="H28" s="7">
         <v>691</v>
@@ -10309,13 +10306,13 @@
         <v>636528</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>787</v>
+        <v>791</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>788</v>
+        <v>792</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>789</v>
+        <v>793</v>
       </c>
       <c r="M28" s="7">
         <v>1177</v>
@@ -10324,13 +10321,13 @@
         <v>1159754</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>790</v>
+        <v>342</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>791</v>
+        <v>794</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>792</v>
+        <v>795</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -10345,13 +10342,13 @@
         <v>81086</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>373</v>
+        <v>796</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>793</v>
+        <v>487</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>794</v>
+        <v>797</v>
       </c>
       <c r="H29" s="7">
         <v>164</v>
@@ -10360,13 +10357,13 @@
         <v>102749</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>795</v>
+        <v>474</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>796</v>
+        <v>798</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>797</v>
+        <v>799</v>
       </c>
       <c r="M29" s="7">
         <v>250</v>
@@ -10378,10 +10375,10 @@
         <v>343</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>317</v>
+        <v>800</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>798</v>
+        <v>801</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -10396,13 +10393,13 @@
         <v>23442</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>799</v>
+        <v>802</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>800</v>
+        <v>674</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>801</v>
+        <v>694</v>
       </c>
       <c r="H30" s="7">
         <v>105</v>
@@ -10411,7 +10408,7 @@
         <v>64926</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>802</v>
+        <v>449</v>
       </c>
       <c r="K30" s="7" t="s">
         <v>803</v>
@@ -10429,10 +10426,10 @@
         <v>79</v>
       </c>
       <c r="P30" s="7" t="s">
+        <v>358</v>
+      </c>
+      <c r="Q30" s="7" t="s">
         <v>805</v>
-      </c>
-      <c r="Q30" s="7" t="s">
-        <v>806</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -10488,7 +10485,7 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B32" s="5" t="s">
         <v>10</v>
@@ -10500,13 +10497,13 @@
         <v>702144</v>
       </c>
       <c r="E32" s="7" t="s">
+        <v>806</v>
+      </c>
+      <c r="F32" s="7" t="s">
         <v>807</v>
       </c>
-      <c r="F32" s="7" t="s">
+      <c r="G32" s="7" t="s">
         <v>808</v>
-      </c>
-      <c r="G32" s="7" t="s">
-        <v>809</v>
       </c>
       <c r="H32" s="7">
         <v>768</v>
@@ -10515,13 +10512,13 @@
         <v>656714</v>
       </c>
       <c r="J32" s="7" t="s">
+        <v>809</v>
+      </c>
+      <c r="K32" s="7" t="s">
         <v>810</v>
       </c>
-      <c r="K32" s="7" t="s">
+      <c r="L32" s="7" t="s">
         <v>811</v>
-      </c>
-      <c r="L32" s="7" t="s">
-        <v>812</v>
       </c>
       <c r="M32" s="7">
         <v>1409</v>
@@ -10530,13 +10527,13 @@
         <v>1358857</v>
       </c>
       <c r="O32" s="7" t="s">
+        <v>812</v>
+      </c>
+      <c r="P32" s="7" t="s">
         <v>813</v>
       </c>
-      <c r="P32" s="7" t="s">
+      <c r="Q32" s="7" t="s">
         <v>814</v>
-      </c>
-      <c r="Q32" s="7" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -10554,7 +10551,7 @@
         <v>815</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>173</v>
+        <v>742</v>
       </c>
       <c r="G33" s="7" t="s">
         <v>816</v>
@@ -10584,10 +10581,10 @@
         <v>820</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>783</v>
+        <v>821</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>821</v>
+        <v>822</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -10602,13 +10599,13 @@
         <v>30635</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>822</v>
+        <v>823</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>800</v>
+        <v>824</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>381</v>
+        <v>741</v>
       </c>
       <c r="H34" s="7">
         <v>113</v>
@@ -10617,13 +10614,13 @@
         <v>77158</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>823</v>
+        <v>825</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>824</v>
+        <v>743</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>722</v>
+        <v>826</v>
       </c>
       <c r="M34" s="7">
         <v>149</v>
@@ -10632,13 +10629,13 @@
         <v>107793</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>577</v>
+        <v>827</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>825</v>
+        <v>828</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>826</v>
+        <v>829</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -10706,13 +10703,13 @@
         <v>2833769</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>827</v>
+        <v>830</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>828</v>
+        <v>831</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>829</v>
+        <v>832</v>
       </c>
       <c r="H36" s="7">
         <v>3929</v>
@@ -10721,13 +10718,13 @@
         <v>2998714</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>830</v>
+        <v>833</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>831</v>
+        <v>834</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>832</v>
+        <v>640</v>
       </c>
       <c r="M36" s="7">
         <v>6714</v>
@@ -10736,13 +10733,13 @@
         <v>5832483</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>833</v>
+        <v>284</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>412</v>
+        <v>592</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>834</v>
+        <v>727</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -10778,7 +10775,7 @@
         <v>839</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>218</v>
+        <v>583</v>
       </c>
       <c r="M37" s="7">
         <v>1322</v>
@@ -10790,10 +10787,10 @@
         <v>57</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>397</v>
+        <v>319</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>840</v>
+        <v>190</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -10808,13 +10805,13 @@
         <v>151549</v>
       </c>
       <c r="E38" s="7" t="s">
+        <v>840</v>
+      </c>
+      <c r="F38" s="7" t="s">
         <v>841</v>
       </c>
-      <c r="F38" s="7" t="s">
+      <c r="G38" s="7" t="s">
         <v>842</v>
-      </c>
-      <c r="G38" s="7" t="s">
-        <v>171</v>
       </c>
       <c r="H38" s="7">
         <v>515</v>
@@ -10823,13 +10820,13 @@
         <v>297238</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>497</v>
+        <v>225</v>
       </c>
       <c r="K38" s="7" t="s">
         <v>843</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>844</v>
+        <v>279</v>
       </c>
       <c r="M38" s="7">
         <v>706</v>
@@ -10838,13 +10835,13 @@
         <v>448787</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>303</v>
+        <v>844</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>845</v>
+        <v>188</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -10900,7 +10897,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P0801-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P0801-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9D11DF4C-B471-4857-8794-58FADAF983A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{93CCD354-DE0F-4303-8447-EABEE2C47CC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{F1E7CAA0-7CA6-4B9A-B097-F5B41564E721}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{46BB6C34-051F-4CE2-B863-2B60DF86BEE7}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1556" uniqueCount="846">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1556" uniqueCount="877">
   <si>
     <t>Población según limitación a hacer esfuerzos moderados en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
@@ -815,7 +815,82 @@
     <t>Población según limitación a hacer esfuerzos moderados en 2012 (Tasa respuesta: 100,0%)</t>
   </si>
   <si>
-    <t>—%</t>
+    <t>83,34%</t>
+  </si>
+  <si>
+    <t>78,86%</t>
+  </si>
+  <si>
+    <t>71,42%</t>
+  </si>
+  <si>
+    <t>65,71%</t>
+  </si>
+  <si>
+    <t>77,08%</t>
+  </si>
+  <si>
+    <t>77,46%</t>
+  </si>
+  <si>
+    <t>74,02%</t>
+  </si>
+  <si>
+    <t>81,13%</t>
+  </si>
+  <si>
+    <t>10,87%</t>
+  </si>
+  <si>
+    <t>7,73%</t>
+  </si>
+  <si>
+    <t>15,73%</t>
+  </si>
+  <si>
+    <t>16,56%</t>
+  </si>
+  <si>
+    <t>12,4%</t>
+  </si>
+  <si>
+    <t>21,75%</t>
+  </si>
+  <si>
+    <t>13,68%</t>
+  </si>
+  <si>
+    <t>11,05%</t>
+  </si>
+  <si>
+    <t>16,87%</t>
+  </si>
+  <si>
+    <t>5,79%</t>
+  </si>
+  <si>
+    <t>3,2%</t>
+  </si>
+  <si>
+    <t>9,08%</t>
+  </si>
+  <si>
+    <t>12,02%</t>
+  </si>
+  <si>
+    <t>8,37%</t>
+  </si>
+  <si>
+    <t>16,48%</t>
+  </si>
+  <si>
+    <t>8,86%</t>
+  </si>
+  <si>
+    <t>6,63%</t>
+  </si>
+  <si>
+    <t>11,57%</t>
   </si>
   <si>
     <t>85,19%</t>
@@ -968,1615 +1043,1633 @@
     <t>8,4%</t>
   </si>
   <si>
-    <t>84,46%</t>
-  </si>
-  <si>
-    <t>81,27%</t>
-  </si>
-  <si>
-    <t>87,3%</t>
-  </si>
-  <si>
-    <t>70,28%</t>
-  </si>
-  <si>
-    <t>66,69%</t>
-  </si>
-  <si>
-    <t>73,79%</t>
+    <t>85,34%</t>
+  </si>
+  <si>
+    <t>80,91%</t>
+  </si>
+  <si>
+    <t>88,45%</t>
+  </si>
+  <si>
+    <t>69,44%</t>
+  </si>
+  <si>
+    <t>64,6%</t>
+  </si>
+  <si>
+    <t>73,72%</t>
+  </si>
+  <si>
+    <t>77,23%</t>
+  </si>
+  <si>
+    <t>74,15%</t>
+  </si>
+  <si>
+    <t>80,5%</t>
+  </si>
+  <si>
+    <t>8,58%</t>
+  </si>
+  <si>
+    <t>5,81%</t>
+  </si>
+  <si>
+    <t>11,92%</t>
+  </si>
+  <si>
+    <t>15,71%</t>
+  </si>
+  <si>
+    <t>12,49%</t>
+  </si>
+  <si>
+    <t>19,86%</t>
+  </si>
+  <si>
+    <t>12,22%</t>
+  </si>
+  <si>
+    <t>9,89%</t>
+  </si>
+  <si>
+    <t>14,7%</t>
+  </si>
+  <si>
+    <t>6,08%</t>
+  </si>
+  <si>
+    <t>9,13%</t>
+  </si>
+  <si>
+    <t>14,85%</t>
+  </si>
+  <si>
+    <t>19,03%</t>
+  </si>
+  <si>
+    <t>10,55%</t>
+  </si>
+  <si>
+    <t>13,18%</t>
+  </si>
+  <si>
+    <t>83,61%</t>
+  </si>
+  <si>
+    <t>77,43%</t>
+  </si>
+  <si>
+    <t>88,23%</t>
+  </si>
+  <si>
+    <t>71,48%</t>
+  </si>
+  <si>
+    <t>65,28%</t>
+  </si>
+  <si>
+    <t>76,94%</t>
+  </si>
+  <si>
+    <t>77,44%</t>
+  </si>
+  <si>
+    <t>72,94%</t>
+  </si>
+  <si>
+    <t>81,19%</t>
+  </si>
+  <si>
+    <t>12,84%</t>
+  </si>
+  <si>
+    <t>8,82%</t>
+  </si>
+  <si>
+    <t>18,87%</t>
+  </si>
+  <si>
+    <t>19,16%</t>
+  </si>
+  <si>
+    <t>14,51%</t>
+  </si>
+  <si>
+    <t>16,05%</t>
+  </si>
+  <si>
+    <t>12,67%</t>
+  </si>
+  <si>
+    <t>20,02%</t>
+  </si>
+  <si>
+    <t>3,55%</t>
+  </si>
+  <si>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>6,95%</t>
+  </si>
+  <si>
+    <t>9,37%</t>
+  </si>
+  <si>
+    <t>5,73%</t>
+  </si>
+  <si>
+    <t>13,7%</t>
+  </si>
+  <si>
+    <t>4,39%</t>
+  </si>
+  <si>
+    <t>9,01%</t>
+  </si>
+  <si>
+    <t>81,81%</t>
+  </si>
+  <si>
+    <t>76,44%</t>
+  </si>
+  <si>
+    <t>85,98%</t>
+  </si>
+  <si>
+    <t>72,86%</t>
+  </si>
+  <si>
+    <t>67,08%</t>
+  </si>
+  <si>
+    <t>77,87%</t>
+  </si>
+  <si>
+    <t>77,29%</t>
+  </si>
+  <si>
+    <t>73,27%</t>
+  </si>
+  <si>
+    <t>80,9%</t>
+  </si>
+  <si>
+    <t>12,12%</t>
+  </si>
+  <si>
+    <t>16,51%</t>
+  </si>
+  <si>
+    <t>19,27%</t>
+  </si>
+  <si>
+    <t>15,28%</t>
+  </si>
+  <si>
+    <t>25,05%</t>
+  </si>
+  <si>
+    <t>12,92%</t>
+  </si>
+  <si>
+    <t>19,06%</t>
+  </si>
+  <si>
+    <t>6,07%</t>
+  </si>
+  <si>
+    <t>3,72%</t>
+  </si>
+  <si>
+    <t>9,61%</t>
+  </si>
+  <si>
+    <t>4,9%</t>
+  </si>
+  <si>
+    <t>11,25%</t>
+  </si>
+  <si>
+    <t>6,98%</t>
+  </si>
+  <si>
+    <t>4,93%</t>
+  </si>
+  <si>
+    <t>9,41%</t>
+  </si>
+  <si>
+    <t>87,82%</t>
+  </si>
+  <si>
+    <t>84,94%</t>
+  </si>
+  <si>
+    <t>90,48%</t>
+  </si>
+  <si>
+    <t>76,41%</t>
+  </si>
+  <si>
+    <t>72,88%</t>
+  </si>
+  <si>
+    <t>79,85%</t>
+  </si>
+  <si>
+    <t>81,98%</t>
+  </si>
+  <si>
+    <t>79,71%</t>
+  </si>
+  <si>
+    <t>8,34%</t>
+  </si>
+  <si>
+    <t>6,06%</t>
+  </si>
+  <si>
+    <t>10,78%</t>
+  </si>
+  <si>
+    <t>15,44%</t>
+  </si>
+  <si>
+    <t>12,76%</t>
+  </si>
+  <si>
+    <t>18,36%</t>
+  </si>
+  <si>
+    <t>11,97%</t>
+  </si>
+  <si>
+    <t>10,16%</t>
+  </si>
+  <si>
+    <t>13,93%</t>
+  </si>
+  <si>
+    <t>3,84%</t>
+  </si>
+  <si>
+    <t>2,38%</t>
+  </si>
+  <si>
+    <t>5,67%</t>
+  </si>
+  <si>
+    <t>8,14%</t>
+  </si>
+  <si>
+    <t>5,92%</t>
+  </si>
+  <si>
+    <t>10,59%</t>
+  </si>
+  <si>
+    <t>6,04%</t>
+  </si>
+  <si>
+    <t>4,72%</t>
+  </si>
+  <si>
+    <t>7,52%</t>
+  </si>
+  <si>
+    <t>85,85%</t>
+  </si>
+  <si>
+    <t>83,1%</t>
+  </si>
+  <si>
+    <t>88,51%</t>
+  </si>
+  <si>
+    <t>78,74%</t>
+  </si>
+  <si>
+    <t>75,53%</t>
+  </si>
+  <si>
+    <t>81,69%</t>
+  </si>
+  <si>
+    <t>82,2%</t>
+  </si>
+  <si>
+    <t>80,24%</t>
+  </si>
+  <si>
+    <t>84,28%</t>
+  </si>
+  <si>
+    <t>11,22%</t>
+  </si>
+  <si>
+    <t>8,7%</t>
+  </si>
+  <si>
+    <t>13,65%</t>
+  </si>
+  <si>
+    <t>15,51%</t>
+  </si>
+  <si>
+    <t>13,13%</t>
+  </si>
+  <si>
+    <t>18,54%</t>
+  </si>
+  <si>
+    <t>13,42%</t>
+  </si>
+  <si>
+    <t>2,93%</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>4,52%</t>
+  </si>
+  <si>
+    <t>5,75%</t>
+  </si>
+  <si>
+    <t>4,19%</t>
+  </si>
+  <si>
+    <t>7,41%</t>
+  </si>
+  <si>
+    <t>4,38%</t>
+  </si>
+  <si>
+    <t>3,48%</t>
+  </si>
+  <si>
+    <t>5,55%</t>
+  </si>
+  <si>
+    <t>85,37%</t>
+  </si>
+  <si>
+    <t>84,12%</t>
+  </si>
+  <si>
+    <t>86,69%</t>
+  </si>
+  <si>
+    <t>74,67%</t>
+  </si>
+  <si>
+    <t>73,11%</t>
+  </si>
+  <si>
+    <t>76,07%</t>
+  </si>
+  <si>
+    <t>79,92%</t>
+  </si>
+  <si>
+    <t>80,76%</t>
+  </si>
+  <si>
+    <t>8,67%</t>
+  </si>
+  <si>
+    <t>10,8%</t>
+  </si>
+  <si>
+    <t>16,3%</t>
+  </si>
+  <si>
+    <t>15,07%</t>
+  </si>
+  <si>
+    <t>17,52%</t>
+  </si>
+  <si>
+    <t>12,3%</t>
+  </si>
+  <si>
+    <t>13,87%</t>
+  </si>
+  <si>
+    <t>4,87%</t>
+  </si>
+  <si>
+    <t>4,12%</t>
+  </si>
+  <si>
+    <t>9,03%</t>
+  </si>
+  <si>
+    <t>8,05%</t>
+  </si>
+  <si>
+    <t>10,09%</t>
+  </si>
+  <si>
+    <t>6,99%</t>
+  </si>
+  <si>
+    <t>6,34%</t>
+  </si>
+  <si>
+    <t>7,71%</t>
+  </si>
+  <si>
+    <t>Población según limitación a hacer esfuerzos moderados en 2016 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>81,24%</t>
+  </si>
+  <si>
+    <t>76,13%</t>
+  </si>
+  <si>
+    <t>85,67%</t>
+  </si>
+  <si>
+    <t>65,61%</t>
+  </si>
+  <si>
+    <t>77,19%</t>
+  </si>
+  <si>
+    <t>72,55%</t>
+  </si>
+  <si>
+    <t>80,25%</t>
+  </si>
+  <si>
+    <t>12,55%</t>
+  </si>
+  <si>
+    <t>16,94%</t>
+  </si>
+  <si>
+    <t>14,04%</t>
+  </si>
+  <si>
+    <t>10,54%</t>
+  </si>
+  <si>
+    <t>18,96%</t>
+  </si>
+  <si>
+    <t>13,28%</t>
+  </si>
+  <si>
+    <t>10,62%</t>
+  </si>
+  <si>
+    <t>16,68%</t>
+  </si>
+  <si>
+    <t>3,8%</t>
+  </si>
+  <si>
+    <t>9,62%</t>
+  </si>
+  <si>
+    <t>10,3%</t>
+  </si>
+  <si>
+    <t>19,02%</t>
+  </si>
+  <si>
+    <t>7,51%</t>
+  </si>
+  <si>
+    <t>12,95%</t>
+  </si>
+  <si>
+    <t>87,95%</t>
+  </si>
+  <si>
+    <t>85,01%</t>
+  </si>
+  <si>
+    <t>90,46%</t>
+  </si>
+  <si>
+    <t>78,96%</t>
+  </si>
+  <si>
+    <t>75,22%</t>
+  </si>
+  <si>
+    <t>82,72%</t>
+  </si>
+  <si>
+    <t>83,37%</t>
+  </si>
+  <si>
+    <t>80,88%</t>
+  </si>
+  <si>
+    <t>85,77%</t>
+  </si>
+  <si>
+    <t>8,36%</t>
+  </si>
+  <si>
+    <t>11,09%</t>
+  </si>
+  <si>
+    <t>13,29%</t>
+  </si>
+  <si>
+    <t>10,12%</t>
+  </si>
+  <si>
+    <t>16,49%</t>
+  </si>
+  <si>
+    <t>8,84%</t>
+  </si>
+  <si>
+    <t>3,69%</t>
+  </si>
+  <si>
+    <t>2,24%</t>
+  </si>
+  <si>
+    <t>5,37%</t>
+  </si>
+  <si>
+    <t>7,75%</t>
+  </si>
+  <si>
+    <t>5,49%</t>
+  </si>
+  <si>
+    <t>5,76%</t>
+  </si>
+  <si>
+    <t>4,44%</t>
+  </si>
+  <si>
+    <t>86,54%</t>
+  </si>
+  <si>
+    <t>82,42%</t>
+  </si>
+  <si>
+    <t>89,78%</t>
+  </si>
+  <si>
+    <t>80,21%</t>
+  </si>
+  <si>
+    <t>75,07%</t>
+  </si>
+  <si>
+    <t>84,33%</t>
+  </si>
+  <si>
+    <t>83,29%</t>
+  </si>
+  <si>
+    <t>80,03%</t>
+  </si>
+  <si>
+    <t>86,05%</t>
+  </si>
+  <si>
+    <t>11,76%</t>
+  </si>
+  <si>
+    <t>8,71%</t>
+  </si>
+  <si>
+    <t>15,58%</t>
+  </si>
+  <si>
+    <t>15,0%</t>
+  </si>
+  <si>
+    <t>11,35%</t>
+  </si>
+  <si>
+    <t>19,62%</t>
+  </si>
+  <si>
+    <t>13,43%</t>
+  </si>
+  <si>
+    <t>10,96%</t>
+  </si>
+  <si>
+    <t>16,2%</t>
+  </si>
+  <si>
+    <t>1,7%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>3,58%</t>
+  </si>
+  <si>
+    <t>4,78%</t>
+  </si>
+  <si>
+    <t>2,83%</t>
+  </si>
+  <si>
+    <t>7,91%</t>
+  </si>
+  <si>
+    <t>3,28%</t>
+  </si>
+  <si>
+    <t>1,96%</t>
+  </si>
+  <si>
+    <t>5,01%</t>
+  </si>
+  <si>
+    <t>81,54%</t>
+  </si>
+  <si>
+    <t>88,7%</t>
+  </si>
+  <si>
+    <t>73,83%</t>
+  </si>
+  <si>
+    <t>69,09%</t>
+  </si>
+  <si>
+    <t>78,43%</t>
+  </si>
+  <si>
+    <t>79,66%</t>
+  </si>
+  <si>
+    <t>76,5%</t>
+  </si>
+  <si>
+    <t>82,63%</t>
+  </si>
+  <si>
+    <t>8,74%</t>
+  </si>
+  <si>
+    <t>13,33%</t>
+  </si>
+  <si>
+    <t>10,01%</t>
+  </si>
+  <si>
+    <t>17,17%</t>
+  </si>
+  <si>
+    <t>7,66%</t>
+  </si>
+  <si>
+    <t>11,99%</t>
+  </si>
+  <si>
+    <t>8,5%</t>
+  </si>
+  <si>
+    <t>6,01%</t>
+  </si>
+  <si>
+    <t>11,83%</t>
+  </si>
+  <si>
+    <t>16,67%</t>
+  </si>
+  <si>
+    <t>10,72%</t>
+  </si>
+  <si>
+    <t>8,44%</t>
+  </si>
+  <si>
+    <t>87,34%</t>
+  </si>
+  <si>
+    <t>82,53%</t>
+  </si>
+  <si>
+    <t>91,12%</t>
+  </si>
+  <si>
+    <t>77,73%</t>
+  </si>
+  <si>
+    <t>71,79%</t>
+  </si>
+  <si>
+    <t>82,45%</t>
+  </si>
+  <si>
+    <t>78,68%</t>
+  </si>
+  <si>
+    <t>86,1%</t>
+  </si>
+  <si>
+    <t>10,04%</t>
+  </si>
+  <si>
+    <t>6,92%</t>
+  </si>
+  <si>
+    <t>14,54%</t>
+  </si>
+  <si>
+    <t>17,83%</t>
+  </si>
+  <si>
+    <t>24,06%</t>
+  </si>
+  <si>
+    <t>14,0%</t>
+  </si>
+  <si>
+    <t>17,64%</t>
+  </si>
+  <si>
+    <t>2,62%</t>
+  </si>
+  <si>
+    <t>6,05%</t>
+  </si>
+  <si>
+    <t>8,22%</t>
+  </si>
+  <si>
+    <t>1,97%</t>
+  </si>
+  <si>
+    <t>5,68%</t>
+  </si>
+  <si>
+    <t>74,11%</t>
+  </si>
+  <si>
+    <t>84,04%</t>
+  </si>
+  <si>
+    <t>68,93%</t>
+  </si>
+  <si>
+    <t>62,85%</t>
+  </si>
+  <si>
+    <t>74,35%</t>
+  </si>
+  <si>
+    <t>70,39%</t>
+  </si>
+  <si>
+    <t>77,86%</t>
+  </si>
+  <si>
+    <t>9,54%</t>
+  </si>
+  <si>
+    <t>6,24%</t>
+  </si>
+  <si>
+    <t>13,77%</t>
+  </si>
+  <si>
+    <t>17,49%</t>
+  </si>
+  <si>
+    <t>13,25%</t>
+  </si>
+  <si>
+    <t>22,49%</t>
+  </si>
+  <si>
+    <t>13,59%</t>
+  </si>
+  <si>
+    <t>10,51%</t>
+  </si>
+  <si>
+    <t>16,76%</t>
+  </si>
+  <si>
+    <t>10,89%</t>
+  </si>
+  <si>
+    <t>7,96%</t>
+  </si>
+  <si>
+    <t>13,57%</t>
+  </si>
+  <si>
+    <t>9,74%</t>
+  </si>
+  <si>
+    <t>18,48%</t>
+  </si>
+  <si>
+    <t>12,26%</t>
+  </si>
+  <si>
+    <t>9,67%</t>
+  </si>
+  <si>
+    <t>15,64%</t>
+  </si>
+  <si>
+    <t>86,55%</t>
+  </si>
+  <si>
+    <t>83,69%</t>
+  </si>
+  <si>
+    <t>89,24%</t>
+  </si>
+  <si>
+    <t>75,39%</t>
+  </si>
+  <si>
+    <t>82,52%</t>
+  </si>
+  <si>
+    <t>80,23%</t>
+  </si>
+  <si>
+    <t>84,65%</t>
+  </si>
+  <si>
+    <t>10,43%</t>
+  </si>
+  <si>
+    <t>8,15%</t>
+  </si>
+  <si>
+    <t>13,22%</t>
+  </si>
+  <si>
+    <t>11,51%</t>
+  </si>
+  <si>
+    <t>9,25%</t>
+  </si>
+  <si>
+    <t>14,37%</t>
+  </si>
+  <si>
+    <t>10,98%</t>
+  </si>
+  <si>
+    <t>3,02%</t>
+  </si>
+  <si>
+    <t>1,77%</t>
+  </si>
+  <si>
+    <t>4,54%</t>
+  </si>
+  <si>
+    <t>9,81%</t>
+  </si>
+  <si>
+    <t>7,65%</t>
+  </si>
+  <si>
+    <t>12,38%</t>
+  </si>
+  <si>
+    <t>6,5%</t>
+  </si>
+  <si>
+    <t>5,09%</t>
+  </si>
+  <si>
+    <t>88,38%</t>
+  </si>
+  <si>
+    <t>80,38%</t>
+  </si>
+  <si>
+    <t>77,38%</t>
+  </si>
+  <si>
+    <t>83,22%</t>
+  </si>
+  <si>
+    <t>84,26%</t>
+  </si>
+  <si>
+    <t>82,34%</t>
+  </si>
+  <si>
+    <t>86,18%</t>
+  </si>
+  <si>
+    <t>9,23%</t>
+  </si>
+  <si>
+    <t>7,28%</t>
+  </si>
+  <si>
+    <t>11,36%</t>
+  </si>
+  <si>
+    <t>15,04%</t>
+  </si>
+  <si>
+    <t>12,62%</t>
+  </si>
+  <si>
+    <t>18,03%</t>
+  </si>
+  <si>
+    <t>13,9%</t>
+  </si>
+  <si>
+    <t>2,39%</t>
+  </si>
+  <si>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>3,74%</t>
+  </si>
+  <si>
+    <t>4,59%</t>
+  </si>
+  <si>
+    <t>6,4%</t>
+  </si>
+  <si>
+    <t>3,52%</t>
+  </si>
+  <si>
+    <t>2,6%</t>
+  </si>
+  <si>
+    <t>4,63%</t>
+  </si>
+  <si>
+    <t>86,14%</t>
+  </si>
+  <si>
+    <t>87,23%</t>
+  </si>
+  <si>
+    <t>77,37%</t>
+  </si>
+  <si>
+    <t>75,78%</t>
+  </si>
+  <si>
+    <t>78,85%</t>
+  </si>
+  <si>
+    <t>80,65%</t>
+  </si>
+  <si>
+    <t>82,69%</t>
+  </si>
+  <si>
+    <t>9,55%</t>
+  </si>
+  <si>
+    <t>14,18%</t>
+  </si>
+  <si>
+    <t>13,02%</t>
+  </si>
+  <si>
+    <t>15,43%</t>
+  </si>
+  <si>
+    <t>11,08%</t>
+  </si>
+  <si>
+    <t>12,68%</t>
+  </si>
+  <si>
+    <t>4,31%</t>
+  </si>
+  <si>
+    <t>3,67%</t>
+  </si>
+  <si>
+    <t>8,45%</t>
+  </si>
+  <si>
+    <t>7,42%</t>
+  </si>
+  <si>
+    <t>9,53%</t>
+  </si>
+  <si>
+    <t>6,42%</t>
+  </si>
+  <si>
+    <t>Población según limitación a hacer esfuerzos moderados en 2023 (Tasa respuesta: 99,99%)</t>
+  </si>
+  <si>
+    <t>84,89%</t>
+  </si>
+  <si>
+    <t>80,61%</t>
+  </si>
+  <si>
+    <t>88,82%</t>
+  </si>
+  <si>
+    <t>80,79%</t>
+  </si>
+  <si>
+    <t>77,34%</t>
+  </si>
+  <si>
+    <t>83,92%</t>
+  </si>
+  <si>
+    <t>82,91%</t>
+  </si>
+  <si>
+    <t>80,19%</t>
+  </si>
+  <si>
+    <t>85,62%</t>
+  </si>
+  <si>
+    <t>13,3%</t>
+  </si>
+  <si>
+    <t>9,83%</t>
+  </si>
+  <si>
+    <t>17,51%</t>
+  </si>
+  <si>
+    <t>15,49%</t>
+  </si>
+  <si>
+    <t>18,61%</t>
+  </si>
+  <si>
+    <t>14,36%</t>
+  </si>
+  <si>
+    <t>12,09%</t>
+  </si>
+  <si>
+    <t>17,14%</t>
+  </si>
+  <si>
+    <t>1,81%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>2,4%</t>
+  </si>
+  <si>
+    <t>5,56%</t>
+  </si>
+  <si>
+    <t>2,73%</t>
+  </si>
+  <si>
+    <t>1,79%</t>
+  </si>
+  <si>
+    <t>3,94%</t>
+  </si>
+  <si>
+    <t>83,82%</t>
+  </si>
+  <si>
+    <t>80,32%</t>
+  </si>
+  <si>
+    <t>87,02%</t>
+  </si>
+  <si>
+    <t>76,26%</t>
+  </si>
+  <si>
+    <t>73,0%</t>
+  </si>
+  <si>
+    <t>79,07%</t>
+  </si>
+  <si>
+    <t>80,06%</t>
   </si>
   <si>
     <t>77,33%</t>
   </si>
   <si>
-    <t>74,88%</t>
-  </si>
-  <si>
-    <t>9,59%</t>
-  </si>
-  <si>
-    <t>7,32%</t>
-  </si>
-  <si>
-    <t>12,16%</t>
-  </si>
-  <si>
-    <t>16,07%</t>
-  </si>
-  <si>
-    <t>13,38%</t>
-  </si>
-  <si>
-    <t>19,16%</t>
-  </si>
-  <si>
-    <t>12,85%</t>
-  </si>
-  <si>
-    <t>11,13%</t>
-  </si>
-  <si>
-    <t>14,75%</t>
-  </si>
-  <si>
-    <t>5,95%</t>
-  </si>
-  <si>
-    <t>4,31%</t>
-  </si>
-  <si>
-    <t>8,15%</t>
-  </si>
-  <si>
-    <t>13,65%</t>
-  </si>
-  <si>
-    <t>11,02%</t>
-  </si>
-  <si>
-    <t>16,44%</t>
-  </si>
-  <si>
-    <t>9,82%</t>
-  </si>
-  <si>
-    <t>8,29%</t>
-  </si>
-  <si>
-    <t>83,61%</t>
-  </si>
-  <si>
-    <t>77,43%</t>
-  </si>
-  <si>
-    <t>88,23%</t>
-  </si>
-  <si>
-    <t>71,48%</t>
-  </si>
-  <si>
-    <t>65,28%</t>
-  </si>
-  <si>
-    <t>76,94%</t>
-  </si>
-  <si>
-    <t>77,44%</t>
-  </si>
-  <si>
-    <t>72,94%</t>
-  </si>
-  <si>
-    <t>81,19%</t>
-  </si>
-  <si>
-    <t>12,84%</t>
-  </si>
-  <si>
-    <t>8,82%</t>
-  </si>
-  <si>
-    <t>18,87%</t>
-  </si>
-  <si>
-    <t>14,51%</t>
-  </si>
-  <si>
-    <t>16,05%</t>
-  </si>
-  <si>
-    <t>12,67%</t>
-  </si>
-  <si>
-    <t>20,02%</t>
-  </si>
-  <si>
-    <t>3,55%</t>
-  </si>
-  <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>6,95%</t>
-  </si>
-  <si>
-    <t>9,37%</t>
-  </si>
-  <si>
-    <t>5,73%</t>
-  </si>
-  <si>
-    <t>13,7%</t>
-  </si>
-  <si>
-    <t>4,39%</t>
-  </si>
-  <si>
-    <t>9,01%</t>
-  </si>
-  <si>
-    <t>81,81%</t>
-  </si>
-  <si>
-    <t>76,44%</t>
-  </si>
-  <si>
-    <t>85,98%</t>
-  </si>
-  <si>
-    <t>72,86%</t>
-  </si>
-  <si>
-    <t>67,08%</t>
-  </si>
-  <si>
-    <t>77,87%</t>
-  </si>
-  <si>
-    <t>77,29%</t>
-  </si>
-  <si>
-    <t>73,27%</t>
-  </si>
-  <si>
-    <t>80,9%</t>
-  </si>
-  <si>
-    <t>12,12%</t>
-  </si>
-  <si>
-    <t>16,51%</t>
-  </si>
-  <si>
-    <t>19,27%</t>
-  </si>
-  <si>
-    <t>15,28%</t>
-  </si>
-  <si>
-    <t>25,05%</t>
-  </si>
-  <si>
-    <t>15,73%</t>
-  </si>
-  <si>
-    <t>12,92%</t>
-  </si>
-  <si>
-    <t>19,06%</t>
-  </si>
-  <si>
-    <t>6,07%</t>
-  </si>
-  <si>
-    <t>3,72%</t>
-  </si>
-  <si>
-    <t>9,61%</t>
-  </si>
-  <si>
-    <t>4,9%</t>
-  </si>
-  <si>
-    <t>11,25%</t>
-  </si>
-  <si>
-    <t>6,98%</t>
-  </si>
-  <si>
-    <t>4,93%</t>
-  </si>
-  <si>
-    <t>9,41%</t>
-  </si>
-  <si>
-    <t>87,82%</t>
-  </si>
-  <si>
-    <t>84,94%</t>
-  </si>
-  <si>
-    <t>90,48%</t>
-  </si>
-  <si>
-    <t>76,41%</t>
-  </si>
-  <si>
-    <t>72,88%</t>
-  </si>
-  <si>
-    <t>79,85%</t>
-  </si>
-  <si>
-    <t>81,98%</t>
-  </si>
-  <si>
-    <t>79,71%</t>
-  </si>
-  <si>
-    <t>8,34%</t>
-  </si>
-  <si>
-    <t>6,06%</t>
-  </si>
-  <si>
-    <t>10,78%</t>
-  </si>
-  <si>
-    <t>15,44%</t>
-  </si>
-  <si>
-    <t>12,76%</t>
-  </si>
-  <si>
-    <t>18,36%</t>
-  </si>
-  <si>
-    <t>11,97%</t>
-  </si>
-  <si>
-    <t>10,16%</t>
-  </si>
-  <si>
-    <t>13,93%</t>
-  </si>
-  <si>
-    <t>3,84%</t>
-  </si>
-  <si>
-    <t>2,38%</t>
-  </si>
-  <si>
-    <t>5,67%</t>
-  </si>
-  <si>
-    <t>8,14%</t>
-  </si>
-  <si>
-    <t>5,92%</t>
-  </si>
-  <si>
-    <t>10,59%</t>
-  </si>
-  <si>
-    <t>6,04%</t>
-  </si>
-  <si>
-    <t>4,72%</t>
-  </si>
-  <si>
-    <t>7,52%</t>
-  </si>
-  <si>
-    <t>85,85%</t>
-  </si>
-  <si>
-    <t>83,1%</t>
-  </si>
-  <si>
-    <t>88,51%</t>
-  </si>
-  <si>
-    <t>78,74%</t>
-  </si>
-  <si>
-    <t>75,53%</t>
-  </si>
-  <si>
-    <t>81,69%</t>
-  </si>
-  <si>
-    <t>82,2%</t>
-  </si>
-  <si>
-    <t>80,24%</t>
-  </si>
-  <si>
-    <t>84,28%</t>
-  </si>
-  <si>
-    <t>11,22%</t>
-  </si>
-  <si>
-    <t>8,7%</t>
-  </si>
-  <si>
-    <t>15,51%</t>
-  </si>
-  <si>
-    <t>13,13%</t>
-  </si>
-  <si>
-    <t>18,54%</t>
-  </si>
-  <si>
-    <t>13,42%</t>
-  </si>
-  <si>
-    <t>2,93%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>4,52%</t>
-  </si>
-  <si>
-    <t>5,75%</t>
-  </si>
-  <si>
-    <t>4,19%</t>
-  </si>
-  <si>
-    <t>7,41%</t>
-  </si>
-  <si>
-    <t>4,38%</t>
-  </si>
-  <si>
-    <t>3,48%</t>
-  </si>
-  <si>
-    <t>5,55%</t>
-  </si>
-  <si>
-    <t>85,37%</t>
-  </si>
-  <si>
-    <t>84,12%</t>
-  </si>
-  <si>
-    <t>86,69%</t>
-  </si>
-  <si>
-    <t>74,67%</t>
-  </si>
-  <si>
-    <t>73,11%</t>
-  </si>
-  <si>
-    <t>76,07%</t>
-  </si>
-  <si>
-    <t>79,92%</t>
-  </si>
-  <si>
-    <t>80,76%</t>
-  </si>
-  <si>
-    <t>8,67%</t>
-  </si>
-  <si>
-    <t>10,8%</t>
-  </si>
-  <si>
-    <t>16,3%</t>
-  </si>
-  <si>
-    <t>15,07%</t>
-  </si>
-  <si>
-    <t>17,52%</t>
-  </si>
-  <si>
-    <t>12,3%</t>
-  </si>
-  <si>
-    <t>13,87%</t>
-  </si>
-  <si>
-    <t>4,87%</t>
-  </si>
-  <si>
-    <t>4,12%</t>
-  </si>
-  <si>
-    <t>9,03%</t>
-  </si>
-  <si>
-    <t>8,05%</t>
-  </si>
-  <si>
-    <t>10,09%</t>
-  </si>
-  <si>
-    <t>6,99%</t>
-  </si>
-  <si>
-    <t>6,34%</t>
-  </si>
-  <si>
-    <t>7,71%</t>
-  </si>
-  <si>
-    <t>Población según limitación a hacer esfuerzos moderados en 2016 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>81,24%</t>
-  </si>
-  <si>
-    <t>76,13%</t>
-  </si>
-  <si>
-    <t>85,67%</t>
-  </si>
-  <si>
-    <t>65,61%</t>
-  </si>
-  <si>
-    <t>77,19%</t>
-  </si>
-  <si>
-    <t>72,55%</t>
-  </si>
-  <si>
-    <t>80,25%</t>
-  </si>
-  <si>
-    <t>12,55%</t>
-  </si>
-  <si>
-    <t>16,94%</t>
-  </si>
-  <si>
-    <t>14,04%</t>
-  </si>
-  <si>
-    <t>10,54%</t>
-  </si>
-  <si>
-    <t>18,96%</t>
-  </si>
-  <si>
-    <t>13,28%</t>
-  </si>
-  <si>
-    <t>10,62%</t>
-  </si>
-  <si>
-    <t>16,68%</t>
-  </si>
-  <si>
-    <t>3,8%</t>
-  </si>
-  <si>
-    <t>9,62%</t>
-  </si>
-  <si>
-    <t>10,3%</t>
-  </si>
-  <si>
-    <t>19,02%</t>
-  </si>
-  <si>
-    <t>7,51%</t>
-  </si>
-  <si>
-    <t>12,95%</t>
-  </si>
-  <si>
-    <t>87,95%</t>
-  </si>
-  <si>
-    <t>85,01%</t>
-  </si>
-  <si>
-    <t>90,46%</t>
-  </si>
-  <si>
-    <t>78,96%</t>
-  </si>
-  <si>
-    <t>75,22%</t>
-  </si>
-  <si>
-    <t>82,72%</t>
-  </si>
-  <si>
-    <t>83,37%</t>
-  </si>
-  <si>
-    <t>80,88%</t>
-  </si>
-  <si>
-    <t>85,77%</t>
-  </si>
-  <si>
-    <t>8,36%</t>
-  </si>
-  <si>
-    <t>11,09%</t>
-  </si>
-  <si>
-    <t>13,29%</t>
-  </si>
-  <si>
-    <t>10,12%</t>
-  </si>
-  <si>
-    <t>16,49%</t>
-  </si>
-  <si>
-    <t>10,87%</t>
-  </si>
-  <si>
-    <t>8,84%</t>
-  </si>
-  <si>
-    <t>3,69%</t>
-  </si>
-  <si>
-    <t>2,24%</t>
-  </si>
-  <si>
-    <t>5,37%</t>
-  </si>
-  <si>
-    <t>7,75%</t>
-  </si>
-  <si>
-    <t>5,49%</t>
-  </si>
-  <si>
-    <t>5,76%</t>
-  </si>
-  <si>
-    <t>4,44%</t>
-  </si>
-  <si>
-    <t>86,54%</t>
-  </si>
-  <si>
-    <t>82,42%</t>
-  </si>
-  <si>
-    <t>89,78%</t>
-  </si>
-  <si>
-    <t>80,21%</t>
-  </si>
-  <si>
-    <t>75,07%</t>
-  </si>
-  <si>
-    <t>84,33%</t>
-  </si>
-  <si>
-    <t>83,29%</t>
-  </si>
-  <si>
-    <t>80,03%</t>
-  </si>
-  <si>
-    <t>86,05%</t>
-  </si>
-  <si>
-    <t>11,76%</t>
-  </si>
-  <si>
-    <t>8,71%</t>
-  </si>
-  <si>
-    <t>15,58%</t>
-  </si>
-  <si>
-    <t>15,0%</t>
-  </si>
-  <si>
-    <t>11,35%</t>
-  </si>
-  <si>
-    <t>19,62%</t>
-  </si>
-  <si>
-    <t>13,43%</t>
-  </si>
-  <si>
-    <t>10,96%</t>
-  </si>
-  <si>
-    <t>16,2%</t>
-  </si>
-  <si>
-    <t>1,7%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>3,58%</t>
-  </si>
-  <si>
-    <t>4,78%</t>
-  </si>
-  <si>
-    <t>2,83%</t>
-  </si>
-  <si>
-    <t>7,91%</t>
-  </si>
-  <si>
-    <t>3,28%</t>
-  </si>
-  <si>
-    <t>1,96%</t>
-  </si>
-  <si>
-    <t>5,01%</t>
-  </si>
-  <si>
-    <t>81,54%</t>
-  </si>
-  <si>
-    <t>88,7%</t>
-  </si>
-  <si>
-    <t>73,83%</t>
-  </si>
-  <si>
-    <t>69,09%</t>
-  </si>
-  <si>
-    <t>78,43%</t>
-  </si>
-  <si>
-    <t>79,66%</t>
-  </si>
-  <si>
-    <t>76,5%</t>
-  </si>
-  <si>
-    <t>82,63%</t>
-  </si>
-  <si>
-    <t>8,74%</t>
-  </si>
-  <si>
-    <t>13,33%</t>
-  </si>
-  <si>
-    <t>10,01%</t>
-  </si>
-  <si>
-    <t>17,17%</t>
-  </si>
-  <si>
-    <t>7,66%</t>
-  </si>
-  <si>
-    <t>11,99%</t>
-  </si>
-  <si>
-    <t>8,5%</t>
-  </si>
-  <si>
-    <t>6,01%</t>
-  </si>
-  <si>
-    <t>11,83%</t>
-  </si>
-  <si>
-    <t>16,67%</t>
-  </si>
-  <si>
-    <t>10,72%</t>
-  </si>
-  <si>
-    <t>8,44%</t>
-  </si>
-  <si>
-    <t>87,34%</t>
-  </si>
-  <si>
-    <t>82,53%</t>
-  </si>
-  <si>
-    <t>91,12%</t>
-  </si>
-  <si>
-    <t>77,73%</t>
-  </si>
-  <si>
-    <t>71,79%</t>
-  </si>
-  <si>
-    <t>82,45%</t>
-  </si>
-  <si>
-    <t>78,68%</t>
-  </si>
-  <si>
-    <t>86,1%</t>
-  </si>
-  <si>
-    <t>10,04%</t>
-  </si>
-  <si>
-    <t>6,92%</t>
-  </si>
-  <si>
-    <t>14,54%</t>
-  </si>
-  <si>
-    <t>17,83%</t>
-  </si>
-  <si>
-    <t>24,06%</t>
-  </si>
-  <si>
-    <t>14,0%</t>
-  </si>
-  <si>
-    <t>17,64%</t>
-  </si>
-  <si>
-    <t>2,62%</t>
-  </si>
-  <si>
-    <t>6,05%</t>
-  </si>
-  <si>
-    <t>8,22%</t>
-  </si>
-  <si>
-    <t>1,97%</t>
-  </si>
-  <si>
-    <t>5,68%</t>
-  </si>
-  <si>
-    <t>74,11%</t>
-  </si>
-  <si>
-    <t>84,04%</t>
-  </si>
-  <si>
-    <t>68,93%</t>
-  </si>
-  <si>
-    <t>62,85%</t>
-  </si>
-  <si>
-    <t>74,35%</t>
-  </si>
-  <si>
-    <t>74,15%</t>
-  </si>
-  <si>
-    <t>70,39%</t>
-  </si>
-  <si>
-    <t>77,86%</t>
-  </si>
-  <si>
-    <t>9,54%</t>
-  </si>
-  <si>
-    <t>6,24%</t>
-  </si>
-  <si>
-    <t>13,77%</t>
-  </si>
-  <si>
-    <t>17,49%</t>
-  </si>
-  <si>
-    <t>13,25%</t>
-  </si>
-  <si>
-    <t>22,49%</t>
-  </si>
-  <si>
-    <t>13,59%</t>
-  </si>
-  <si>
-    <t>10,51%</t>
-  </si>
-  <si>
-    <t>16,76%</t>
-  </si>
-  <si>
-    <t>10,89%</t>
-  </si>
-  <si>
-    <t>7,96%</t>
-  </si>
-  <si>
-    <t>13,57%</t>
-  </si>
-  <si>
-    <t>9,74%</t>
-  </si>
-  <si>
-    <t>18,48%</t>
-  </si>
-  <si>
-    <t>12,26%</t>
-  </si>
-  <si>
-    <t>9,67%</t>
-  </si>
-  <si>
-    <t>15,64%</t>
-  </si>
-  <si>
-    <t>86,55%</t>
-  </si>
-  <si>
-    <t>83,69%</t>
-  </si>
-  <si>
-    <t>89,24%</t>
-  </si>
-  <si>
-    <t>75,39%</t>
-  </si>
-  <si>
-    <t>82,52%</t>
-  </si>
-  <si>
-    <t>80,23%</t>
-  </si>
-  <si>
-    <t>84,65%</t>
-  </si>
-  <si>
-    <t>10,43%</t>
-  </si>
-  <si>
-    <t>13,22%</t>
-  </si>
-  <si>
-    <t>11,51%</t>
-  </si>
-  <si>
-    <t>9,25%</t>
-  </si>
-  <si>
-    <t>14,37%</t>
-  </si>
-  <si>
-    <t>10,98%</t>
-  </si>
-  <si>
-    <t>3,02%</t>
-  </si>
-  <si>
-    <t>1,77%</t>
-  </si>
-  <si>
-    <t>4,54%</t>
-  </si>
-  <si>
-    <t>9,81%</t>
-  </si>
-  <si>
-    <t>7,65%</t>
-  </si>
-  <si>
-    <t>12,38%</t>
-  </si>
-  <si>
-    <t>6,5%</t>
-  </si>
-  <si>
-    <t>5,09%</t>
-  </si>
-  <si>
-    <t>88,38%</t>
-  </si>
-  <si>
-    <t>80,38%</t>
-  </si>
-  <si>
-    <t>77,38%</t>
-  </si>
-  <si>
-    <t>83,22%</t>
-  </si>
-  <si>
-    <t>84,26%</t>
-  </si>
-  <si>
-    <t>82,34%</t>
-  </si>
-  <si>
-    <t>86,18%</t>
-  </si>
-  <si>
-    <t>9,23%</t>
-  </si>
-  <si>
-    <t>7,28%</t>
-  </si>
-  <si>
-    <t>11,36%</t>
-  </si>
-  <si>
-    <t>15,04%</t>
-  </si>
-  <si>
-    <t>12,62%</t>
-  </si>
-  <si>
-    <t>18,03%</t>
-  </si>
-  <si>
-    <t>12,22%</t>
-  </si>
-  <si>
-    <t>13,9%</t>
-  </si>
-  <si>
-    <t>2,39%</t>
-  </si>
-  <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>3,74%</t>
-  </si>
-  <si>
-    <t>4,59%</t>
-  </si>
-  <si>
-    <t>6,4%</t>
-  </si>
-  <si>
-    <t>3,52%</t>
-  </si>
-  <si>
-    <t>2,6%</t>
-  </si>
-  <si>
-    <t>4,63%</t>
-  </si>
-  <si>
-    <t>86,14%</t>
-  </si>
-  <si>
-    <t>87,23%</t>
-  </si>
-  <si>
-    <t>77,37%</t>
-  </si>
-  <si>
-    <t>75,78%</t>
-  </si>
-  <si>
-    <t>78,85%</t>
-  </si>
-  <si>
-    <t>80,65%</t>
-  </si>
-  <si>
-    <t>82,69%</t>
-  </si>
-  <si>
-    <t>9,55%</t>
-  </si>
-  <si>
-    <t>8,58%</t>
-  </si>
-  <si>
-    <t>14,18%</t>
-  </si>
-  <si>
-    <t>13,02%</t>
-  </si>
-  <si>
-    <t>15,43%</t>
-  </si>
-  <si>
-    <t>11,92%</t>
-  </si>
-  <si>
-    <t>11,08%</t>
-  </si>
-  <si>
-    <t>12,68%</t>
-  </si>
-  <si>
-    <t>3,67%</t>
-  </si>
-  <si>
-    <t>8,45%</t>
-  </si>
-  <si>
-    <t>7,42%</t>
-  </si>
-  <si>
-    <t>9,53%</t>
-  </si>
-  <si>
-    <t>6,42%</t>
-  </si>
-  <si>
-    <t>5,79%</t>
-  </si>
-  <si>
-    <t>Población según limitación a hacer esfuerzos moderados en 2023 (Tasa respuesta: 99,99%)</t>
-  </si>
-  <si>
-    <t>83,73%</t>
-  </si>
-  <si>
-    <t>79,97%</t>
-  </si>
-  <si>
-    <t>76,42%</t>
-  </si>
-  <si>
-    <t>83,14%</t>
-  </si>
-  <si>
-    <t>84,56%</t>
-  </si>
-  <si>
-    <t>14,28%</t>
-  </si>
-  <si>
-    <t>10,68%</t>
-  </si>
-  <si>
-    <t>18,68%</t>
-  </si>
-  <si>
-    <t>16,11%</t>
-  </si>
-  <si>
-    <t>13,14%</t>
-  </si>
-  <si>
-    <t>15,21%</t>
-  </si>
-  <si>
-    <t>17,92%</t>
-  </si>
-  <si>
-    <t>2,0%</t>
-  </si>
-  <si>
-    <t>3,92%</t>
-  </si>
-  <si>
-    <t>2,52%</t>
-  </si>
-  <si>
-    <t>5,86%</t>
-  </si>
-  <si>
-    <t>2,98%</t>
-  </si>
-  <si>
-    <t>1,94%</t>
-  </si>
-  <si>
-    <t>4,27%</t>
-  </si>
-  <si>
-    <t>82,88%</t>
-  </si>
-  <si>
-    <t>79,24%</t>
-  </si>
-  <si>
-    <t>86,11%</t>
-  </si>
-  <si>
-    <t>75,92%</t>
-  </si>
-  <si>
-    <t>72,69%</t>
-  </si>
-  <si>
-    <t>78,8%</t>
-  </si>
-  <si>
-    <t>79,29%</t>
-  </si>
-  <si>
-    <t>76,52%</t>
-  </si>
-  <si>
-    <t>81,6%</t>
-  </si>
-  <si>
-    <t>13,66%</t>
-  </si>
-  <si>
-    <t>10,58%</t>
-  </si>
-  <si>
-    <t>16,87%</t>
-  </si>
-  <si>
-    <t>16,08%</t>
-  </si>
-  <si>
-    <t>18,78%</t>
-  </si>
-  <si>
-    <t>14,91%</t>
-  </si>
-  <si>
-    <t>12,99%</t>
-  </si>
-  <si>
-    <t>17,11%</t>
-  </si>
-  <si>
-    <t>3,46%</t>
-  </si>
-  <si>
-    <t>5,28%</t>
-  </si>
-  <si>
-    <t>8,0%</t>
-  </si>
-  <si>
-    <t>6,08%</t>
-  </si>
-  <si>
-    <t>5,8%</t>
-  </si>
-  <si>
-    <t>7,27%</t>
-  </si>
-  <si>
-    <t>86,53%</t>
-  </si>
-  <si>
-    <t>89,49%</t>
-  </si>
-  <si>
-    <t>80,27%</t>
-  </si>
-  <si>
-    <t>76,69%</t>
-  </si>
-  <si>
-    <t>83,17%</t>
-  </si>
-  <si>
-    <t>80,79%</t>
-  </si>
-  <si>
-    <t>85,42%</t>
+    <t>82,4%</t>
+  </si>
+  <si>
+    <t>12,89%</t>
+  </si>
+  <si>
+    <t>16,04%</t>
+  </si>
+  <si>
+    <t>15,95%</t>
+  </si>
+  <si>
+    <t>18,65%</t>
+  </si>
+  <si>
+    <t>14,41%</t>
+  </si>
+  <si>
+    <t>16,62%</t>
+  </si>
+  <si>
+    <t>3,29%</t>
+  </si>
+  <si>
+    <t>7,79%</t>
+  </si>
+  <si>
+    <t>5,97%</t>
+  </si>
+  <si>
+    <t>9,84%</t>
+  </si>
+  <si>
+    <t>5,53%</t>
+  </si>
+  <si>
+    <t>6,96%</t>
+  </si>
+  <si>
+    <t>86,97%</t>
+  </si>
+  <si>
+    <t>83,36%</t>
+  </si>
+  <si>
+    <t>89,85%</t>
+  </si>
+  <si>
+    <t>80,55%</t>
+  </si>
+  <si>
+    <t>77,04%</t>
+  </si>
+  <si>
+    <t>83,52%</t>
+  </si>
+  <si>
+    <t>83,6%</t>
+  </si>
+  <si>
+    <t>81,2%</t>
+  </si>
+  <si>
+    <t>85,79%</t>
+  </si>
+  <si>
+    <t>4,96%</t>
+  </si>
+  <si>
+    <t>3,23%</t>
+  </si>
+  <si>
+    <t>7,64%</t>
+  </si>
+  <si>
+    <t>8,28%</t>
+  </si>
+  <si>
+    <t>7,83%</t>
+  </si>
+  <si>
+    <t>6,38%</t>
+  </si>
+  <si>
+    <t>9,6%</t>
+  </si>
+  <si>
+    <t>8,07%</t>
+  </si>
+  <si>
+    <t>6,03%</t>
+  </si>
+  <si>
+    <t>7,04%</t>
+  </si>
+  <si>
+    <t>11,5%</t>
+  </si>
+  <si>
+    <t>8,57%</t>
+  </si>
+  <si>
+    <t>6,89%</t>
+  </si>
+  <si>
+    <t>10,28%</t>
+  </si>
+  <si>
+    <t>81,22%</t>
+  </si>
+  <si>
+    <t>75,38%</t>
+  </si>
+  <si>
+    <t>85,46%</t>
+  </si>
+  <si>
+    <t>81,72%</t>
+  </si>
+  <si>
+    <t>76,97%</t>
+  </si>
+  <si>
+    <t>89,41%</t>
+  </si>
+  <si>
+    <t>81,52%</t>
+  </si>
+  <si>
+    <t>78,21%</t>
+  </si>
+  <si>
+    <t>10,6%</t>
+  </si>
+  <si>
+    <t>7,47%</t>
+  </si>
+  <si>
+    <t>15,11%</t>
+  </si>
+  <si>
+    <t>12,74%</t>
+  </si>
+  <si>
+    <t>7,55%</t>
+  </si>
+  <si>
+    <t>16,41%</t>
+  </si>
+  <si>
+    <t>11,89%</t>
+  </si>
+  <si>
+    <t>8,18%</t>
   </si>
   <si>
     <t>5,07%</t>
   </si>
   <si>
-    <t>3,3%</t>
-  </si>
-  <si>
-    <t>7,8%</t>
-  </si>
-  <si>
-    <t>10,57%</t>
-  </si>
-  <si>
-    <t>13,4%</t>
+    <t>12,59%</t>
+  </si>
+  <si>
+    <t>5,54%</t>
+  </si>
+  <si>
+    <t>6,58%</t>
+  </si>
+  <si>
+    <t>8,47%</t>
+  </si>
+  <si>
+    <t>87,88%</t>
+  </si>
+  <si>
+    <t>84,0%</t>
+  </si>
+  <si>
+    <t>91,28%</t>
+  </si>
+  <si>
+    <t>80,58%</t>
+  </si>
+  <si>
+    <t>74,79%</t>
+  </si>
+  <si>
+    <t>89,54%</t>
+  </si>
+  <si>
+    <t>83,57%</t>
+  </si>
+  <si>
+    <t>89,05%</t>
+  </si>
+  <si>
+    <t>9,68%</t>
+  </si>
+  <si>
+    <t>6,54%</t>
+  </si>
+  <si>
+    <t>13,06%</t>
+  </si>
+  <si>
+    <t>15,27%</t>
+  </si>
+  <si>
+    <t>8,35%</t>
+  </si>
+  <si>
+    <t>20,28%</t>
+  </si>
+  <si>
+    <t>12,98%</t>
+  </si>
+  <si>
+    <t>9,04%</t>
+  </si>
+  <si>
+    <t>15,72%</t>
+  </si>
+  <si>
+    <t>2,44%</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>4,6%</t>
+  </si>
+  <si>
+    <t>4,16%</t>
+  </si>
+  <si>
+    <t>2,16%</t>
+  </si>
+  <si>
+    <t>3,45%</t>
+  </si>
+  <si>
+    <t>2,18%</t>
+  </si>
+  <si>
+    <t>4,84%</t>
+  </si>
+  <si>
+    <t>89,57%</t>
+  </si>
+  <si>
+    <t>92,38%</t>
+  </si>
+  <si>
+    <t>83,09%</t>
+  </si>
+  <si>
+    <t>79,72%</t>
+  </si>
+  <si>
+    <t>86,41%</t>
+  </si>
+  <si>
+    <t>88,46%</t>
+  </si>
+  <si>
+    <t>4,92%</t>
+  </si>
+  <si>
+    <t>2,96%</t>
   </si>
   <si>
     <t>8,02%</t>
   </si>
   <si>
-    <t>9,78%</t>
-  </si>
-  <si>
-    <t>6,25%</t>
-  </si>
-  <si>
-    <t>11,68%</t>
-  </si>
-  <si>
-    <t>9,16%</t>
-  </si>
-  <si>
-    <t>7,17%</t>
-  </si>
-  <si>
-    <t>11,71%</t>
-  </si>
-  <si>
-    <t>8,81%</t>
-  </si>
-  <si>
-    <t>7,1%</t>
-  </si>
-  <si>
-    <t>10,6%</t>
-  </si>
-  <si>
-    <t>80,87%</t>
-  </si>
-  <si>
-    <t>75,34%</t>
-  </si>
-  <si>
-    <t>78,24%</t>
-  </si>
-  <si>
-    <t>74,38%</t>
-  </si>
-  <si>
-    <t>81,57%</t>
-  </si>
-  <si>
-    <t>79,37%</t>
-  </si>
-  <si>
-    <t>76,19%</t>
-  </si>
-  <si>
-    <t>82,07%</t>
-  </si>
-  <si>
-    <t>10,82%</t>
-  </si>
-  <si>
-    <t>7,62%</t>
-  </si>
-  <si>
-    <t>15,14%</t>
-  </si>
-  <si>
-    <t>18,16%</t>
-  </si>
-  <si>
-    <t>11,19%</t>
-  </si>
-  <si>
-    <t>15,8%</t>
-  </si>
-  <si>
-    <t>8,31%</t>
-  </si>
-  <si>
-    <t>5,2%</t>
-  </si>
-  <si>
-    <t>12,69%</t>
-  </si>
-  <si>
-    <t>6,62%</t>
-  </si>
-  <si>
-    <t>8,53%</t>
-  </si>
-  <si>
-    <t>7,34%</t>
-  </si>
-  <si>
-    <t>9,36%</t>
-  </si>
-  <si>
-    <t>83,84%</t>
-  </si>
-  <si>
-    <t>91,22%</t>
-  </si>
-  <si>
-    <t>74,37%</t>
-  </si>
-  <si>
-    <t>85,49%</t>
-  </si>
-  <si>
-    <t>82,56%</t>
-  </si>
-  <si>
-    <t>85,83%</t>
-  </si>
-  <si>
-    <t>9,73%</t>
-  </si>
-  <si>
-    <t>6,58%</t>
-  </si>
-  <si>
-    <t>13,21%</t>
-  </si>
-  <si>
-    <t>16,81%</t>
-  </si>
-  <si>
-    <t>11,44%</t>
-  </si>
-  <si>
-    <t>20,58%</t>
-  </si>
-  <si>
-    <t>13,76%</t>
-  </si>
-  <si>
-    <t>11,06%</t>
-  </si>
-  <si>
-    <t>16,23%</t>
-  </si>
-  <si>
-    <t>2,45%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>4,62%</t>
-  </si>
-  <si>
-    <t>2,9%</t>
-  </si>
-  <si>
-    <t>3,68%</t>
-  </si>
-  <si>
-    <t>2,51%</t>
-  </si>
-  <si>
-    <t>5,15%</t>
-  </si>
-  <si>
-    <t>89,4%</t>
-  </si>
-  <si>
-    <t>92,22%</t>
-  </si>
-  <si>
-    <t>83,09%</t>
-  </si>
-  <si>
-    <t>79,69%</t>
-  </si>
-  <si>
-    <t>86,25%</t>
-  </si>
-  <si>
-    <t>83,99%</t>
-  </si>
-  <si>
-    <t>88,31%</t>
-  </si>
-  <si>
-    <t>4,96%</t>
-  </si>
-  <si>
-    <t>7,98%</t>
-  </si>
-  <si>
     <t>7,6%</t>
   </si>
   <si>
-    <t>5,57%</t>
-  </si>
-  <si>
-    <t>6,28%</t>
-  </si>
-  <si>
-    <t>4,8%</t>
-  </si>
-  <si>
-    <t>5,65%</t>
-  </si>
-  <si>
-    <t>3,94%</t>
-  </si>
-  <si>
-    <t>8,01%</t>
-  </si>
-  <si>
-    <t>9,3%</t>
-  </si>
-  <si>
-    <t>12,03%</t>
-  </si>
-  <si>
-    <t>7,47%</t>
-  </si>
-  <si>
-    <t>83,35%</t>
-  </si>
-  <si>
-    <t>80,06%</t>
-  </si>
-  <si>
-    <t>79,15%</t>
-  </si>
-  <si>
-    <t>74,71%</t>
-  </si>
-  <si>
-    <t>86,96%</t>
-  </si>
-  <si>
-    <t>80,99%</t>
-  </si>
-  <si>
-    <t>78,66%</t>
-  </si>
-  <si>
-    <t>86,03%</t>
-  </si>
-  <si>
-    <t>10,35%</t>
-  </si>
-  <si>
-    <t>16,02%</t>
-  </si>
-  <si>
-    <t>12,78%</t>
+    <t>5,58%</t>
+  </si>
+  <si>
+    <t>6,23%</t>
+  </si>
+  <si>
+    <t>4,76%</t>
   </si>
   <si>
     <t>8,12%</t>
   </si>
   <si>
-    <t>15,82%</t>
-  </si>
-  <si>
-    <t>14,86%</t>
-  </si>
-  <si>
-    <t>3,73%</t>
-  </si>
-  <si>
-    <t>2,4%</t>
-  </si>
-  <si>
-    <t>5,52%</t>
-  </si>
-  <si>
-    <t>8,07%</t>
-  </si>
-  <si>
-    <t>5,0%</t>
-  </si>
-  <si>
-    <t>10,06%</t>
-  </si>
-  <si>
-    <t>4,51%</t>
-  </si>
-  <si>
-    <t>7,48%</t>
-  </si>
-  <si>
-    <t>81,7%</t>
-  </si>
-  <si>
-    <t>65,12%</t>
-  </si>
-  <si>
-    <t>87,83%</t>
-  </si>
-  <si>
-    <t>75,62%</t>
-  </si>
-  <si>
-    <t>72,56%</t>
-  </si>
-  <si>
-    <t>78,28%</t>
-  </si>
-  <si>
-    <t>78,64%</t>
-  </si>
-  <si>
-    <t>69,95%</t>
-  </si>
-  <si>
-    <t>14,74%</t>
-  </si>
-  <si>
-    <t>31,75%</t>
-  </si>
-  <si>
-    <t>15,49%</t>
-  </si>
-  <si>
-    <t>13,26%</t>
-  </si>
-  <si>
-    <t>18,5%</t>
-  </si>
-  <si>
-    <t>15,12%</t>
-  </si>
-  <si>
-    <t>24,59%</t>
-  </si>
-  <si>
-    <t>3,56%</t>
-  </si>
-  <si>
-    <t>8,88%</t>
-  </si>
-  <si>
-    <t>7,33%</t>
-  </si>
-  <si>
-    <t>5,11%</t>
-  </si>
-  <si>
-    <t>7,29%</t>
-  </si>
-  <si>
-    <t>83,71%</t>
-  </si>
-  <si>
-    <t>79,26%</t>
-  </si>
-  <si>
-    <t>85,57%</t>
+    <t>3,85%</t>
+  </si>
+  <si>
+    <t>7,82%</t>
+  </si>
+  <si>
+    <t>7,12%</t>
+  </si>
+  <si>
+    <t>12,04%</t>
+  </si>
+  <si>
+    <t>7,36%</t>
+  </si>
+  <si>
+    <t>5,9%</t>
+  </si>
+  <si>
+    <t>9,17%</t>
+  </si>
+  <si>
+    <t>83,79%</t>
+  </si>
+  <si>
+    <t>80,46%</t>
+  </si>
+  <si>
+    <t>86,57%</t>
+  </si>
+  <si>
+    <t>81,86%</t>
+  </si>
+  <si>
+    <t>75,1%</t>
+  </si>
+  <si>
+    <t>90,9%</t>
+  </si>
+  <si>
+    <t>79,31%</t>
+  </si>
+  <si>
+    <t>89,51%</t>
+  </si>
+  <si>
+    <t>10,05%</t>
+  </si>
+  <si>
+    <t>15,87%</t>
+  </si>
+  <si>
+    <t>11,14%</t>
+  </si>
+  <si>
+    <t>5,48%</t>
+  </si>
+  <si>
+    <t>15,53%</t>
+  </si>
+  <si>
+    <t>11,78%</t>
+  </si>
+  <si>
+    <t>14,24%</t>
+  </si>
+  <si>
+    <t>3,57%</t>
+  </si>
+  <si>
+    <t>2,3%</t>
+  </si>
+  <si>
+    <t>5,31%</t>
+  </si>
+  <si>
+    <t>3,14%</t>
+  </si>
+  <si>
+    <t>6,94%</t>
+  </si>
+  <si>
+    <t>63,92%</t>
+  </si>
+  <si>
+    <t>30,69%</t>
+  </si>
+  <si>
+    <t>87,68%</t>
+  </si>
+  <si>
+    <t>75,55%</t>
+  </si>
+  <si>
+    <t>72,64%</t>
   </si>
   <si>
     <t>78,19%</t>
   </si>
   <si>
-    <t>76,88%</t>
-  </si>
-  <si>
-    <t>80,41%</t>
-  </si>
-  <si>
-    <t>80,78%</t>
-  </si>
-  <si>
-    <t>81,93%</t>
-  </si>
-  <si>
-    <t>11,81%</t>
-  </si>
-  <si>
-    <t>10,07%</t>
-  </si>
-  <si>
-    <t>16,7%</t>
-  </si>
-  <si>
-    <t>14,06%</t>
-  </si>
-  <si>
-    <t>12,6%</t>
-  </si>
-  <si>
-    <t>15,22%</t>
-  </si>
-  <si>
-    <t>4,48%</t>
-  </si>
-  <si>
-    <t>3,83%</t>
-  </si>
-  <si>
-    <t>6,88%</t>
-  </si>
-  <si>
-    <t>8,49%</t>
-  </si>
-  <si>
-    <t>6,75%</t>
+    <t>68,99%</t>
+  </si>
+  <si>
+    <t>43,12%</t>
+  </si>
+  <si>
+    <t>33,27%</t>
+  </si>
+  <si>
+    <t>8,78%</t>
+  </si>
+  <si>
+    <t>67,93%</t>
+  </si>
+  <si>
+    <t>15,52%</t>
+  </si>
+  <si>
+    <t>18,41%</t>
+  </si>
+  <si>
+    <t>25,53%</t>
+  </si>
+  <si>
+    <t>53,77%</t>
+  </si>
+  <si>
+    <t>2,8%</t>
+  </si>
+  <si>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>8,93%</t>
+  </si>
+  <si>
+    <t>7,37%</t>
+  </si>
+  <si>
+    <t>10,61%</t>
+  </si>
+  <si>
+    <t>3,15%</t>
+  </si>
+  <si>
+    <t>6,83%</t>
+  </si>
+  <si>
+    <t>79,28%</t>
+  </si>
+  <si>
+    <t>61,69%</t>
+  </si>
+  <si>
+    <t>79,64%</t>
+  </si>
+  <si>
+    <t>77,81%</t>
+  </si>
+  <si>
+    <t>83,67%</t>
+  </si>
+  <si>
+    <t>79,47%</t>
+  </si>
+  <si>
+    <t>68,33%</t>
+  </si>
+  <si>
+    <t>82,77%</t>
+  </si>
+  <si>
+    <t>16,63%</t>
+  </si>
+  <si>
+    <t>9,93%</t>
+  </si>
+  <si>
+    <t>35,19%</t>
+  </si>
+  <si>
+    <t>13,17%</t>
+  </si>
+  <si>
+    <t>10,42%</t>
+  </si>
+  <si>
+    <t>14,84%</t>
+  </si>
+  <si>
+    <t>26,86%</t>
+  </si>
+  <si>
+    <t>4,08%</t>
+  </si>
+  <si>
+    <t>3,18%</t>
+  </si>
+  <si>
+    <t>7,19%</t>
+  </si>
+  <si>
+    <t>8,03%</t>
+  </si>
+  <si>
+    <t>5,69%</t>
   </si>
 </sst>
 </file>
@@ -2988,7 +3081,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B161958-C8F4-469F-99A5-DEAA6A7E760D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA5874D0-D5E8-4D39-AC05-2AE347CC0C05}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -4757,7 +4850,7 @@
         <v>2838</v>
       </c>
       <c r="D36" s="7">
-        <v>2910780</v>
+        <v>2910779</v>
       </c>
       <c r="E36" s="7" t="s">
         <v>232</v>
@@ -4772,7 +4865,7 @@
         <v>2599</v>
       </c>
       <c r="I36" s="7">
-        <v>2655183</v>
+        <v>2655182</v>
       </c>
       <c r="J36" s="7" t="s">
         <v>73</v>
@@ -4787,7 +4880,7 @@
         <v>5437</v>
       </c>
       <c r="N36" s="7">
-        <v>5565961</v>
+        <v>5565962</v>
       </c>
       <c r="O36" s="7" t="s">
         <v>237</v>
@@ -4874,7 +4967,7 @@
         <v>174</v>
       </c>
       <c r="I38" s="7">
-        <v>183044</v>
+        <v>183043</v>
       </c>
       <c r="J38" s="7" t="s">
         <v>252</v>
@@ -4910,7 +5003,7 @@
         <v>3214</v>
       </c>
       <c r="D39" s="7">
-        <v>3276544</v>
+        <v>3276543</v>
       </c>
       <c r="E39" s="7" t="s">
         <v>40</v>
@@ -4925,7 +5018,7 @@
         <v>3297</v>
       </c>
       <c r="I39" s="7">
-        <v>3379198</v>
+        <v>3379197</v>
       </c>
       <c r="J39" s="7" t="s">
         <v>40</v>
@@ -4940,7 +5033,7 @@
         <v>6511</v>
       </c>
       <c r="N39" s="7">
-        <v>6655740</v>
+        <v>6655741</v>
       </c>
       <c r="O39" s="7" t="s">
         <v>40</v>
@@ -4978,7 +5071,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8577FE04-E8C7-4802-8BFC-300A21EF429C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17AB02D1-1F2B-41C0-8A8A-4A9E71B2FE42}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5096,43 +5189,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>0</v>
-      </c>
-      <c r="D4" s="7"/>
+        <v>234</v>
+      </c>
+      <c r="D4" s="7">
+        <v>245625</v>
+      </c>
       <c r="E4" s="7" t="s">
         <v>258</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>258</v>
+        <v>42</v>
       </c>
       <c r="H4" s="7">
-        <v>0</v>
-      </c>
-      <c r="I4" s="7"/>
+        <v>180</v>
+      </c>
+      <c r="I4" s="7">
+        <v>205152</v>
+      </c>
       <c r="J4" s="7" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="M4" s="7">
-        <v>0</v>
-      </c>
-      <c r="N4" s="7"/>
+        <v>414</v>
+      </c>
+      <c r="N4" s="7">
+        <v>450777</v>
+      </c>
       <c r="O4" s="7" t="s">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>258</v>
+        <v>264</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>258</v>
+        <v>265</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5141,43 +5240,49 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>0</v>
-      </c>
-      <c r="D5" s="7"/>
+        <v>31</v>
+      </c>
+      <c r="D5" s="7">
+        <v>32045</v>
+      </c>
       <c r="E5" s="7" t="s">
-        <v>258</v>
+        <v>266</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>258</v>
+        <v>267</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>258</v>
+        <v>268</v>
       </c>
       <c r="H5" s="7">
-        <v>0</v>
-      </c>
-      <c r="I5" s="7"/>
+        <v>44</v>
+      </c>
+      <c r="I5" s="7">
+        <v>47571</v>
+      </c>
       <c r="J5" s="7" t="s">
-        <v>258</v>
+        <v>269</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>258</v>
+        <v>270</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>258</v>
+        <v>271</v>
       </c>
       <c r="M5" s="7">
-        <v>0</v>
-      </c>
-      <c r="N5" s="7"/>
+        <v>75</v>
+      </c>
+      <c r="N5" s="7">
+        <v>79616</v>
+      </c>
       <c r="O5" s="7" t="s">
-        <v>258</v>
+        <v>272</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>258</v>
+        <v>273</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>258</v>
+        <v>274</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5186,43 +5291,49 @@
         <v>30</v>
       </c>
       <c r="C6" s="7">
-        <v>0</v>
-      </c>
-      <c r="D6" s="7"/>
+        <v>17</v>
+      </c>
+      <c r="D6" s="7">
+        <v>17068</v>
+      </c>
       <c r="E6" s="7" t="s">
-        <v>258</v>
+        <v>275</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>258</v>
+        <v>276</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>258</v>
+        <v>277</v>
       </c>
       <c r="H6" s="7">
-        <v>0</v>
-      </c>
-      <c r="I6" s="7"/>
+        <v>32</v>
+      </c>
+      <c r="I6" s="7">
+        <v>34522</v>
+      </c>
       <c r="J6" s="7" t="s">
-        <v>258</v>
+        <v>278</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>258</v>
+        <v>279</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>258</v>
+        <v>280</v>
       </c>
       <c r="M6" s="7">
-        <v>0</v>
-      </c>
-      <c r="N6" s="7"/>
+        <v>49</v>
+      </c>
+      <c r="N6" s="7">
+        <v>51590</v>
+      </c>
       <c r="O6" s="7" t="s">
-        <v>258</v>
+        <v>281</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>258</v>
+        <v>282</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>258</v>
+        <v>283</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -5231,43 +5342,49 @@
         <v>3</v>
       </c>
       <c r="C7" s="7">
-        <v>0</v>
-      </c>
-      <c r="D7" s="7"/>
+        <v>282</v>
+      </c>
+      <c r="D7" s="7">
+        <v>294738</v>
+      </c>
       <c r="E7" s="7" t="s">
-        <v>258</v>
+        <v>40</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>258</v>
+        <v>40</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>258</v>
+        <v>40</v>
       </c>
       <c r="H7" s="7">
-        <v>0</v>
-      </c>
-      <c r="I7" s="7"/>
+        <v>256</v>
+      </c>
+      <c r="I7" s="7">
+        <v>287245</v>
+      </c>
       <c r="J7" s="7" t="s">
-        <v>258</v>
+        <v>40</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>258</v>
+        <v>40</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>258</v>
+        <v>40</v>
       </c>
       <c r="M7" s="7">
-        <v>0</v>
-      </c>
-      <c r="N7" s="7"/>
+        <v>538</v>
+      </c>
+      <c r="N7" s="7">
+        <v>581983</v>
+      </c>
       <c r="O7" s="7" t="s">
-        <v>258</v>
+        <v>40</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>258</v>
+        <v>40</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>258</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5284,13 +5401,13 @@
         <v>430657</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>259</v>
+        <v>284</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>260</v>
+        <v>285</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>261</v>
+        <v>286</v>
       </c>
       <c r="H8" s="7">
         <v>349</v>
@@ -5299,13 +5416,13 @@
         <v>380489</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>262</v>
+        <v>287</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>263</v>
+        <v>288</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>264</v>
+        <v>289</v>
       </c>
       <c r="M8" s="7">
         <v>758</v>
@@ -5314,13 +5431,13 @@
         <v>811146</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>265</v>
+        <v>290</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>266</v>
+        <v>291</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>267</v>
+        <v>292</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5335,13 +5452,13 @@
         <v>38917</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>268</v>
+        <v>293</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>269</v>
+        <v>294</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>270</v>
+        <v>295</v>
       </c>
       <c r="H9" s="7">
         <v>78</v>
@@ -5350,13 +5467,13 @@
         <v>84604</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>271</v>
+        <v>296</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>272</v>
+        <v>297</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>273</v>
+        <v>298</v>
       </c>
       <c r="M9" s="7">
         <v>112</v>
@@ -5365,13 +5482,13 @@
         <v>123521</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>274</v>
+        <v>299</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>275</v>
+        <v>300</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>276</v>
+        <v>301</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -5386,13 +5503,13 @@
         <v>35954</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>277</v>
+        <v>302</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>278</v>
+        <v>303</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>279</v>
+        <v>304</v>
       </c>
       <c r="H10" s="7">
         <v>53</v>
@@ -5401,13 +5518,13 @@
         <v>58671</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>280</v>
+        <v>305</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>281</v>
+        <v>306</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>282</v>
+        <v>307</v>
       </c>
       <c r="M10" s="7">
         <v>82</v>
@@ -5416,13 +5533,13 @@
         <v>94625</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>283</v>
+        <v>308</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>284</v>
+        <v>309</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>285</v>
+        <v>310</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5490,13 +5607,13 @@
         <v>277112</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>286</v>
+        <v>311</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>287</v>
+        <v>312</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>288</v>
+        <v>313</v>
       </c>
       <c r="H12" s="7">
         <v>245</v>
@@ -5505,13 +5622,13 @@
         <v>261340</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>289</v>
+        <v>314</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>290</v>
+        <v>315</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>291</v>
+        <v>316</v>
       </c>
       <c r="M12" s="7">
         <v>521</v>
@@ -5520,13 +5637,13 @@
         <v>538452</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>292</v>
+        <v>317</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>293</v>
+        <v>318</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>294</v>
+        <v>319</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -5541,10 +5658,10 @@
         <v>28396</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>295</v>
+        <v>320</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>296</v>
+        <v>321</v>
       </c>
       <c r="G13" s="7" t="s">
         <v>83</v>
@@ -5556,13 +5673,13 @@
         <v>55700</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>297</v>
+        <v>322</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>298</v>
+        <v>323</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>299</v>
+        <v>324</v>
       </c>
       <c r="M13" s="7">
         <v>75</v>
@@ -5571,13 +5688,13 @@
         <v>84096</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>300</v>
+        <v>325</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>301</v>
+        <v>326</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>302</v>
+        <v>327</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5592,13 +5709,13 @@
         <v>18538</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>303</v>
+        <v>328</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>304</v>
+        <v>329</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>305</v>
+        <v>330</v>
       </c>
       <c r="H14" s="7">
         <v>23</v>
@@ -5610,7 +5727,7 @@
         <v>107</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>306</v>
+        <v>331</v>
       </c>
       <c r="L14" s="7" t="s">
         <v>109</v>
@@ -5622,13 +5739,13 @@
         <v>42518</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>307</v>
+        <v>332</v>
       </c>
       <c r="P14" s="7" t="s">
         <v>202</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>308</v>
+        <v>333</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5690,49 +5807,49 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>529</v>
+        <v>295</v>
       </c>
       <c r="D16" s="7">
-        <v>564774</v>
+        <v>319149</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>309</v>
+        <v>334</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>310</v>
+        <v>335</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>311</v>
+        <v>336</v>
       </c>
       <c r="H16" s="7">
-        <v>437</v>
+        <v>257</v>
       </c>
       <c r="I16" s="7">
-        <v>475225</v>
+        <v>270073</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>312</v>
+        <v>337</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>313</v>
+        <v>338</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>314</v>
+        <v>339</v>
       </c>
       <c r="M16" s="7">
-        <v>966</v>
+        <v>552</v>
       </c>
       <c r="N16" s="7">
-        <v>1040000</v>
+        <v>589223</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>315</v>
+        <v>340</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>316</v>
+        <v>341</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>101</v>
+        <v>342</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5741,49 +5858,49 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>60</v>
+        <v>29</v>
       </c>
       <c r="D17" s="7">
-        <v>64148</v>
+        <v>32102</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>317</v>
+        <v>343</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>318</v>
+        <v>344</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>319</v>
+        <v>345</v>
       </c>
       <c r="H17" s="7">
-        <v>103</v>
+        <v>59</v>
       </c>
       <c r="I17" s="7">
-        <v>108675</v>
+        <v>61105</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>320</v>
+        <v>346</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>321</v>
+        <v>347</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>322</v>
+        <v>348</v>
       </c>
       <c r="M17" s="7">
-        <v>163</v>
+        <v>88</v>
       </c>
       <c r="N17" s="7">
-        <v>172823</v>
+        <v>93207</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>323</v>
+        <v>349</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>324</v>
+        <v>350</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>325</v>
+        <v>351</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5792,49 +5909,49 @@
         <v>30</v>
       </c>
       <c r="C18" s="7">
-        <v>37</v>
+        <v>20</v>
       </c>
       <c r="D18" s="7">
-        <v>39798</v>
+        <v>22730</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>326</v>
+        <v>352</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>327</v>
+        <v>116</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>328</v>
+        <v>353</v>
       </c>
       <c r="H18" s="7">
-        <v>87</v>
+        <v>55</v>
       </c>
       <c r="I18" s="7">
-        <v>92295</v>
+        <v>57773</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>329</v>
+        <v>354</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>330</v>
+        <v>283</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>331</v>
+        <v>355</v>
       </c>
       <c r="M18" s="7">
-        <v>124</v>
+        <v>75</v>
       </c>
       <c r="N18" s="7">
-        <v>132093</v>
+        <v>80503</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>332</v>
+        <v>356</v>
       </c>
       <c r="P18" s="7" t="s">
         <v>333</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>53</v>
+        <v>357</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5843,10 +5960,10 @@
         <v>3</v>
       </c>
       <c r="C19" s="7">
-        <v>626</v>
+        <v>344</v>
       </c>
       <c r="D19" s="7">
-        <v>668720</v>
+        <v>373982</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>40</v>
@@ -5858,10 +5975,10 @@
         <v>40</v>
       </c>
       <c r="H19" s="7">
-        <v>627</v>
+        <v>371</v>
       </c>
       <c r="I19" s="7">
-        <v>676196</v>
+        <v>388951</v>
       </c>
       <c r="J19" s="7" t="s">
         <v>40</v>
@@ -5873,10 +5990,10 @@
         <v>40</v>
       </c>
       <c r="M19" s="7">
-        <v>1253</v>
+        <v>715</v>
       </c>
       <c r="N19" s="7">
-        <v>1344916</v>
+        <v>762933</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>40</v>
@@ -5902,13 +6019,13 @@
         <v>177765</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>334</v>
+        <v>358</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>335</v>
+        <v>359</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>336</v>
+        <v>360</v>
       </c>
       <c r="H20" s="7">
         <v>152</v>
@@ -5917,13 +6034,13 @@
         <v>156958</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>337</v>
+        <v>361</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>338</v>
+        <v>362</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>339</v>
+        <v>363</v>
       </c>
       <c r="M20" s="7">
         <v>317</v>
@@ -5932,13 +6049,13 @@
         <v>334723</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>340</v>
+        <v>364</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>341</v>
+        <v>365</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>342</v>
+        <v>366</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5953,13 +6070,13 @@
         <v>27299</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>343</v>
+        <v>367</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>344</v>
+        <v>368</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>345</v>
+        <v>369</v>
       </c>
       <c r="H21" s="7">
         <v>40</v>
@@ -5968,10 +6085,10 @@
         <v>42065</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>322</v>
+        <v>370</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>346</v>
+        <v>371</v>
       </c>
       <c r="L21" s="7" t="s">
         <v>164</v>
@@ -5983,13 +6100,13 @@
         <v>69364</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>347</v>
+        <v>372</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>348</v>
+        <v>373</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>349</v>
+        <v>374</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -6004,13 +6121,13 @@
         <v>7554</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>350</v>
+        <v>375</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>351</v>
+        <v>376</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>352</v>
+        <v>377</v>
       </c>
       <c r="H22" s="7">
         <v>20</v>
@@ -6019,13 +6136,13 @@
         <v>20568</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>353</v>
+        <v>378</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>354</v>
+        <v>379</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>355</v>
+        <v>380</v>
       </c>
       <c r="M22" s="7">
         <v>27</v>
@@ -6037,10 +6154,10 @@
         <v>225</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>356</v>
+        <v>381</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>357</v>
+        <v>382</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6108,13 +6225,13 @@
         <v>224147</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>358</v>
+        <v>383</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>359</v>
+        <v>384</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>360</v>
+        <v>385</v>
       </c>
       <c r="H24" s="7">
         <v>197</v>
@@ -6123,13 +6240,13 @@
         <v>204022</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>361</v>
+        <v>386</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>362</v>
+        <v>387</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>363</v>
+        <v>388</v>
       </c>
       <c r="M24" s="7">
         <v>411</v>
@@ -6138,13 +6255,13 @@
         <v>428169</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>364</v>
+        <v>389</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>365</v>
+        <v>390</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>366</v>
+        <v>391</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -6159,13 +6276,13 @@
         <v>33199</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>367</v>
+        <v>392</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>308</v>
+        <v>333</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>368</v>
+        <v>393</v>
       </c>
       <c r="H25" s="7">
         <v>51</v>
@@ -6174,13 +6291,13 @@
         <v>53972</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>369</v>
+        <v>394</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>370</v>
+        <v>395</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>371</v>
+        <v>396</v>
       </c>
       <c r="M25" s="7">
         <v>82</v>
@@ -6189,13 +6306,13 @@
         <v>87171</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>372</v>
+        <v>268</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>373</v>
+        <v>397</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>374</v>
+        <v>398</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6210,13 +6327,13 @@
         <v>16635</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>375</v>
+        <v>399</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>376</v>
+        <v>400</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>377</v>
+        <v>401</v>
       </c>
       <c r="H26" s="7">
         <v>21</v>
@@ -6228,10 +6345,10 @@
         <v>228</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>378</v>
+        <v>402</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>379</v>
+        <v>403</v>
       </c>
       <c r="M26" s="7">
         <v>37</v>
@@ -6240,13 +6357,13 @@
         <v>38672</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>380</v>
+        <v>404</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>381</v>
+        <v>405</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>382</v>
+        <v>406</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6314,13 +6431,13 @@
         <v>582049</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>383</v>
+        <v>407</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>384</v>
+        <v>408</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>385</v>
+        <v>409</v>
       </c>
       <c r="H28" s="7">
         <v>489</v>
@@ -6329,13 +6446,13 @@
         <v>530183</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>386</v>
+        <v>410</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>387</v>
+        <v>411</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>388</v>
+        <v>412</v>
       </c>
       <c r="M28" s="7">
         <v>1032</v>
@@ -6344,10 +6461,10 @@
         <v>1112232</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>389</v>
+        <v>413</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>390</v>
+        <v>414</v>
       </c>
       <c r="Q28" s="7" t="s">
         <v>50</v>
@@ -6365,13 +6482,13 @@
         <v>55291</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>391</v>
+        <v>415</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>392</v>
+        <v>416</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>393</v>
+        <v>417</v>
       </c>
       <c r="H29" s="7">
         <v>99</v>
@@ -6380,13 +6497,13 @@
         <v>107156</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>394</v>
+        <v>418</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>395</v>
+        <v>419</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>396</v>
+        <v>420</v>
       </c>
       <c r="M29" s="7">
         <v>151</v>
@@ -6395,13 +6512,13 @@
         <v>162447</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>397</v>
+        <v>421</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>398</v>
+        <v>422</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>399</v>
+        <v>423</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6416,13 +6533,13 @@
         <v>25448</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>400</v>
+        <v>424</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>401</v>
+        <v>425</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>402</v>
+        <v>426</v>
       </c>
       <c r="H30" s="7">
         <v>48</v>
@@ -6431,13 +6548,13 @@
         <v>56514</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>403</v>
+        <v>427</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>404</v>
+        <v>428</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>405</v>
+        <v>429</v>
       </c>
       <c r="M30" s="7">
         <v>71</v>
@@ -6446,13 +6563,13 @@
         <v>81962</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>406</v>
+        <v>430</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>407</v>
+        <v>431</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>408</v>
+        <v>432</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -6520,13 +6637,13 @@
         <v>668886</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>409</v>
+        <v>433</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>410</v>
+        <v>434</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>411</v>
+        <v>435</v>
       </c>
       <c r="H32" s="7">
         <v>599</v>
@@ -6535,13 +6652,13 @@
         <v>648689</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>412</v>
+        <v>436</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>413</v>
+        <v>437</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>414</v>
+        <v>438</v>
       </c>
       <c r="M32" s="7">
         <v>1219</v>
@@ -6550,13 +6667,13 @@
         <v>1317575</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>415</v>
+        <v>439</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>416</v>
+        <v>440</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>417</v>
+        <v>441</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -6571,13 +6688,13 @@
         <v>87386</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>418</v>
+        <v>442</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>419</v>
+        <v>443</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>329</v>
+        <v>444</v>
       </c>
       <c r="H33" s="7">
         <v>115</v>
@@ -6586,13 +6703,13 @@
         <v>127757</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>420</v>
+        <v>445</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>421</v>
+        <v>446</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>422</v>
+        <v>447</v>
       </c>
       <c r="M33" s="7">
         <v>192</v>
@@ -6601,13 +6718,13 @@
         <v>215143</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>423</v>
+        <v>448</v>
       </c>
       <c r="P33" s="7" t="s">
         <v>221</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>370</v>
+        <v>395</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -6622,13 +6739,13 @@
         <v>22825</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>424</v>
+        <v>449</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>425</v>
+        <v>450</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>426</v>
+        <v>451</v>
       </c>
       <c r="H34" s="7">
         <v>43</v>
@@ -6637,13 +6754,13 @@
         <v>47408</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>427</v>
+        <v>452</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>428</v>
+        <v>453</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>429</v>
+        <v>454</v>
       </c>
       <c r="M34" s="7">
         <v>63</v>
@@ -6652,13 +6769,13 @@
         <v>70233</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>430</v>
+        <v>455</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>431</v>
+        <v>456</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>432</v>
+        <v>457</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -6726,13 +6843,13 @@
         <v>2925391</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>433</v>
+        <v>458</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>434</v>
+        <v>459</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>435</v>
+        <v>460</v>
       </c>
       <c r="H36" s="7">
         <v>2468</v>
@@ -6741,13 +6858,13 @@
         <v>2656907</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>436</v>
+        <v>461</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>437</v>
+        <v>462</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>438</v>
+        <v>463</v>
       </c>
       <c r="M36" s="7">
         <v>5224</v>
@@ -6756,13 +6873,13 @@
         <v>5582298</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>439</v>
+        <v>464</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>265</v>
+        <v>290</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>440</v>
+        <v>465</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -6780,10 +6897,10 @@
         <v>21</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>441</v>
+        <v>466</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>442</v>
+        <v>467</v>
       </c>
       <c r="H37" s="7">
         <v>535</v>
@@ -6792,13 +6909,13 @@
         <v>579929</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>443</v>
+        <v>468</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>444</v>
+        <v>469</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>445</v>
+        <v>470</v>
       </c>
       <c r="M37" s="7">
         <v>839</v>
@@ -6810,10 +6927,10 @@
         <v>27</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>446</v>
+        <v>471</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>447</v>
+        <v>472</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -6828,13 +6945,13 @@
         <v>166753</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>448</v>
+        <v>473</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>449</v>
+        <v>474</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>303</v>
+        <v>328</v>
       </c>
       <c r="H38" s="7">
         <v>295</v>
@@ -6843,13 +6960,13 @@
         <v>321473</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>450</v>
+        <v>475</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>451</v>
+        <v>476</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>452</v>
+        <v>477</v>
       </c>
       <c r="M38" s="7">
         <v>444</v>
@@ -6858,13 +6975,13 @@
         <v>488226</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>453</v>
+        <v>478</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>454</v>
+        <v>479</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>455</v>
+        <v>480</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -6944,7 +7061,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{001C1767-1C71-4F7B-8374-56360DE99D59}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC5B57C6-A867-4EFF-8E2C-5A3F88B7484C}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6961,7 +7078,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>456</v>
+        <v>481</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -7068,13 +7185,13 @@
         <v>238656</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>457</v>
+        <v>482</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>458</v>
+        <v>483</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>459</v>
+        <v>484</v>
       </c>
       <c r="H4" s="7">
         <v>204</v>
@@ -7083,13 +7200,13 @@
         <v>207660</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>290</v>
+        <v>315</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>460</v>
+        <v>485</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>461</v>
+        <v>486</v>
       </c>
       <c r="M4" s="7">
         <v>419</v>
@@ -7098,13 +7215,13 @@
         <v>446315</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>289</v>
+        <v>314</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>462</v>
+        <v>487</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>463</v>
+        <v>488</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -7119,13 +7236,13 @@
         <v>36857</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>464</v>
+        <v>489</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>419</v>
+        <v>443</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>465</v>
+        <v>490</v>
       </c>
       <c r="H5" s="7">
         <v>37</v>
@@ -7134,13 +7251,13 @@
         <v>40521</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>466</v>
+        <v>491</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>467</v>
+        <v>492</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>468</v>
+        <v>493</v>
       </c>
       <c r="M5" s="7">
         <v>69</v>
@@ -7149,13 +7266,13 @@
         <v>77378</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>469</v>
+        <v>494</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>470</v>
+        <v>495</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>471</v>
+        <v>496</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -7173,10 +7290,10 @@
         <v>160</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>472</v>
+        <v>497</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>473</v>
+        <v>498</v>
       </c>
       <c r="H6" s="7">
         <v>36</v>
@@ -7185,13 +7302,13 @@
         <v>40522</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>466</v>
+        <v>491</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>474</v>
+        <v>499</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>475</v>
+        <v>500</v>
       </c>
       <c r="M6" s="7">
         <v>55</v>
@@ -7200,13 +7317,13 @@
         <v>58771</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>452</v>
+        <v>477</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>476</v>
+        <v>501</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>477</v>
+        <v>502</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -7274,13 +7391,13 @@
         <v>442015</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>478</v>
+        <v>503</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>479</v>
+        <v>504</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>480</v>
+        <v>505</v>
       </c>
       <c r="H8" s="7">
         <v>392</v>
@@ -7289,13 +7406,13 @@
         <v>413041</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>481</v>
+        <v>506</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>482</v>
+        <v>507</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>483</v>
+        <v>508</v>
       </c>
       <c r="M8" s="7">
         <v>808</v>
@@ -7304,13 +7421,13 @@
         <v>855056</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>484</v>
+        <v>509</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>485</v>
+        <v>510</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>486</v>
+        <v>511</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -7325,13 +7442,13 @@
         <v>42036</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>487</v>
+        <v>512</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>392</v>
+        <v>416</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>488</v>
+        <v>513</v>
       </c>
       <c r="H9" s="7">
         <v>58</v>
@@ -7340,13 +7457,13 @@
         <v>69492</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>489</v>
+        <v>514</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>490</v>
+        <v>515</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>491</v>
+        <v>516</v>
       </c>
       <c r="M9" s="7">
         <v>98</v>
@@ -7355,13 +7472,13 @@
         <v>111528</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>492</v>
+        <v>266</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>493</v>
+        <v>517</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>421</v>
+        <v>446</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -7376,13 +7493,13 @@
         <v>18524</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>494</v>
+        <v>518</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>495</v>
+        <v>519</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>496</v>
+        <v>520</v>
       </c>
       <c r="H10" s="7">
         <v>34</v>
@@ -7391,10 +7508,10 @@
         <v>40551</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>497</v>
+        <v>521</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>498</v>
+        <v>522</v>
       </c>
       <c r="L10" s="7" t="s">
         <v>28</v>
@@ -7406,13 +7523,13 @@
         <v>59075</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>499</v>
+        <v>523</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>500</v>
+        <v>524</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>429</v>
+        <v>454</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -7480,13 +7597,13 @@
         <v>275688</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>501</v>
+        <v>525</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>502</v>
+        <v>526</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>503</v>
+        <v>527</v>
       </c>
       <c r="H12" s="7">
         <v>274</v>
@@ -7495,13 +7612,13 @@
         <v>269769</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>504</v>
+        <v>528</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>505</v>
+        <v>529</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>506</v>
+        <v>530</v>
       </c>
       <c r="M12" s="7">
         <v>560</v>
@@ -7510,13 +7627,13 @@
         <v>545457</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>507</v>
+        <v>531</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>508</v>
+        <v>532</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>509</v>
+        <v>533</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -7531,13 +7648,13 @@
         <v>37462</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>510</v>
+        <v>534</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>511</v>
+        <v>535</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>512</v>
+        <v>536</v>
       </c>
       <c r="H13" s="7">
         <v>44</v>
@@ -7546,13 +7663,13 @@
         <v>50455</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>513</v>
+        <v>537</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>514</v>
+        <v>538</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>515</v>
+        <v>539</v>
       </c>
       <c r="M13" s="7">
         <v>87</v>
@@ -7561,13 +7678,13 @@
         <v>87917</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>516</v>
+        <v>540</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>517</v>
+        <v>541</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>518</v>
+        <v>542</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -7582,13 +7699,13 @@
         <v>5415</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>519</v>
+        <v>543</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>520</v>
+        <v>544</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>521</v>
+        <v>545</v>
       </c>
       <c r="H14" s="7">
         <v>14</v>
@@ -7597,13 +7714,13 @@
         <v>16085</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>522</v>
+        <v>546</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>523</v>
+        <v>547</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>524</v>
+        <v>548</v>
       </c>
       <c r="M14" s="7">
         <v>20</v>
@@ -7612,13 +7729,13 @@
         <v>21500</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>525</v>
+        <v>549</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>526</v>
+        <v>550</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>527</v>
+        <v>551</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -7686,13 +7803,13 @@
         <v>317313</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>486</v>
+        <v>511</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>528</v>
+        <v>552</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>529</v>
+        <v>553</v>
       </c>
       <c r="H16" s="7">
         <v>271</v>
@@ -7701,13 +7818,13 @@
         <v>285945</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>530</v>
+        <v>554</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>531</v>
+        <v>555</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>532</v>
+        <v>556</v>
       </c>
       <c r="M16" s="7">
         <v>572</v>
@@ -7716,13 +7833,13 @@
         <v>603258</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>533</v>
+        <v>557</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>534</v>
+        <v>558</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>535</v>
+        <v>559</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -7737,13 +7854,13 @@
         <v>21190</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>354</v>
+        <v>379</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>521</v>
+        <v>545</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>536</v>
+        <v>560</v>
       </c>
       <c r="H17" s="7">
         <v>46</v>
@@ -7752,13 +7869,13 @@
         <v>51624</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>537</v>
+        <v>561</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>538</v>
+        <v>562</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>539</v>
+        <v>563</v>
       </c>
       <c r="M17" s="7">
         <v>67</v>
@@ -7767,13 +7884,13 @@
         <v>72814</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>473</v>
+        <v>498</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>540</v>
+        <v>564</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>541</v>
+        <v>565</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -7788,13 +7905,13 @@
         <v>31461</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>542</v>
+        <v>566</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>543</v>
+        <v>567</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>544</v>
+        <v>568</v>
       </c>
       <c r="H18" s="7">
         <v>41</v>
@@ -7803,13 +7920,13 @@
         <v>49714</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>343</v>
+        <v>367</v>
       </c>
       <c r="K18" s="7" t="s">
         <v>242</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>545</v>
+        <v>569</v>
       </c>
       <c r="M18" s="7">
         <v>73</v>
@@ -7818,13 +7935,13 @@
         <v>81175</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>546</v>
+        <v>570</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>547</v>
+        <v>571</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>489</v>
+        <v>514</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -7892,13 +8009,13 @@
         <v>184478</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>548</v>
+        <v>572</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>549</v>
+        <v>573</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>550</v>
+        <v>574</v>
       </c>
       <c r="H20" s="7">
         <v>177</v>
@@ -7907,10 +8024,10 @@
         <v>169902</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>551</v>
+        <v>575</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>552</v>
+        <v>576</v>
       </c>
       <c r="L20" s="7" t="s">
         <v>184</v>
@@ -7922,13 +8039,13 @@
         <v>354380</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>553</v>
+        <v>577</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>554</v>
+        <v>578</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>555</v>
+        <v>579</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7943,13 +8060,13 @@
         <v>21199</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>556</v>
+        <v>580</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>557</v>
+        <v>581</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>558</v>
+        <v>582</v>
       </c>
       <c r="H21" s="7">
         <v>37</v>
@@ -7958,13 +8075,13 @@
         <v>38977</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>559</v>
+        <v>583</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>477</v>
+        <v>502</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>560</v>
+        <v>584</v>
       </c>
       <c r="M21" s="7">
         <v>60</v>
@@ -7973,13 +8090,13 @@
         <v>60176</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>561</v>
+        <v>585</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>442</v>
+        <v>467</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>562</v>
+        <v>586</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -7994,13 +8111,13 @@
         <v>5544</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>563</v>
+        <v>587</v>
       </c>
       <c r="F22" s="7" t="s">
         <v>32</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>564</v>
+        <v>588</v>
       </c>
       <c r="H22" s="7">
         <v>9</v>
@@ -8009,13 +8126,13 @@
         <v>9708</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>500</v>
+        <v>524</v>
       </c>
       <c r="K22" s="7" t="s">
         <v>175</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>565</v>
+        <v>589</v>
       </c>
       <c r="M22" s="7">
         <v>14</v>
@@ -8024,13 +8141,13 @@
         <v>15252</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>350</v>
+        <v>375</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>566</v>
+        <v>590</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>567</v>
+        <v>591</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -8101,10 +8218,10 @@
         <v>101</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>568</v>
+        <v>592</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>569</v>
+        <v>593</v>
       </c>
       <c r="H24" s="7">
         <v>187</v>
@@ -8113,13 +8230,13 @@
         <v>188260</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>570</v>
+        <v>594</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>571</v>
+        <v>595</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>572</v>
+        <v>596</v>
       </c>
       <c r="M24" s="7">
         <v>391</v>
@@ -8128,13 +8245,13 @@
         <v>397638</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>573</v>
+        <v>341</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>574</v>
+        <v>597</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>575</v>
+        <v>598</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -8149,13 +8266,13 @@
         <v>25092</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>576</v>
+        <v>599</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>577</v>
+        <v>600</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>578</v>
+        <v>601</v>
       </c>
       <c r="H25" s="7">
         <v>45</v>
@@ -8164,13 +8281,13 @@
         <v>47781</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>579</v>
+        <v>602</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>580</v>
+        <v>603</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>581</v>
+        <v>604</v>
       </c>
       <c r="M25" s="7">
         <v>70</v>
@@ -8179,13 +8296,13 @@
         <v>72874</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>582</v>
+        <v>605</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>583</v>
+        <v>606</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>584</v>
+        <v>607</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -8200,13 +8317,13 @@
         <v>28652</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>585</v>
+        <v>608</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>586</v>
+        <v>609</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>444</v>
+        <v>469</v>
       </c>
       <c r="H26" s="7">
         <v>31</v>
@@ -8215,13 +8332,13 @@
         <v>37074</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>587</v>
+        <v>610</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>588</v>
+        <v>611</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>589</v>
+        <v>612</v>
       </c>
       <c r="M26" s="7">
         <v>61</v>
@@ -8230,13 +8347,13 @@
         <v>65726</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>590</v>
+        <v>613</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>591</v>
+        <v>614</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>592</v>
+        <v>615</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -8304,13 +8421,13 @@
         <v>568283</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>593</v>
+        <v>616</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>594</v>
+        <v>617</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>595</v>
+        <v>618</v>
       </c>
       <c r="H28" s="7">
         <v>518</v>
@@ -8319,10 +8436,10 @@
         <v>543914</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>554</v>
+        <v>578</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>596</v>
+        <v>619</v>
       </c>
       <c r="L28" s="7" t="s">
         <v>156</v>
@@ -8334,13 +8451,13 @@
         <v>1112198</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>597</v>
+        <v>620</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>598</v>
+        <v>621</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>599</v>
+        <v>622</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -8355,13 +8472,13 @@
         <v>68457</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>600</v>
+        <v>623</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>328</v>
+        <v>624</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>601</v>
+        <v>625</v>
       </c>
       <c r="H29" s="7">
         <v>70</v>
@@ -8370,13 +8487,13 @@
         <v>79554</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>602</v>
+        <v>626</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>603</v>
+        <v>627</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>604</v>
+        <v>628</v>
       </c>
       <c r="M29" s="7">
         <v>133</v>
@@ -8385,13 +8502,13 @@
         <v>148011</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>605</v>
+        <v>629</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>283</v>
+        <v>308</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>395</v>
+        <v>419</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -8406,13 +8523,13 @@
         <v>19817</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>606</v>
+        <v>630</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>607</v>
+        <v>631</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>608</v>
+        <v>632</v>
       </c>
       <c r="H30" s="7">
         <v>58</v>
@@ -8421,13 +8538,13 @@
         <v>67826</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>609</v>
+        <v>633</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>610</v>
+        <v>634</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>611</v>
+        <v>635</v>
       </c>
       <c r="M30" s="7">
         <v>77</v>
@@ -8436,13 +8553,13 @@
         <v>87643</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>612</v>
+        <v>636</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>613</v>
+        <v>637</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>451</v>
+        <v>476</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -8510,13 +8627,13 @@
         <v>688112</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>614</v>
+        <v>638</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>360</v>
+        <v>385</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>385</v>
+        <v>409</v>
       </c>
       <c r="H32" s="7">
         <v>618</v>
@@ -8525,13 +8642,13 @@
         <v>664040</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>615</v>
+        <v>639</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>616</v>
+        <v>640</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>617</v>
+        <v>641</v>
       </c>
       <c r="M32" s="7">
         <v>1277</v>
@@ -8540,13 +8657,13 @@
         <v>1352152</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>618</v>
+        <v>642</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>619</v>
+        <v>643</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>620</v>
+        <v>644</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -8561,13 +8678,13 @@
         <v>71857</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>621</v>
+        <v>645</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>622</v>
+        <v>646</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>623</v>
+        <v>647</v>
       </c>
       <c r="H33" s="7">
         <v>107</v>
@@ -8576,13 +8693,13 @@
         <v>124222</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>624</v>
+        <v>648</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>625</v>
+        <v>649</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>626</v>
+        <v>650</v>
       </c>
       <c r="M33" s="7">
         <v>179</v>
@@ -8591,13 +8708,13 @@
         <v>196079</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>627</v>
+        <v>349</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>470</v>
+        <v>495</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>628</v>
+        <v>651</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -8612,13 +8729,13 @@
         <v>18614</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>629</v>
+        <v>652</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>630</v>
+        <v>653</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>631</v>
+        <v>654</v>
       </c>
       <c r="H34" s="7">
         <v>30</v>
@@ -8627,13 +8744,13 @@
         <v>37905</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>632</v>
+        <v>655</v>
       </c>
       <c r="K34" s="7" t="s">
         <v>120</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>633</v>
+        <v>656</v>
       </c>
       <c r="M34" s="7">
         <v>49</v>
@@ -8642,13 +8759,13 @@
         <v>56519</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>634</v>
+        <v>657</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>635</v>
+        <v>658</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>636</v>
+        <v>659</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -8716,13 +8833,13 @@
         <v>2923923</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>637</v>
+        <v>660</v>
       </c>
       <c r="F36" s="7" t="s">
         <v>17</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>638</v>
+        <v>661</v>
       </c>
       <c r="H36" s="7">
         <v>2641</v>
@@ -8731,13 +8848,13 @@
         <v>2742531</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>639</v>
+        <v>662</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>640</v>
+        <v>663</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>641</v>
+        <v>664</v>
       </c>
       <c r="M36" s="7">
         <v>5404</v>
@@ -8749,10 +8866,10 @@
         <v>211</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>642</v>
+        <v>665</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>643</v>
+        <v>666</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -8767,13 +8884,13 @@
         <v>324151</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>644</v>
+        <v>667</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>645</v>
+        <v>343</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>270</v>
+        <v>295</v>
       </c>
       <c r="H37" s="7">
         <v>444</v>
@@ -8782,13 +8899,13 @@
         <v>502626</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>646</v>
+        <v>668</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>647</v>
+        <v>669</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>648</v>
+        <v>670</v>
       </c>
       <c r="M37" s="7">
         <v>763</v>
@@ -8797,13 +8914,13 @@
         <v>826777</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>649</v>
+        <v>345</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>650</v>
+        <v>671</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>651</v>
+        <v>672</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -8818,10 +8935,10 @@
         <v>146276</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>327</v>
+        <v>673</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>652</v>
+        <v>674</v>
       </c>
       <c r="G38" s="7" t="s">
         <v>198</v>
@@ -8833,13 +8950,13 @@
         <v>299385</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>653</v>
+        <v>675</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>654</v>
+        <v>676</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>655</v>
+        <v>677</v>
       </c>
       <c r="M38" s="7">
         <v>402</v>
@@ -8848,13 +8965,13 @@
         <v>445660</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>656</v>
+        <v>678</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>657</v>
+        <v>275</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>277</v>
+        <v>302</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -8934,7 +9051,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30C8E741-0087-4C13-A56E-ED7CB0E2AA50}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB91BD62-D76A-4FFE-9D32-BC9EF300B74F}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -8951,7 +9068,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>658</v>
+        <v>679</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -9055,46 +9172,46 @@
         <v>272</v>
       </c>
       <c r="D4" s="7">
-        <v>217941</v>
+        <v>264389</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>659</v>
+        <v>680</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>47</v>
+        <v>681</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>129</v>
+        <v>682</v>
       </c>
       <c r="H4" s="7">
         <v>423</v>
       </c>
       <c r="I4" s="7">
-        <v>217037</v>
+        <v>233994</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>660</v>
+        <v>683</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>661</v>
+        <v>684</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>662</v>
+        <v>685</v>
       </c>
       <c r="M4" s="7">
         <v>695</v>
       </c>
       <c r="N4" s="7">
-        <v>434977</v>
+        <v>498382</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>358</v>
+        <v>686</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>49</v>
+        <v>687</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>663</v>
+        <v>688</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -9106,46 +9223,46 @@
         <v>52</v>
       </c>
       <c r="D5" s="7">
-        <v>37161</v>
+        <v>41429</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>664</v>
+        <v>689</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>665</v>
+        <v>690</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>666</v>
+        <v>691</v>
       </c>
       <c r="H5" s="7">
         <v>94</v>
       </c>
       <c r="I5" s="7">
-        <v>43718</v>
+        <v>44873</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>667</v>
+        <v>692</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>668</v>
+        <v>489</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>273</v>
+        <v>693</v>
       </c>
       <c r="M5" s="7">
         <v>146</v>
       </c>
       <c r="N5" s="7">
-        <v>80878</v>
+        <v>86302</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>669</v>
+        <v>694</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>343</v>
+        <v>695</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>670</v>
+        <v>696</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -9157,46 +9274,46 @@
         <v>7</v>
       </c>
       <c r="D6" s="7">
-        <v>5197</v>
+        <v>5625</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>671</v>
+        <v>697</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>32</v>
+        <v>698</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>449</v>
+        <v>654</v>
       </c>
       <c r="H6" s="7">
         <v>21</v>
       </c>
       <c r="I6" s="7">
-        <v>10649</v>
+        <v>10768</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>672</v>
+        <v>400</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>673</v>
+        <v>699</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>674</v>
+        <v>700</v>
       </c>
       <c r="M6" s="7">
         <v>28</v>
       </c>
       <c r="N6" s="7">
-        <v>15846</v>
+        <v>16393</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>675</v>
+        <v>701</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>676</v>
+        <v>702</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>677</v>
+        <v>703</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -9208,7 +9325,7 @@
         <v>331</v>
       </c>
       <c r="D7" s="7">
-        <v>260298</v>
+        <v>311443</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>40</v>
@@ -9223,7 +9340,7 @@
         <v>538</v>
       </c>
       <c r="I7" s="7">
-        <v>271403</v>
+        <v>289635</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>40</v>
@@ -9238,7 +9355,7 @@
         <v>869</v>
       </c>
       <c r="N7" s="7">
-        <v>531700</v>
+        <v>601077</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>40</v>
@@ -9261,46 +9378,46 @@
         <v>303</v>
       </c>
       <c r="D8" s="7">
-        <v>430407</v>
+        <v>434526</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>678</v>
+        <v>704</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>679</v>
+        <v>705</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>680</v>
+        <v>706</v>
       </c>
       <c r="H8" s="7">
         <v>517</v>
       </c>
       <c r="I8" s="7">
-        <v>421043</v>
+        <v>392735</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>681</v>
+        <v>707</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>682</v>
+        <v>708</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>683</v>
+        <v>709</v>
       </c>
       <c r="M8" s="7">
         <v>820</v>
       </c>
       <c r="N8" s="7">
-        <v>851451</v>
+        <v>827261</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>684</v>
+        <v>710</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>685</v>
+        <v>711</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>686</v>
+        <v>712</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -9312,46 +9429,46 @@
         <v>63</v>
       </c>
       <c r="D9" s="7">
-        <v>70933</v>
+        <v>66803</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>687</v>
+        <v>713</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>688</v>
+        <v>326</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>689</v>
+        <v>714</v>
       </c>
       <c r="H9" s="7">
         <v>134</v>
       </c>
       <c r="I9" s="7">
-        <v>89157</v>
+        <v>82133</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>690</v>
+        <v>715</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>687</v>
+        <v>610</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>691</v>
+        <v>716</v>
       </c>
       <c r="M9" s="7">
         <v>197</v>
       </c>
       <c r="N9" s="7">
-        <v>160090</v>
+        <v>148936</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>692</v>
+        <v>717</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>693</v>
+        <v>191</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>694</v>
+        <v>718</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -9363,46 +9480,46 @@
         <v>16</v>
       </c>
       <c r="D10" s="7">
-        <v>17957</v>
+        <v>17061</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>695</v>
+        <v>719</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>37</v>
+        <v>95</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>696</v>
+        <v>198</v>
       </c>
       <c r="H10" s="7">
         <v>66</v>
       </c>
       <c r="I10" s="7">
-        <v>44366</v>
+        <v>40101</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>697</v>
+        <v>720</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>698</v>
+        <v>721</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>452</v>
+        <v>722</v>
       </c>
       <c r="M10" s="7">
         <v>82</v>
       </c>
       <c r="N10" s="7">
-        <v>62324</v>
+        <v>57162</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>699</v>
+        <v>723</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>33</v>
+        <v>524</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>700</v>
+        <v>724</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -9414,7 +9531,7 @@
         <v>382</v>
       </c>
       <c r="D11" s="7">
-        <v>519297</v>
+        <v>518390</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>40</v>
@@ -9429,7 +9546,7 @@
         <v>717</v>
       </c>
       <c r="I11" s="7">
-        <v>554566</v>
+        <v>514969</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>40</v>
@@ -9444,7 +9561,7 @@
         <v>1099</v>
       </c>
       <c r="N11" s="7">
-        <v>1073864</v>
+        <v>1033359</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>40</v>
@@ -9467,46 +9584,46 @@
         <v>300</v>
       </c>
       <c r="D12" s="7">
-        <v>278836</v>
+        <v>274868</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>701</v>
+        <v>725</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>212</v>
+        <v>726</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>702</v>
+        <v>727</v>
       </c>
       <c r="H12" s="7">
         <v>408</v>
       </c>
       <c r="I12" s="7">
-        <v>299652</v>
+        <v>281210</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>703</v>
+        <v>728</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>704</v>
+        <v>729</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>126</v>
+        <v>730</v>
       </c>
       <c r="M12" s="7">
         <v>708</v>
       </c>
       <c r="N12" s="7">
-        <v>578488</v>
+        <v>556077</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>705</v>
+        <v>731</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>706</v>
+        <v>732</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>707</v>
+        <v>733</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -9518,46 +9635,46 @@
         <v>22</v>
       </c>
       <c r="D13" s="7">
-        <v>16324</v>
+        <v>15663</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>708</v>
+        <v>734</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>709</v>
+        <v>735</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>710</v>
+        <v>736</v>
       </c>
       <c r="H13" s="7">
         <v>68</v>
       </c>
       <c r="I13" s="7">
-        <v>39456</v>
+        <v>36448</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>711</v>
+        <v>194</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>281</v>
+        <v>737</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>712</v>
+        <v>625</v>
       </c>
       <c r="M13" s="7">
         <v>90</v>
       </c>
       <c r="N13" s="7">
-        <v>55781</v>
+        <v>52111</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>713</v>
+        <v>738</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>612</v>
+        <v>739</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>714</v>
+        <v>740</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -9569,46 +9686,46 @@
         <v>38</v>
       </c>
       <c r="D14" s="7">
-        <v>27080</v>
+        <v>25519</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>308</v>
+        <v>741</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>715</v>
+        <v>742</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>716</v>
+        <v>305</v>
       </c>
       <c r="H14" s="7">
         <v>60</v>
       </c>
       <c r="I14" s="7">
-        <v>34175</v>
+        <v>31471</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>717</v>
+        <v>382</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>718</v>
+        <v>743</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>719</v>
+        <v>744</v>
       </c>
       <c r="M14" s="7">
         <v>98</v>
       </c>
       <c r="N14" s="7">
-        <v>61255</v>
+        <v>56990</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>720</v>
+        <v>745</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>721</v>
+        <v>746</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>722</v>
+        <v>747</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -9620,7 +9737,7 @@
         <v>360</v>
       </c>
       <c r="D15" s="7">
-        <v>322240</v>
+        <v>316050</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>40</v>
@@ -9635,7 +9752,7 @@
         <v>536</v>
       </c>
       <c r="I15" s="7">
-        <v>373284</v>
+        <v>349128</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>40</v>
@@ -9650,7 +9767,7 @@
         <v>896</v>
       </c>
       <c r="N15" s="7">
-        <v>695524</v>
+        <v>665178</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>40</v>
@@ -9673,46 +9790,46 @@
         <v>225</v>
       </c>
       <c r="D16" s="7">
-        <v>260607</v>
+        <v>253863</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>723</v>
+        <v>748</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>724</v>
+        <v>749</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>186</v>
+        <v>750</v>
       </c>
       <c r="H16" s="7">
         <v>411</v>
       </c>
       <c r="I16" s="7">
-        <v>335292</v>
+        <v>388772</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>725</v>
+        <v>751</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>726</v>
+        <v>752</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>727</v>
+        <v>753</v>
       </c>
       <c r="M16" s="7">
         <v>636</v>
       </c>
       <c r="N16" s="7">
-        <v>595900</v>
+        <v>642634</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>728</v>
+        <v>754</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>729</v>
+        <v>755</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>730</v>
+        <v>460</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -9724,46 +9841,46 @@
         <v>39</v>
       </c>
       <c r="D17" s="7">
-        <v>34867</v>
+        <v>33141</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>731</v>
+        <v>756</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>732</v>
+        <v>757</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>733</v>
+        <v>758</v>
       </c>
       <c r="H17" s="7">
         <v>128</v>
       </c>
       <c r="I17" s="7">
-        <v>64891</v>
+        <v>60609</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>733</v>
+        <v>759</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>25</v>
+        <v>760</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>734</v>
+        <v>761</v>
       </c>
       <c r="M17" s="7">
         <v>167</v>
       </c>
       <c r="N17" s="7">
-        <v>99758</v>
+        <v>93750</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>489</v>
+        <v>762</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>735</v>
+        <v>535</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>736</v>
+        <v>87</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -9775,46 +9892,46 @@
         <v>28</v>
       </c>
       <c r="D18" s="7">
-        <v>26766</v>
+        <v>25552</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>737</v>
+        <v>763</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>738</v>
+        <v>764</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>739</v>
+        <v>765</v>
       </c>
       <c r="H18" s="7">
         <v>60</v>
       </c>
       <c r="I18" s="7">
-        <v>28372</v>
+        <v>26337</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>740</v>
+        <v>766</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>741</v>
+        <v>760</v>
       </c>
       <c r="M18" s="7">
         <v>88</v>
       </c>
       <c r="N18" s="7">
-        <v>55139</v>
+        <v>51889</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>742</v>
+        <v>767</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>427</v>
+        <v>96</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>743</v>
+        <v>768</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -9826,7 +9943,7 @@
         <v>292</v>
       </c>
       <c r="D19" s="7">
-        <v>322240</v>
+        <v>312557</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>40</v>
@@ -9841,7 +9958,7 @@
         <v>599</v>
       </c>
       <c r="I19" s="7">
-        <v>428556</v>
+        <v>475718</v>
       </c>
       <c r="J19" s="7" t="s">
         <v>40</v>
@@ -9856,7 +9973,7 @@
         <v>891</v>
       </c>
       <c r="N19" s="7">
-        <v>750796</v>
+        <v>788274</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>40</v>
@@ -9879,46 +9996,46 @@
         <v>239</v>
       </c>
       <c r="D20" s="7">
-        <v>172780</v>
+        <v>157085</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>383</v>
+        <v>769</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>744</v>
+        <v>770</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>745</v>
+        <v>771</v>
       </c>
       <c r="H20" s="7">
         <v>360</v>
       </c>
       <c r="I20" s="7">
-        <v>203428</v>
+        <v>208077</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>73</v>
+        <v>772</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>746</v>
+        <v>773</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>747</v>
+        <v>774</v>
       </c>
       <c r="M20" s="7">
         <v>599</v>
       </c>
       <c r="N20" s="7">
-        <v>376208</v>
+        <v>365161</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>748</v>
+        <v>775</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>236</v>
+        <v>639</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>749</v>
+        <v>776</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -9930,46 +10047,46 @@
         <v>32</v>
       </c>
       <c r="D21" s="7">
-        <v>19151</v>
+        <v>17294</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>750</v>
+        <v>777</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>751</v>
+        <v>778</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>752</v>
+        <v>779</v>
       </c>
       <c r="H21" s="7">
         <v>106</v>
       </c>
       <c r="I21" s="7">
-        <v>43531</v>
+        <v>39424</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>753</v>
+        <v>780</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>754</v>
+        <v>781</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>755</v>
+        <v>782</v>
       </c>
       <c r="M21" s="7">
         <v>138</v>
       </c>
       <c r="N21" s="7">
-        <v>62682</v>
+        <v>56718</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>756</v>
+        <v>783</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>757</v>
+        <v>784</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>758</v>
+        <v>785</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -9981,46 +10098,46 @@
         <v>8</v>
       </c>
       <c r="D22" s="7">
-        <v>4817</v>
+        <v>4364</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>759</v>
+        <v>786</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>760</v>
+        <v>787</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>761</v>
+        <v>788</v>
       </c>
       <c r="H22" s="7">
         <v>28</v>
       </c>
       <c r="I22" s="7">
-        <v>11949</v>
+        <v>10733</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>761</v>
+        <v>789</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>762</v>
+        <v>790</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>751</v>
+        <v>416</v>
       </c>
       <c r="M22" s="7">
         <v>36</v>
       </c>
       <c r="N22" s="7">
-        <v>16766</v>
+        <v>15096</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>763</v>
+        <v>791</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>764</v>
+        <v>792</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>765</v>
+        <v>793</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -10032,7 +10149,7 @@
         <v>279</v>
       </c>
       <c r="D23" s="7">
-        <v>196748</v>
+        <v>178742</v>
       </c>
       <c r="E23" s="7" t="s">
         <v>40</v>
@@ -10047,7 +10164,7 @@
         <v>494</v>
       </c>
       <c r="I23" s="7">
-        <v>258908</v>
+        <v>258234</v>
       </c>
       <c r="J23" s="7" t="s">
         <v>40</v>
@@ -10062,7 +10179,7 @@
         <v>773</v>
       </c>
       <c r="N23" s="7">
-        <v>455656</v>
+        <v>436976</v>
       </c>
       <c r="O23" s="7" t="s">
         <v>40</v>
@@ -10085,46 +10202,46 @@
         <v>319</v>
       </c>
       <c r="D24" s="7">
-        <v>247828</v>
+        <v>241515</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>766</v>
+        <v>794</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>360</v>
+        <v>660</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>767</v>
+        <v>795</v>
       </c>
       <c r="H24" s="7">
         <v>351</v>
       </c>
       <c r="I24" s="7">
-        <v>229020</v>
+        <v>213585</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>768</v>
+        <v>796</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>769</v>
+        <v>797</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>637</v>
+        <v>660</v>
       </c>
       <c r="M24" s="7">
         <v>670</v>
       </c>
       <c r="N24" s="7">
-        <v>476848</v>
+        <v>455100</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>770</v>
+        <v>798</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>771</v>
+        <v>459</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>772</v>
+        <v>799</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -10136,46 +10253,46 @@
         <v>21</v>
       </c>
       <c r="D25" s="7">
-        <v>13740</v>
+        <v>13269</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>773</v>
+        <v>800</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>675</v>
+        <v>801</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>774</v>
+        <v>802</v>
       </c>
       <c r="H25" s="7">
         <v>47</v>
       </c>
       <c r="I25" s="7">
-        <v>20960</v>
+        <v>19537</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>775</v>
+        <v>803</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>776</v>
+        <v>804</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>332</v>
+        <v>633</v>
       </c>
       <c r="M25" s="7">
         <v>68</v>
       </c>
       <c r="N25" s="7">
-        <v>34700</v>
+        <v>32806</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>777</v>
+        <v>805</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>778</v>
+        <v>806</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>403</v>
+        <v>807</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -10187,46 +10304,46 @@
         <v>31</v>
       </c>
       <c r="D26" s="7">
-        <v>15654</v>
+        <v>14852</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>779</v>
+        <v>139</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>780</v>
+        <v>808</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>781</v>
+        <v>809</v>
       </c>
       <c r="H26" s="7">
         <v>62</v>
       </c>
       <c r="I26" s="7">
-        <v>25642</v>
+        <v>23934</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>782</v>
+        <v>81</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>277</v>
+        <v>810</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>783</v>
+        <v>811</v>
       </c>
       <c r="M26" s="7">
         <v>93</v>
       </c>
       <c r="N26" s="7">
-        <v>41297</v>
+        <v>38786</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>784</v>
+        <v>812</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>543</v>
+        <v>813</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>81</v>
+        <v>814</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -10238,7 +10355,7 @@
         <v>371</v>
       </c>
       <c r="D27" s="7">
-        <v>277223</v>
+        <v>269636</v>
       </c>
       <c r="E27" s="7" t="s">
         <v>40</v>
@@ -10253,7 +10370,7 @@
         <v>460</v>
       </c>
       <c r="I27" s="7">
-        <v>275622</v>
+        <v>257056</v>
       </c>
       <c r="J27" s="7" t="s">
         <v>40</v>
@@ -10268,7 +10385,7 @@
         <v>831</v>
       </c>
       <c r="N27" s="7">
-        <v>552845</v>
+        <v>526692</v>
       </c>
       <c r="O27" s="7" t="s">
         <v>40</v>
@@ -10291,46 +10408,46 @@
         <v>486</v>
       </c>
       <c r="D28" s="7">
-        <v>523226</v>
+        <v>523084</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>785</v>
+        <v>815</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>786</v>
+        <v>816</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>555</v>
+        <v>817</v>
       </c>
       <c r="H28" s="7">
         <v>691</v>
       </c>
       <c r="I28" s="7">
-        <v>636528</v>
+        <v>695232</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>787</v>
+        <v>818</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>788</v>
+        <v>819</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>789</v>
+        <v>820</v>
       </c>
       <c r="M28" s="7">
         <v>1177</v>
       </c>
       <c r="N28" s="7">
-        <v>1159754</v>
+        <v>1218317</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>790</v>
+        <v>77</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>791</v>
+        <v>821</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>792</v>
+        <v>822</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -10342,46 +10459,46 @@
         <v>86</v>
       </c>
       <c r="D29" s="7">
-        <v>81086</v>
+        <v>78902</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>373</v>
+        <v>325</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>793</v>
+        <v>823</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>794</v>
+        <v>824</v>
       </c>
       <c r="H29" s="7">
         <v>164</v>
       </c>
       <c r="I29" s="7">
-        <v>102749</v>
+        <v>94640</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>795</v>
+        <v>825</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>796</v>
+        <v>826</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>797</v>
+        <v>827</v>
       </c>
       <c r="M29" s="7">
         <v>250</v>
       </c>
       <c r="N29" s="7">
-        <v>183835</v>
+        <v>173542</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>343</v>
+        <v>828</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>317</v>
+        <v>107</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>798</v>
+        <v>829</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -10393,46 +10510,46 @@
         <v>27</v>
       </c>
       <c r="D30" s="7">
-        <v>23442</v>
+        <v>22292</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>799</v>
+        <v>830</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>800</v>
+        <v>831</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>801</v>
+        <v>832</v>
       </c>
       <c r="H30" s="7">
         <v>105</v>
       </c>
       <c r="I30" s="7">
-        <v>64926</v>
+        <v>59393</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>802</v>
+        <v>478</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>803</v>
+        <v>833</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>804</v>
+        <v>611</v>
       </c>
       <c r="M30" s="7">
         <v>132</v>
       </c>
       <c r="N30" s="7">
-        <v>88368</v>
+        <v>81685</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>79</v>
+        <v>766</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>805</v>
+        <v>196</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>806</v>
+        <v>834</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -10444,7 +10561,7 @@
         <v>599</v>
       </c>
       <c r="D31" s="7">
-        <v>627754</v>
+        <v>624279</v>
       </c>
       <c r="E31" s="7" t="s">
         <v>40</v>
@@ -10459,7 +10576,7 @@
         <v>960</v>
       </c>
       <c r="I31" s="7">
-        <v>804203</v>
+        <v>849265</v>
       </c>
       <c r="J31" s="7" t="s">
         <v>40</v>
@@ -10474,7 +10591,7 @@
         <v>1559</v>
       </c>
       <c r="N31" s="7">
-        <v>1431957</v>
+        <v>1473544</v>
       </c>
       <c r="O31" s="7" t="s">
         <v>40</v>
@@ -10497,46 +10614,46 @@
         <v>641</v>
       </c>
       <c r="D32" s="7">
-        <v>702144</v>
+        <v>593680</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>807</v>
+        <v>835</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>808</v>
+        <v>836</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>809</v>
+        <v>837</v>
       </c>
       <c r="H32" s="7">
         <v>768</v>
       </c>
       <c r="I32" s="7">
-        <v>656714</v>
+        <v>542266</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>810</v>
+        <v>838</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>811</v>
+        <v>839</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>812</v>
+        <v>840</v>
       </c>
       <c r="M32" s="7">
         <v>1409</v>
       </c>
       <c r="N32" s="7">
-        <v>1358857</v>
+        <v>1135946</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>813</v>
+        <v>841</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>814</v>
+        <v>842</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>14</v>
+        <v>552</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -10548,46 +10665,46 @@
         <v>85</v>
       </c>
       <c r="D33" s="7">
-        <v>126649</v>
+        <v>308994</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>815</v>
+        <v>843</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>173</v>
+        <v>844</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>816</v>
+        <v>845</v>
       </c>
       <c r="H33" s="7">
         <v>181</v>
       </c>
       <c r="I33" s="7">
-        <v>134563</v>
+        <v>111356</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>817</v>
+        <v>846</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>818</v>
+        <v>561</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>819</v>
+        <v>847</v>
       </c>
       <c r="M33" s="7">
         <v>266</v>
       </c>
       <c r="N33" s="7">
-        <v>261211</v>
+        <v>420350</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>820</v>
+        <v>848</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>783</v>
+        <v>392</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>821</v>
+        <v>849</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -10599,46 +10716,46 @@
         <v>36</v>
       </c>
       <c r="D34" s="7">
-        <v>30635</v>
+        <v>26047</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>822</v>
+        <v>850</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>800</v>
+        <v>851</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>381</v>
+        <v>117</v>
       </c>
       <c r="H34" s="7">
         <v>113</v>
       </c>
       <c r="I34" s="7">
-        <v>77158</v>
+        <v>64109</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>823</v>
+        <v>852</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>824</v>
+        <v>853</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>722</v>
+        <v>854</v>
       </c>
       <c r="M34" s="7">
         <v>149</v>
       </c>
       <c r="N34" s="7">
-        <v>107793</v>
+        <v>90156</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>577</v>
+        <v>826</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>825</v>
+        <v>855</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>826</v>
+        <v>856</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -10650,7 +10767,7 @@
         <v>762</v>
       </c>
       <c r="D35" s="7">
-        <v>859428</v>
+        <v>928720</v>
       </c>
       <c r="E35" s="7" t="s">
         <v>40</v>
@@ -10665,7 +10782,7 @@
         <v>1062</v>
       </c>
       <c r="I35" s="7">
-        <v>868434</v>
+        <v>717731</v>
       </c>
       <c r="J35" s="7" t="s">
         <v>40</v>
@@ -10680,7 +10797,7 @@
         <v>1824</v>
       </c>
       <c r="N35" s="7">
-        <v>1727862</v>
+        <v>1646452</v>
       </c>
       <c r="O35" s="7" t="s">
         <v>40</v>
@@ -10703,46 +10820,46 @@
         <v>2785</v>
       </c>
       <c r="D36" s="7">
-        <v>2833769</v>
+        <v>2743009</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>827</v>
+        <v>857</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>828</v>
+        <v>858</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>829</v>
+        <v>511</v>
       </c>
       <c r="H36" s="7">
         <v>3929</v>
       </c>
       <c r="I36" s="7">
-        <v>2998714</v>
+        <v>2955870</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>830</v>
+        <v>859</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>831</v>
+        <v>860</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>832</v>
+        <v>861</v>
       </c>
       <c r="M36" s="7">
         <v>6714</v>
       </c>
       <c r="N36" s="7">
-        <v>5832483</v>
+        <v>5698879</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>833</v>
+        <v>862</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>412</v>
+        <v>863</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>834</v>
+        <v>864</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -10754,46 +10871,46 @@
         <v>400</v>
       </c>
       <c r="D37" s="7">
-        <v>399910</v>
+        <v>575495</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>835</v>
+        <v>865</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>836</v>
+        <v>866</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>837</v>
+        <v>867</v>
       </c>
       <c r="H37" s="7">
         <v>922</v>
       </c>
       <c r="I37" s="7">
-        <v>539024</v>
+        <v>489021</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>838</v>
+        <v>868</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>839</v>
+        <v>869</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>218</v>
+        <v>371</v>
       </c>
       <c r="M37" s="7">
         <v>1322</v>
       </c>
       <c r="N37" s="7">
-        <v>938934</v>
+        <v>1064516</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>57</v>
+        <v>870</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>397</v>
+        <v>310</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>840</v>
+        <v>871</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -10805,46 +10922,46 @@
         <v>191</v>
       </c>
       <c r="D38" s="7">
-        <v>151549</v>
+        <v>141313</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>841</v>
+        <v>872</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>842</v>
+        <v>873</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>171</v>
+        <v>806</v>
       </c>
       <c r="H38" s="7">
         <v>515</v>
       </c>
       <c r="I38" s="7">
-        <v>297238</v>
+        <v>266844</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>497</v>
+        <v>874</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>843</v>
+        <v>226</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>844</v>
+        <v>875</v>
       </c>
       <c r="M38" s="7">
         <v>706</v>
       </c>
       <c r="N38" s="7">
-        <v>448787</v>
+        <v>408157</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>144</v>
+        <v>876</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>303</v>
+        <v>402</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>845</v>
+        <v>52</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -10856,7 +10973,7 @@
         <v>3376</v>
       </c>
       <c r="D39" s="7">
-        <v>3385228</v>
+        <v>3459817</v>
       </c>
       <c r="E39" s="7" t="s">
         <v>40</v>
@@ -10871,7 +10988,7 @@
         <v>5366</v>
       </c>
       <c r="I39" s="7">
-        <v>3834976</v>
+        <v>3711735</v>
       </c>
       <c r="J39" s="7" t="s">
         <v>40</v>
@@ -10886,7 +11003,7 @@
         <v>8742</v>
       </c>
       <c r="N39" s="7">
-        <v>7220204</v>
+        <v>7171552</v>
       </c>
       <c r="O39" s="7" t="s">
         <v>40</v>
